--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
   <si>
     <t>#</t>
   </si>
@@ -400,15 +400,9 @@
     <t>XXW</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
     <t>XW</t>
   </si>
   <si>
-    <t>EE</t>
-  </si>
-  <si>
     <t>WEF</t>
   </si>
   <si>
@@ -455,78 +449,6 @@
   </si>
   <si>
     <t>让我们来看看盒子里面是什么。</t>
-  </si>
-  <si>
-    <t>牺牲一个生物, 降低目标生物的力量, 数值等于所牺牲生物的力量.</t>
-  </si>
-  <si>
-    <t>查看你的牌库顶端两张牌，你可以选择一张将其置于手牌，另一张置于牌库底端。</t>
-  </si>
-  <si>
-    <t>嘲讽。
-反馈1。</t>
-  </si>
-  <si>
-    <t>当可食用藤蔓进入墓地时，你恢复生命值，数量等于可食用藤蔓的力量。</t>
-  </si>
-  <si>
-    <t>*：增加目标咒文1点力量</t>
-  </si>
-  <si>
-    <t>增加目标咒文1点力量.</t>
-  </si>
-  <si>
-    <t>寒冰山猫上场时，退回1。</t>
-  </si>
-  <si>
-    <t>法力引导WW: 上场时, 幻影裂片的力量+2.
-幻影裂片无法被防御.</t>
-  </si>
-  <si>
-    <t>上场时, 目标蓝色召唤物力量+2.
-只要潮湿之地在战场上, 你的所有其他蓝色召唤物力量+1.</t>
-  </si>
-  <si>
-    <t>创伤: 攻击或者防御的目标不会在开始回合阶段恢复力量.</t>
-  </si>
-  <si>
-    <t>防御者</t>
-  </si>
-  <si>
-    <t>先攻.</t>
-  </si>
-  <si>
-    <t>假象: 成为法术的目标时, 被置于墓地.</t>
-  </si>
-  <si>
-    <t>无力1.
-法力粘虫被置于墓地后, 召唤两个力量为1, 无力1的法力黏虫幼体进入战场.</t>
-  </si>
-  <si>
-    <t>防御者。反击。</t>
-  </si>
-  <si>
-    <t>横置: 目标玩家抽一张牌。
-W横置：退回1。</t>
-  </si>
-  <si>
-    <t>只要具象师塞恩在战场上, 你的所有其他召唤物的"假象"属性失效.</t>
-  </si>
-  <si>
-    <t>无力1</t>
-  </si>
-  <si>
-    <t>防御者.
-受到来自法术的伤害-1.</t>
-  </si>
-  <si>
-    <t>防御者。
-无力4。</t>
-  </si>
-  <si>
-    <t>水流亲和。
-无力3.
-横置正在攻击/防御的召唤物，目标召唤物在下一个回合开始阶段不会还原。</t>
   </si>
   <si>
     <t>压制4.
@@ -620,17 +542,96 @@
 对目标玩家或者召唤物造成1点伤害.</t>
   </si>
   <si>
-    <t>*假象: 成为法术的目标时, 被置于墓地. *冷凝虚影以目标生物的复制品进入战场.</t>
+    <t>* 冷凝虚影以目标生物的复制品进入战场 * 不稳定: 回合结束时死亡</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>* 牺牲一个你的生物, 目标生物-X/-Y, 数值等于所牺牲生物的力量/防御.</t>
+  </si>
+  <si>
+    <t>* 查看你的牌库顶端两张牌，你可以选择一张将其置于手牌，另一张置于牌库底端。</t>
+  </si>
+  <si>
+    <t>* 当可食用藤蔓进入墓地时，你恢复生命值，数量等于可食用藤蔓的力量。</t>
+  </si>
+  <si>
+    <t>* 进入战场时, 目标生物+1/+1</t>
+  </si>
+  <si>
+    <t>* 死亡时, 对指定生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 你的红色卡槽内的生物获得+2/+0</t>
+  </si>
+  <si>
+    <t>* 寒冰山猫上场时, 冻结与其所在卡槽颜色相同的所有敌方生物, 使它们无法攻击或者改变卡槽, 直到该玩家的回合结束阶段.</t>
+  </si>
+  <si>
+    <t>* 幻影裂片无法被防御.</t>
+  </si>
+  <si>
+    <t>* 目标生物+2/+2 * 目标生物所在卡槽被视为蓝色</t>
+  </si>
+  <si>
+    <t>* 嘲讽: 攻击中的生物必须指定任一防御者作为目标 * 防御者</t>
+  </si>
+  <si>
+    <t>* 进攻时, 目标生物受到1点伤害</t>
+  </si>
+  <si>
+    <t>* 进攻时, 攻击的生物-1/-0</t>
+  </si>
+  <si>
+    <t>* 不稳定: 回合结束时死亡</t>
+  </si>
+  <si>
+    <t>* 法力粘虫进入墓地后, 你可以消耗XW, 立即复制一个2/2的法力黏虫幼体进入战场.</t>
+  </si>
+  <si>
+    <t>XEE</t>
+  </si>
+  <si>
+    <t>* 冻结自身, 目标玩家抽1张卡 * 消耗W, 冻结自身和目标生物</t>
+  </si>
+  <si>
+    <t>* 具象师塞恩处于蓝色卡槽中时, 你的所有其他生物的"不稳定"属性失效.</t>
+  </si>
+  <si>
+    <t>XXFE</t>
+  </si>
+  <si>
+    <t>* 嘲讽 * 位于绿色卡槽中时, 获得+1/+1</t>
+  </si>
+  <si>
+    <t>* 嘲讽</t>
+  </si>
+  <si>
+    <t>* 攻击后, 冻结目标生物.</t>
+  </si>
+  <si>
+    <t>XXEEE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -655,7 +656,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,6 +666,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,25 +694,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,7 +1028,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1019,12 +1038,12 @@
     <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="3.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="113.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="119" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1080,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1091,15 +1110,15 @@
       <c r="E2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="8">
         <f>LEN(G2)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -1108,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -1128,12 +1147,15 @@
       <c r="E3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F52" si="0">LEN(G3)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -1149,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
@@ -1160,26 +1182,29 @@
       <c r="E4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>20</v>
@@ -1190,17 +1215,17 @@
       <c r="E5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1209,7 +1234,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1220,31 +1245,36 @@
       <c r="E6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1</v>
-      </c>
       <c r="J6" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1254,12 +1284,15 @@
       <c r="E7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>126</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1268,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -1276,7 +1309,9 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1286,7 +1321,7 @@
       <c r="E8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1294,7 +1329,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1303,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1323,12 +1358,15 @@
       <c r="E9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1336,9 +1374,11 @@
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="N9" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1346,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>25</v>
@@ -1357,12 +1397,15 @@
       <c r="E10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1371,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="N10" s="3"/>
     </row>
@@ -1380,7 +1423,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>26</v>
@@ -1391,12 +1434,15 @@
       <c r="E11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -1405,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -1414,7 +1460,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>27</v>
@@ -1425,7 +1471,7 @@
       <c r="E12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1433,7 +1479,7 @@
         <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1442,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -1451,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1462,7 +1508,7 @@
       <c r="E13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1470,12 +1516,12 @@
         <v>125</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -1484,7 +1530,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>29</v>
@@ -1495,12 +1541,15 @@
       <c r="E14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -1509,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -1517,7 +1566,9 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1527,7 +1578,7 @@
       <c r="E15" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1535,16 +1586,16 @@
         <v>126</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1553,7 +1604,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>31</v>
@@ -1564,12 +1615,15 @@
       <c r="E16" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -1578,7 +1632,7 @@
         <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -1587,7 +1641,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>32</v>
@@ -1598,12 +1652,15 @@
       <c r="E17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -1612,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -1621,7 +1678,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>33</v>
@@ -1632,12 +1689,15 @@
       <c r="E18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
@@ -1646,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -1654,7 +1714,9 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1664,15 +1726,15 @@
       <c r="E19" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19" s="4">
         <v>3</v>
@@ -1681,7 +1743,7 @@
         <v>3</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="N19" s="3"/>
     </row>
@@ -1690,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
@@ -1701,7 +1763,7 @@
       <c r="E20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1709,7 +1771,7 @@
         <v>125</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I20" s="4">
         <v>3</v>
@@ -1718,7 +1780,7 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -1727,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
@@ -1738,7 +1800,7 @@
       <c r="E21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1746,7 +1808,7 @@
         <v>127</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="4">
         <v>3</v>
@@ -1755,7 +1817,7 @@
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -1764,7 +1826,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>37</v>
@@ -1775,32 +1837,32 @@
       <c r="E22" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="4">
         <v>1</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="4">
-        <v>3</v>
       </c>
       <c r="J22" s="4">
         <v>3</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1810,15 +1872,15 @@
       <c r="E23" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -1827,7 +1889,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="N23" s="3"/>
     </row>
@@ -1836,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>39</v>
@@ -1847,21 +1909,24 @@
       <c r="E24" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="4">
         <v>0</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I24" s="4">
-        <v>4</v>
       </c>
       <c r="J24" s="4">
         <v>4</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -1870,7 +1935,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
@@ -1881,24 +1946,24 @@
       <c r="E25" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="4">
         <v>2</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" s="4">
-        <v>4</v>
       </c>
       <c r="J25" s="4">
         <v>4</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="N25" s="3"/>
     </row>
@@ -1906,7 +1971,9 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1916,15 +1983,15 @@
       <c r="E26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I26" s="4">
         <v>5</v>
@@ -1933,7 +2000,7 @@
         <v>5</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="N26" s="3"/>
     </row>
@@ -1941,7 +2008,9 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1951,15 +2020,15 @@
       <c r="E27" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I27" s="4">
         <v>5</v>
@@ -1968,7 +2037,7 @@
         <v>5</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -1977,7 +2046,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>43</v>
@@ -1988,15 +2057,15 @@
       <c r="E28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I28" s="4">
         <v>5</v>
@@ -2005,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="N28" s="3"/>
     </row>
@@ -2014,7 +2083,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>44</v>
@@ -2025,17 +2094,17 @@
       <c r="E29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="N29" s="3"/>
     </row>
@@ -2044,7 +2113,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>45</v>
@@ -2055,7 +2124,7 @@
       <c r="E30" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2063,15 +2132,15 @@
         <v>123</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2079,7 +2148,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -2090,7 +2159,7 @@
       <c r="E31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2098,12 +2167,12 @@
         <v>123</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -2111,7 +2180,9 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C32" s="4" t="s">
         <v>47</v>
       </c>
@@ -2121,20 +2192,20 @@
       <c r="E32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="N32" s="3"/>
     </row>
@@ -2142,7 +2213,9 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>48</v>
       </c>
@@ -2152,17 +2225,17 @@
       <c r="E33" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="N33" s="4"/>
     </row>
@@ -2170,7 +2243,9 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>49</v>
       </c>
@@ -2180,20 +2255,20 @@
       <c r="E34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="N34" s="3"/>
     </row>
@@ -2201,7 +2276,9 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C35" s="3" t="s">
         <v>50</v>
       </c>
@@ -2211,20 +2288,20 @@
       <c r="E35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="N35" s="3"/>
     </row>
@@ -2232,7 +2309,9 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C36" s="3" t="s">
         <v>51</v>
       </c>
@@ -2242,15 +2321,15 @@
       <c r="E36" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -2259,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="N36" s="3"/>
     </row>
@@ -2268,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>52</v>
@@ -2279,15 +2358,15 @@
       <c r="E37" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I37" s="3">
         <v>2</v>
@@ -2296,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="N37" s="3"/>
     </row>
@@ -2304,7 +2383,9 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C38" s="3" t="s">
         <v>53</v>
       </c>
@@ -2314,7 +2395,7 @@
       <c r="E38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2322,12 +2403,12 @@
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="N38" s="3"/>
     </row>
@@ -2335,7 +2416,9 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C39" s="3" t="s">
         <v>54</v>
       </c>
@@ -2345,20 +2428,20 @@
       <c r="E39" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="N39" s="3"/>
     </row>
@@ -2367,7 +2450,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>55</v>
@@ -2378,7 +2461,7 @@
       <c r="E40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2386,12 +2469,12 @@
         <v>123</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="N40" s="3"/>
     </row>
@@ -2400,7 +2483,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>56</v>
@@ -2411,17 +2494,17 @@
       <c r="E41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="N41" s="3"/>
     </row>
@@ -2430,7 +2513,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>57</v>
@@ -2441,7 +2524,7 @@
       <c r="E42" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2449,12 +2532,12 @@
         <v>123</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="N42" s="3"/>
     </row>
@@ -2463,7 +2546,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>58</v>
@@ -2474,20 +2557,20 @@
       <c r="E43" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -2496,7 +2579,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>59</v>
@@ -2507,17 +2590,17 @@
       <c r="E44" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="N44" s="3"/>
     </row>
@@ -2526,7 +2609,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>60</v>
@@ -2537,7 +2620,7 @@
       <c r="E45" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2545,12 +2628,12 @@
         <v>127</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="N45" s="3"/>
     </row>
@@ -2559,7 +2642,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>61</v>
@@ -2570,20 +2653,20 @@
       <c r="E46" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="N46" s="3"/>
     </row>
@@ -2592,7 +2675,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>62</v>
@@ -2603,17 +2686,17 @@
       <c r="E47" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="N47" s="3"/>
     </row>
@@ -2622,7 +2705,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>63</v>
@@ -2633,15 +2716,15 @@
       <c r="E48" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I48" s="4">
         <v>2</v>
@@ -2650,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="N48" s="3"/>
     </row>
@@ -2659,7 +2742,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>64</v>
@@ -2670,7 +2753,7 @@
       <c r="E49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2678,12 +2761,12 @@
         <v>123</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="N49" s="3"/>
     </row>
@@ -2692,7 +2775,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>65</v>
@@ -2703,15 +2786,15 @@
       <c r="E50" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -2720,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="N50" s="3"/>
     </row>
@@ -2729,7 +2812,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>66</v>
@@ -2740,15 +2823,15 @@
       <c r="E51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I51" s="4">
         <v>3</v>
@@ -2757,7 +2840,7 @@
         <v>3</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="N51" s="3"/>
     </row>
@@ -2765,7 +2848,9 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="3"/>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C52" s="3" t="s">
         <v>67</v>
       </c>
@@ -2775,20 +2860,20 @@
       <c r="E52" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="N52" s="3"/>
     </row>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -8,13 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
+    <sheet name="DeckBuilding" sheetId="2" r:id="rId2"/>
+    <sheet name="Numeric" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$E$1:$F$1000</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="217">
   <si>
     <t>#</t>
   </si>
@@ -403,9 +408,6 @@
     <t>XW</t>
   </si>
   <si>
-    <t>WEF</t>
-  </si>
-  <si>
     <t>EW</t>
   </si>
   <si>
@@ -451,27 +453,10 @@
     <t>让我们来看看盒子里面是什么。</t>
   </si>
   <si>
-    <t>压制4.
-防御者.</t>
-  </si>
-  <si>
-    <t>其它所有的黑曜石力量+1.</t>
-  </si>
-  <si>
-    <t>水流亲和.
-假象。</t>
-  </si>
-  <si>
-    <t>目标玩家抽/弃一张牌。</t>
-  </si>
-  <si>
     <t>声明一种颜色，并查看指定玩家的一张手牌，如果该卡牌颜色与所声明颜色相同，目标玩家受到1伤害。</t>
   </si>
   <si>
     <t>偏转: 改变正在攻击的咒文的目标为你指定的目标.</t>
-  </si>
-  <si>
-    <t>在其回合的维持开始时，为其恢复1生命。</t>
   </si>
   <si>
     <t>对目标玩家或者咒文造成2点伤害.</t>
@@ -560,9 +545,6 @@
     <t>* 当可食用藤蔓进入墓地时，你恢复生命值，数量等于可食用藤蔓的力量。</t>
   </si>
   <si>
-    <t>* 进入战场时, 目标生物+1/+1</t>
-  </si>
-  <si>
     <t>* 死亡时, 对指定生物造成1点伤害</t>
   </si>
   <si>
@@ -615,6 +597,87 @@
   </si>
   <si>
     <t>XXEEE</t>
+  </si>
+  <si>
+    <t>XXWEF</t>
+  </si>
+  <si>
+    <t>* 其它所有的黑曜石力量+1.</t>
+  </si>
+  <si>
+    <t>* 目标玩家抽一张牌。</t>
+  </si>
+  <si>
+    <t>半人马弓箭手</t>
+  </si>
+  <si>
+    <t>* 生长: 在你的回合开始阶段, 如果该生物被元素增强, 获得+1/+1</t>
+  </si>
+  <si>
+    <t>* 在你的回合开始阶段, 为附魔的生物+0/+1</t>
+  </si>
+  <si>
+    <t>* 嘲讽 * E: 正在攻击此卡的生物获得-1/-0, 直到其回合结束.</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>7+</t>
+  </si>
+  <si>
+    <t>林精</t>
+  </si>
+  <si>
+    <t>* 附魔的生物+1/+1</t>
+  </si>
+  <si>
+    <t>* 所在卡槽被视为绿色</t>
+  </si>
+  <si>
+    <t>丛林之雨</t>
+  </si>
+  <si>
+    <t>* 你的所有绿色卡槽的生物获得+0/+1</t>
+  </si>
+  <si>
+    <t>森林护佑</t>
+  </si>
+  <si>
+    <t>* 目标生物无法被绿色卡槽的生物攻击, 直到你的下一个回合开始</t>
+  </si>
+  <si>
+    <t>绿化</t>
+  </si>
+  <si>
+    <t>* 目标生物所在卡槽被视为绿色, 直到回合结束</t>
+  </si>
+  <si>
+    <t>哨卫</t>
+  </si>
+  <si>
+    <t>* 目标生物获得[嘲讽: 攻击中的生物必须指定任一防御者作为目标]</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>精灵射手</t>
+  </si>
+  <si>
+    <t>* 暗杀: 进攻时, 敌方生物无法攻击</t>
+  </si>
+  <si>
+    <t>半人马冲锋者</t>
+  </si>
+  <si>
+    <t>树人卫士</t>
+  </si>
+  <si>
+    <t>* 冻结自身: 目标生物获得+0/+1, 直到回合结束</t>
   </si>
 </sst>
 </file>
@@ -694,7 +757,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -720,6 +783,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,11 +1091,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1094,12 +1162,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -1115,10 +1183,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
@@ -1127,11 +1195,11 @@
         <v>0</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1148,14 +1216,14 @@
         <v>119</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F52" si="0">LEN(G3)</f>
+        <f t="shared" ref="F3:F60" si="0">LEN(G3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>123</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I3" s="4">
         <v>1</v>
@@ -1166,7 +1234,7 @@
       <c r="K3" s="4"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1190,16 +1258,16 @@
         <v>125</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -1220,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1253,7 +1321,7 @@
         <v>128</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -1262,13 +1330,13 @@
         <v>5</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1292,7 +1360,7 @@
         <v>126</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1301,11 +1369,11 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1323,13 +1391,13 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1338,11 +1406,11 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1363,10 +1431,10 @@
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1375,13 +1443,13 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1402,10 +1470,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1414,11 +1482,11 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N10" s="3"/>
     </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1442,7 +1510,7 @@
         <v>125</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
@@ -1451,11 +1519,11 @@
         <v>1</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="N11" s="3"/>
     </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1479,7 +1547,7 @@
         <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I12" s="4">
         <v>1</v>
@@ -1488,16 +1556,16 @@
         <v>1</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="N12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
@@ -1516,16 +1584,16 @@
         <v>125</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="N13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1549,7 +1617,7 @@
         <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I14" s="4">
         <v>1</v>
@@ -1558,11 +1626,11 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1586,7 +1654,7 @@
         <v>126</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -1595,11 +1663,11 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1620,10 +1688,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -1632,11 +1700,11 @@
         <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1660,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I17" s="4">
         <v>2</v>
@@ -1669,11 +1737,11 @@
         <v>2</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N17" s="3"/>
     </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1697,7 +1765,7 @@
         <v>125</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" s="4">
         <v>2</v>
@@ -1706,11 +1774,11 @@
         <v>2</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1731,28 +1799,28 @@
         <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" s="4" t="s">
         <v>194</v>
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>35</v>
@@ -1771,7 +1839,7 @@
         <v>125</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I20" s="4">
         <v>3</v>
@@ -1780,16 +1848,16 @@
         <v>3</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>36</v>
@@ -1808,7 +1876,7 @@
         <v>127</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="4">
         <v>3</v>
@@ -1817,11 +1885,11 @@
         <v>3</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1845,7 +1913,7 @@
         <v>125</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I22" s="4">
         <v>1</v>
@@ -1856,7 +1924,7 @@
       <c r="K22" s="4"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1877,10 +1945,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -1889,11 +1957,11 @@
         <v>4</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N23" s="3"/>
     </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1917,7 +1985,7 @@
         <v>123</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I24" s="4">
         <v>0</v>
@@ -1926,16 +1994,16 @@
         <v>4</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>40</v>
@@ -1951,10 +2019,10 @@
         <v>3</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
@@ -1963,11 +2031,11 @@
         <v>4</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1988,10 +2056,10 @@
         <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" s="4">
         <v>5</v>
@@ -2000,11 +2068,11 @@
         <v>5</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="N26" s="3"/>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2022,13 +2090,13 @@
       </c>
       <c r="F27" s="8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I27" s="4">
         <v>5</v>
@@ -2037,11 +2105,11 @@
         <v>5</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="N27" s="3"/>
     </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2059,26 +2127,26 @@
       </c>
       <c r="F28" s="8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I28" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="N28" s="3"/>
     </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2096,19 +2164,22 @@
       </c>
       <c r="F29" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="N29" s="3"/>
     </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2132,18 +2203,18 @@
         <v>123</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2167,12 +2238,12 @@
         <v>123</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -2181,7 +2252,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>47</v>
@@ -2197,19 +2268,19 @@
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2230,16 +2301,16 @@
         <v>0</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="N33" s="4"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2260,19 +2331,19 @@
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2293,19 +2364,19 @@
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2326,10 +2397,10 @@
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I36" s="3">
         <v>1</v>
@@ -2338,16 +2409,16 @@
         <v>1</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>52</v>
@@ -2363,10 +2434,10 @@
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I37" s="3">
         <v>2</v>
@@ -2375,11 +2446,11 @@
         <v>2</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2403,16 +2474,16 @@
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2433,19 +2504,19 @@
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="N39" s="3"/>
     </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2469,16 +2540,16 @@
         <v>123</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="N40" s="3"/>
     </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2499,16 +2570,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N41" s="3"/>
     </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2532,21 +2603,21 @@
         <v>123</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="N42" s="3"/>
     </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>58</v>
@@ -2562,19 +2633,19 @@
         <v>1</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="N43" s="3"/>
     </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2595,16 +2666,16 @@
         <v>0</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="N44" s="3"/>
     </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2628,21 +2699,21 @@
         <v>127</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N45" s="3"/>
     </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>61</v>
@@ -2658,19 +2729,19 @@
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="N46" s="3"/>
     </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2691,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N47" s="3"/>
     </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>63</v>
@@ -2724,7 +2795,7 @@
         <v>128</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I48" s="4">
         <v>2</v>
@@ -2733,11 +2804,11 @@
         <v>2</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="N48" s="3"/>
     </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2761,16 +2832,16 @@
         <v>123</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2791,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -2803,16 +2874,16 @@
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>66</v>
@@ -2828,10 +2899,10 @@
         <v>3</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I51" s="4">
         <v>3</v>
@@ -2840,11 +2911,11 @@
         <v>3</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2865,62 +2936,277 @@
         <v>1</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I53" s="2">
+        <v>1</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F57" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
+      <c r="B59" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I59" s="2">
+        <v>2</v>
+      </c>
+      <c r="J59" s="2">
+        <v>1</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I60" s="2">
+        <v>2</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I61" s="2">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2">
+        <v>3</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -7618,7 +7904,222 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="E1:F1000">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="Green"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="5" max="5" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <v>4</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4</v>
+      </c>
+      <c r="F2" s="9">
+        <f>B2*(C2+D2+E2)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>4</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F8" si="0">B3*(C3+D3+E3)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="E9" s="9">
+        <f>SUM(C2:E8)</f>
+        <v>36</v>
+      </c>
+      <c r="F9" s="9">
+        <f>SUM(F2:F8)</f>
+        <v>80.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="231">
   <si>
     <t>#</t>
   </si>
@@ -641,9 +641,6 @@
     <t>丛林之雨</t>
   </si>
   <si>
-    <t>* 你的所有绿色卡槽的生物获得+0/+1</t>
-  </si>
-  <si>
     <t>森林护佑</t>
   </si>
   <si>
@@ -678,6 +675,51 @@
   </si>
   <si>
     <t>* 冻结自身: 目标生物获得+0/+1, 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 你的所有绿色卡槽的生物获得+0/+1, 直到回合结束</t>
+  </si>
+  <si>
+    <t>矮人探险家</t>
+  </si>
+  <si>
+    <t>* 位面行者: 可以选择任意颜色卡槽的生物进行攻击</t>
+  </si>
+  <si>
+    <t>不安之地</t>
+  </si>
+  <si>
+    <t>* 目标生物本回合可以攻击2次</t>
+  </si>
+  <si>
+    <t>自然虚弱</t>
+  </si>
+  <si>
+    <t>* 目标生物不会获得元素增强效果并且获得-1/-1</t>
+  </si>
+  <si>
+    <t>寄生孢子</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成2点伤害, 施法的元素师恢复2点生命值, 如果目标生物因此而死亡, 为其所有者召唤一个1/1的绿色孢子并置于死亡生物的卡槽</t>
+  </si>
+  <si>
+    <t>矮人德鲁伊</t>
+  </si>
+  <si>
+    <t>* 你的所有其它绿色生物获得+1/+1</t>
+  </si>
+  <si>
+    <t>森林熊人</t>
+  </si>
+  <si>
+    <t>XXE</t>
+  </si>
+  <si>
+    <t>精灵祭司</t>
+  </si>
+  <si>
+    <t>* 你的所有绿色卡槽的生物获得+1/+0</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1138,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1153,7 @@
     <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="119" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="136.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1216,7 +1258,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F60" si="0">LEN(G3)</f>
+        <f t="shared" ref="F3:F68" si="0">LEN(G3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1336,7 +1378,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1373,7 +1415,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1630,7 +1672,7 @@
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1778,12 +1820,12 @@
       </c>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>34</v>
@@ -2035,7 +2077,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2948,7 +2990,7 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2978,7 +3020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3005,13 +3047,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3035,10 +3077,10 @@
         <v>138</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3046,7 +3088,7 @@
         <v>15</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>120</v>
@@ -3062,10 +3104,10 @@
         <v>138</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3073,7 +3115,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>120</v>
@@ -3089,10 +3131,10 @@
         <v>138</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3100,7 +3142,7 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>120</v>
@@ -3116,7 +3158,7 @@
         <v>139</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3127,7 +3169,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>120</v>
@@ -3137,7 +3179,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>137</v>
@@ -3149,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,7 +3202,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>120</v>
@@ -3186,14 +3228,21 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="F61" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
       <c r="G61" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>137</v>
@@ -3205,100 +3254,278 @@
         <v>3</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
+      <c r="B62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I62" s="2">
+        <v>2</v>
+      </c>
+      <c r="J62" s="2">
+        <v>2</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
+      <c r="B63" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F66" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I66" s="2">
+        <v>2</v>
+      </c>
+      <c r="J66" s="2">
+        <v>2</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I67" s="2">
+        <v>3</v>
+      </c>
+      <c r="J67" s="2">
+        <v>4</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F68" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I68" s="2">
+        <v>3</v>
+      </c>
+      <c r="J68" s="2">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7906,13 +8133,8 @@
   </sheetData>
   <autoFilter ref="E1:F1000">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="Green"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="250">
   <si>
     <t>#</t>
   </si>
@@ -686,9 +686,6 @@
     <t>* 位面行者: 可以选择任意颜色卡槽的生物进行攻击</t>
   </si>
   <si>
-    <t>不安之地</t>
-  </si>
-  <si>
     <t>* 目标生物本回合可以攻击2次</t>
   </si>
   <si>
@@ -720,13 +717,73 @@
   </si>
   <si>
     <t>* 你的所有绿色卡槽的生物获得+1/+0</t>
+  </si>
+  <si>
+    <t>巨化术</t>
+  </si>
+  <si>
+    <t>* 目标生物获得+2/+2</t>
+  </si>
+  <si>
+    <t>远古树精</t>
+  </si>
+  <si>
+    <t>XEEE</t>
+  </si>
+  <si>
+    <t>* 牺牲时可以不消耗任何符文, 从手牌中选取一张生物卡, 置于远古树精的卡槽</t>
+  </si>
+  <si>
+    <t>XXEE</t>
+  </si>
+  <si>
+    <t>石化变色龙</t>
+  </si>
+  <si>
+    <t>* 在任何卡槽均可获得元素协调效果 * 可以攻击任意颜色卡槽的生物</t>
+  </si>
+  <si>
+    <t>野性狂躁</t>
+  </si>
+  <si>
+    <t>树人祈雨者</t>
+  </si>
+  <si>
+    <t>半人马酋长</t>
+  </si>
+  <si>
+    <t>* 嘲讽: 攻击中的生物必须指定任一防御者作为目标</t>
+  </si>
+  <si>
+    <t>* 生命连接: 进攻时造成的伤害会为控制该生物的元素师恢复生命值, 数量为造成的伤害值</t>
+  </si>
+  <si>
+    <t>巨人增长</t>
+  </si>
+  <si>
+    <t>XXXE</t>
+  </si>
+  <si>
+    <t>* 碾压: 进攻并且对目标生物造成致命伤害时, 对目标元素师造成等同于溢出部分的值的伤害.</t>
+  </si>
+  <si>
+    <t>* 目标生物获得+3/+3和碾压, 直到回合结束.</t>
+  </si>
+  <si>
+    <t>沼泽多头蛇</t>
+  </si>
+  <si>
+    <t>XXXXE</t>
+  </si>
+  <si>
+    <t>* 受到致命伤害时, 以力量代替生命值扣除, 力量不够的部分最后以生命值扣除.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +816,22 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -799,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -829,6 +902,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1138,7 +1223,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1258,7 +1343,7 @@
         <v>119</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F68" si="0">LEN(G3)</f>
+        <f t="shared" ref="F3:F75" si="0">LEN(G3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -3080,30 +3165,30 @@
         <v>216</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+    <row r="56" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="13">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K56" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3298,7 +3383,7 @@
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>120</v>
@@ -3314,7 +3399,7 @@
         <v>138</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3325,7 +3410,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>120</v>
@@ -3341,7 +3426,7 @@
         <v>139</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3437,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -3368,7 +3453,7 @@
         <v>138</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3379,7 +3464,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>120</v>
@@ -3401,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,7 +3497,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>120</v>
@@ -3422,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>137</v>
@@ -3434,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3530,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>120</v>
@@ -3455,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>137</v>
@@ -3467,43 +3552,227 @@
         <v>2</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
+      <c r="B69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="70" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
+      <c r="B70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F70" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I70" s="2">
+        <v>4</v>
+      </c>
+      <c r="J70" s="2">
+        <v>5</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
+      <c r="B71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I71" s="2">
+        <v>4</v>
+      </c>
+      <c r="J71" s="2">
+        <v>4</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
+      <c r="B72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F72" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I72" s="2">
+        <v>1</v>
+      </c>
+      <c r="J72" s="2">
+        <v>6</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
+      <c r="B73" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I73" s="2">
+        <v>5</v>
+      </c>
+      <c r="J73" s="2">
+        <v>4</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="74" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
+      <c r="B74" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F74" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
+      <c r="B75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I75" s="2">
+        <v>5</v>
+      </c>
+      <c r="J75" s="2">
+        <v>5</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="76" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -8133,7 +8402,7 @@
   </sheetData>
   <autoFilter ref="E1:F1000">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="Green"/>
       </filters>
     </filterColumn>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="251">
   <si>
     <t>#</t>
   </si>
@@ -656,9 +656,6 @@
     <t>哨卫</t>
   </si>
   <si>
-    <t>* 目标生物获得[嘲讽: 攻击中的生物必须指定任一防御者作为目标]</t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
@@ -777,6 +774,12 @@
   </si>
   <si>
     <t>* 受到致命伤害时, 以力量代替生命值扣除, 力量不够的部分最后以生命值扣除.</t>
+  </si>
+  <si>
+    <t>* 嘲讽: 攻击中的生物必须指定任一嘲讽者作为目标 * 防御者</t>
+  </si>
+  <si>
+    <t>* 目标生物获得[嘲讽: 攻击中的生物必须指定任一嘲讽者作为目标]</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:XFD53"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -3162,7 +3165,7 @@
         <v>138</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,7 +3246,7 @@
         <v>139</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3254,7 +3257,7 @@
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>120</v>
@@ -3264,7 +3267,7 @@
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>137</v>
@@ -3276,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3287,7 +3290,7 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>120</v>
@@ -3317,7 +3320,7 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>120</v>
@@ -3327,7 +3330,7 @@
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>137</v>
@@ -3339,7 +3342,7 @@
         <v>3</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3350,7 +3353,7 @@
         <v>15</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>120</v>
@@ -3372,7 +3375,7 @@
         <v>2</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3383,7 +3386,7 @@
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>120</v>
@@ -3393,13 +3396,13 @@
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3410,7 +3413,7 @@
         <v>16</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>120</v>
@@ -3426,7 +3429,7 @@
         <v>139</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3437,7 +3440,7 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>120</v>
@@ -3447,13 +3450,13 @@
         <v>2</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3464,7 +3467,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>120</v>
@@ -3486,7 +3489,7 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3497,7 +3500,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>120</v>
@@ -3507,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>137</v>
@@ -3519,7 +3522,7 @@
         <v>4</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,7 +3533,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>120</v>
@@ -3540,7 +3543,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>137</v>
@@ -3552,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3563,7 +3566,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>120</v>
@@ -3579,7 +3582,7 @@
         <v>138</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,7 +3593,7 @@
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>120</v>
@@ -3600,7 +3603,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>137</v>
@@ -3612,7 +3615,7 @@
         <v>5</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3623,7 +3626,7 @@
         <v>15</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>120</v>
@@ -3633,7 +3636,7 @@
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>137</v>
@@ -3645,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3656,7 +3659,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>120</v>
@@ -3666,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>137</v>
@@ -3678,7 +3681,7 @@
         <v>6</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,7 +3692,7 @@
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>120</v>
@@ -3699,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>137</v>
@@ -3711,7 +3714,7 @@
         <v>4</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3722,7 +3725,7 @@
         <v>15</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>120</v>
@@ -3732,13 +3735,13 @@
         <v>4</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>138</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3749,7 +3752,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>120</v>
@@ -3759,7 +3762,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>137</v>
@@ -3771,7 +3774,7 @@
         <v>5</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8402,7 +8405,7 @@
   </sheetData>
   <autoFilter ref="E1:F1000">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="Green"/>
       </filters>
     </filterColumn>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="295">
   <si>
     <t>#</t>
   </si>
@@ -114,9 +114,6 @@
     <t>石筑墙</t>
   </si>
   <si>
-    <t>热浪</t>
-  </si>
-  <si>
     <t>兽群之影</t>
   </si>
   <si>
@@ -129,9 +126,6 @@
     <t>泰泽，水流拥抱者</t>
   </si>
   <si>
-    <t>具象师塞恩</t>
-  </si>
-  <si>
     <t>水元素</t>
   </si>
   <si>
@@ -195,9 +189,6 @@
     <t>法术反制</t>
   </si>
   <si>
-    <t>精神榨取</t>
-  </si>
-  <si>
     <t>法力回流</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>群体催眠</t>
   </si>
   <si>
-    <t>深度思考</t>
-  </si>
-  <si>
     <t>催眠师辛洛克</t>
   </si>
   <si>
@@ -282,9 +270,6 @@
     <t>Tarzar the Water Embracer</t>
   </si>
   <si>
-    <t>Theon the Embodifier</t>
-  </si>
-  <si>
     <t>Elemental Water</t>
   </si>
   <si>
@@ -360,9 +345,6 @@
     <t>Mass Hypnosis</t>
   </si>
   <si>
-    <t>Deep Think</t>
-  </si>
-  <si>
     <t>Thinlock the Hypnotist</t>
   </si>
   <si>
@@ -423,9 +405,6 @@
     <t>AA</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
     <t>XWW</t>
   </si>
   <si>
@@ -453,146 +432,33 @@
     <t>让我们来看看盒子里面是什么。</t>
   </si>
   <si>
-    <t>声明一种颜色，并查看指定玩家的一张手牌，如果该卡牌颜色与所声明颜色相同，目标玩家受到1伤害。</t>
-  </si>
-  <si>
-    <t>偏转: 改变正在攻击的咒文的目标为你指定的目标.</t>
-  </si>
-  <si>
-    <t>对目标玩家或者咒文造成2点伤害.</t>
-  </si>
-  <si>
-    <t>多重施法2.
-对另外一名随机玩家造成1点伤害.</t>
-  </si>
-  <si>
-    <t>对目标以及他的左右手边玩家各造成2点伤害,</t>
-  </si>
-  <si>
-    <t>在回合开始阶段，对指定玩家造成1点伤害.</t>
-  </si>
-  <si>
-    <t>上场时, 对所有玩家和其它召唤物造成3点伤害.
-在回合开始阶段, 对所有玩家和其它召唤物造成伤害, 数值等于火焰之雨的力量, 然后火焰之雨力量-1.</t>
-  </si>
-  <si>
-    <t>湮灭一个正在攻击你的咒文.</t>
-  </si>
-  <si>
-    <t>充能3。
-对目标玩家造成2点伤害。</t>
-  </si>
-  <si>
-    <t>抽两张牌。</t>
-  </si>
-  <si>
-    <t>反制目标法术。
-生效时，如果目标玩家消耗*，法力拦截失效。</t>
-  </si>
-  <si>
-    <t>反制目标法术。</t>
-  </si>
-  <si>
-    <t>你可以消耗X点*，弃X张手牌或者召唤物，目标玩家弃X两倍的手牌或者召唤物。</t>
-  </si>
-  <si>
-    <t>退回1。</t>
-  </si>
-  <si>
-    <t>水流亲和。
-将所有正在战斗的召唤物置于其所有者牌库的顶端或者底端。</t>
-  </si>
-  <si>
-    <t>横置目标玩家的所有召唤物，并且在下一个回合开始阶段，这些召唤物不会还原。</t>
-  </si>
-  <si>
-    <t>查看牌库顶端的三张牌, 并且以任意顺序放回.</t>
-  </si>
-  <si>
-    <t>上场时, 获得目标召唤物所有权.
-催眠师辛洛克进入墓地时, 归还所控制的召唤物.</t>
-  </si>
-  <si>
-    <t>刷新*WW
-目标玩家将其牌库顶端4张牌置于墓地.</t>
-  </si>
-  <si>
-    <t>烈焰连击F.</t>
-  </si>
-  <si>
-    <t>每当你施放一个红色咒文, 骰色, 若结果小于或者等于纵火者瑞斯卡的力量, 你可以复制一张所施放的咒文并放入手牌.</t>
-  </si>
-  <si>
-    <t>烈焰连击F.
-对目标玩家或者召唤物造成1点伤害.</t>
-  </si>
-  <si>
-    <t>* 冷凝虚影以目标生物的复制品进入战场 * 不稳定: 回合结束时死亡</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
     <t>FF</t>
   </si>
   <si>
-    <t>* 牺牲一个你的生物, 目标生物-X/-Y, 数值等于所牺牲生物的力量/防御.</t>
-  </si>
-  <si>
-    <t>* 查看你的牌库顶端两张牌，你可以选择一张将其置于手牌，另一张置于牌库底端。</t>
-  </si>
-  <si>
     <t>* 当可食用藤蔓进入墓地时，你恢复生命值，数量等于可食用藤蔓的力量。</t>
   </si>
   <si>
     <t>* 死亡时, 对指定生物造成1点伤害</t>
   </si>
   <si>
-    <t>* 你的红色卡槽内的生物获得+2/+0</t>
-  </si>
-  <si>
-    <t>* 寒冰山猫上场时, 冻结与其所在卡槽颜色相同的所有敌方生物, 使它们无法攻击或者改变卡槽, 直到该玩家的回合结束阶段.</t>
-  </si>
-  <si>
-    <t>* 幻影裂片无法被防御.</t>
-  </si>
-  <si>
-    <t>* 目标生物+2/+2 * 目标生物所在卡槽被视为蓝色</t>
-  </si>
-  <si>
     <t>* 嘲讽: 攻击中的生物必须指定任一防御者作为目标 * 防御者</t>
   </si>
   <si>
-    <t>* 进攻时, 目标生物受到1点伤害</t>
-  </si>
-  <si>
-    <t>* 进攻时, 攻击的生物-1/-0</t>
-  </si>
-  <si>
-    <t>* 不稳定: 回合结束时死亡</t>
-  </si>
-  <si>
-    <t>* 法力粘虫进入墓地后, 你可以消耗XW, 立即复制一个2/2的法力黏虫幼体进入战场.</t>
-  </si>
-  <si>
     <t>XEE</t>
   </si>
   <si>
     <t>* 冻结自身, 目标玩家抽1张卡 * 消耗W, 冻结自身和目标生物</t>
   </si>
   <si>
-    <t>* 具象师塞恩处于蓝色卡槽中时, 你的所有其他生物的"不稳定"属性失效.</t>
-  </si>
-  <si>
     <t>XXFE</t>
   </si>
   <si>
     <t>* 嘲讽 * 位于绿色卡槽中时, 获得+1/+1</t>
   </si>
   <si>
-    <t>* 嘲讽</t>
-  </si>
-  <si>
     <t>* 攻击后, 冻结目标生物.</t>
   </si>
   <si>
@@ -605,9 +471,6 @@
     <t>* 其它所有的黑曜石力量+1.</t>
   </si>
   <si>
-    <t>* 目标玩家抽一张牌。</t>
-  </si>
-  <si>
     <t>半人马弓箭手</t>
   </si>
   <si>
@@ -641,12 +504,6 @@
     <t>丛林之雨</t>
   </si>
   <si>
-    <t>森林护佑</t>
-  </si>
-  <si>
-    <t>* 目标生物无法被绿色卡槽的生物攻击, 直到你的下一个回合开始</t>
-  </si>
-  <si>
     <t>绿化</t>
   </si>
   <si>
@@ -780,13 +637,280 @@
   </si>
   <si>
     <t>* 目标生物获得[嘲讽: 攻击中的生物必须指定任一嘲讽者作为目标]</t>
+  </si>
+  <si>
+    <t>* 退回: 目标卡牌回到其拥有者手牌</t>
+  </si>
+  <si>
+    <t>* 目标生物无法攻击绿色卡槽的生物, 直到其回合结束</t>
+  </si>
+  <si>
+    <t>森林迷失</t>
+  </si>
+  <si>
+    <t>* 目标生物获得-1/-0, 但是在战斗时不会受到伤害</t>
+  </si>
+  <si>
+    <t>* 移除目标生物身上1个附魔效果, 并对目标生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 死亡之后召唤2/1的水之魂回到原卡槽, 并获得不稳定: 回合结束时被置于墓地</t>
+  </si>
+  <si>
+    <t>转化</t>
+  </si>
+  <si>
+    <t>* 可以不受任何阻挡, 直接攻击元素师</t>
+  </si>
+  <si>
+    <t>* 进攻时, 获得1个符文</t>
+  </si>
+  <si>
+    <t>* 将一个你控制的蓝色生物置于墓地并获得2个符文</t>
+  </si>
+  <si>
+    <t>* 防御者</t>
+  </si>
+  <si>
+    <t>* 你抽2张牌, 并弃掉1张牌</t>
+  </si>
+  <si>
+    <t>* 你抽一张牌</t>
+  </si>
+  <si>
+    <t>* 目标生物成为法术的目标时, 法术失效, 然后将神秘幻象置于墓地</t>
+  </si>
+  <si>
+    <t>* 目标玩家抽两张牌</t>
+  </si>
+  <si>
+    <t>* 将目标生物的所有附魔效果退回其拥有者手牌</t>
+  </si>
+  <si>
+    <t>位面动荡</t>
+  </si>
+  <si>
+    <t>* 将一个你控制的生物以及所有位于与其卡槽颜色相同的生物退回各自拥有者手牌.</t>
+  </si>
+  <si>
+    <t>WWW</t>
+  </si>
+  <si>
+    <t>* 目标生物对其拥有者造成一次攻击</t>
+  </si>
+  <si>
+    <t>* 将你的一个生物置于墓地, 目标生物-X/-Y, 数值等于你的生物的力量/防御.</t>
+  </si>
+  <si>
+    <t>* 寒冰山猫上场时, 冻结与其所在卡槽颜色相同的所有敌方生物, 直到该玩家的回合结束阶段.</t>
+  </si>
+  <si>
+    <t>* 目标生物攻击时, 对面的生物被退回其拥有者手牌</t>
+  </si>
+  <si>
+    <t>* 法力粘虫进入墓地后, 你可以消耗W, 立即复制一个2/2的法力黏虫幼体进入战场.</t>
+  </si>
+  <si>
+    <t>XWWW</t>
+  </si>
+  <si>
+    <t>* 上场时, 获得一个与其所在卡槽颜色相同的生物所有权, 该生物仍然处于其原有卡槽 * 催眠师辛洛克进入墓地时, 归还所控制的生物.</t>
+  </si>
+  <si>
+    <t>* 冷凝虚影以目标生物的复制品进入战场</t>
+  </si>
+  <si>
+    <t>* 死亡时, 回到其拥有者手牌</t>
+  </si>
+  <si>
+    <t>冰行者塞恩</t>
+  </si>
+  <si>
+    <t>Theon the Ice Walker</t>
+  </si>
+  <si>
+    <t>* 攻击一个被冻结的生物时, 将目标生物退回其拥有者手牌, 然后对目标元素师造成伤害.</t>
+  </si>
+  <si>
+    <t>* 立即杀死被冻结的生物</t>
+  </si>
+  <si>
+    <t>* 冻结目标玩家的所有生物</t>
+  </si>
+  <si>
+    <t>* 上场时, 你的所有红色卡槽内的生物获得+2/+0, 直到回合结束</t>
+  </si>
+  <si>
+    <t>热浪巨兽</t>
+  </si>
+  <si>
+    <t>* 对目标元素师或者生物造成2点伤害.</t>
+  </si>
+  <si>
+    <t>* 对1个元素师或者生物造成1点伤害, 然后重新指定1个元素师或者生物造成1点伤害, 可以重复指定.</t>
+  </si>
+  <si>
+    <t>* 对目标生物和其拥有者造成2点伤害.</t>
+  </si>
+  <si>
+    <t>* 在回合开始阶段，对附魔生物的拥有者造成1点伤害.</t>
+  </si>
+  <si>
+    <t>* 附魔生物攻击时, 对自己和目标元素师的所有生物造成2点伤害 * 附魔生物死亡时, 对所有生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 上场时, 对目标生物造成1点伤害.</t>
+  </si>
+  <si>
+    <t>* 每当你打出一张红色卡牌, 纵火者瑞斯卡对目标生物造成1点伤害.</t>
+  </si>
+  <si>
+    <t>* 冻结目标生物, 并对其造成1点伤害.</t>
+  </si>
+  <si>
+    <t>烈焰使者</t>
+  </si>
+  <si>
+    <t>* 死亡时, 目标生物获得+1/+0, 直到回合结束</t>
+  </si>
+  <si>
+    <t>火妖</t>
+  </si>
+  <si>
+    <t>献祭之火</t>
+  </si>
+  <si>
+    <t>* 牺牲一个你的红色生物, 对目标生物造成3点伤害</t>
+  </si>
+  <si>
+    <t>熔火暴徒</t>
+  </si>
+  <si>
+    <t>* 进攻时, 目标生物受到1点伤害 * 不稳定</t>
+  </si>
+  <si>
+    <t>* 本回合中, 你的每一个死亡的红色生物会为熔火暴徒+1/+0 * 不稳定</t>
+  </si>
+  <si>
+    <t>* 不稳定</t>
+  </si>
+  <si>
+    <t>焚毁</t>
+  </si>
+  <si>
+    <t>焚炉</t>
+  </si>
+  <si>
+    <t>* 附魔的生物所在卡槽被视为红色 * 回合结束时, 对目标生物或者元素师造成1点伤害.</t>
+  </si>
+  <si>
+    <t>连锁闪电</t>
+  </si>
+  <si>
+    <t>* 牺牲一个你的红色生物, 召唤2个2/1的灰烬之灵或者1个4/2的灰烬精华进入战场, 灰烬之灵和灰烬精华所在卡槽被视为红色并且具有不稳定效果.</t>
+  </si>
+  <si>
+    <t>* 对目标元素师的指定颜色的卡槽内所有生物造成2点伤害</t>
+  </si>
+  <si>
+    <t>火元素操控</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>* 对目标生物或者元素师造成2点伤害, 你所操控的每一个红色生物对你的目标造成1点伤害</t>
+  </si>
+  <si>
+    <t>闪电打击</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成3点伤害, 如果目标因此而死亡, 你增加1个符文</t>
+  </si>
+  <si>
+    <t>炎魔领主</t>
+  </si>
+  <si>
+    <t>XFFF</t>
+  </si>
+  <si>
+    <t>* 你的所有红色生物的不稳定属性失效 * 牺牲一个红色生物, 为炎魔领主+1/+1</t>
+  </si>
+  <si>
+    <t>灼热软泥怪</t>
+  </si>
+  <si>
+    <t>* 每当灼热软泥怪受到伤害, 灼热软泥怪获得+2/+0</t>
+  </si>
+  <si>
+    <t>狂躁巨兽</t>
+  </si>
+  <si>
+    <t>* 狂躁巨兽每个回合必须攻击</t>
+  </si>
+  <si>
+    <t>幼年红龙</t>
+  </si>
+  <si>
+    <t>* 火焰吐息F: 对目标生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>爆炎冲击波</t>
+  </si>
+  <si>
+    <t>* 对目标生物或者元素师造成5点伤害</t>
+  </si>
+  <si>
+    <t>熔核衍生物</t>
+  </si>
+  <si>
+    <t>* 分别召唤3个1/1的熔核矮魔到战场, 当卡槽数量不足时, 分别指定目标生物或者元素师, 对其造成1点伤害</t>
+  </si>
+  <si>
+    <t>流星火雨</t>
+  </si>
+  <si>
+    <t>* 对战场上所有生物和元素师造成1点伤害</t>
+  </si>
+  <si>
+    <t>毁灭</t>
+  </si>
+  <si>
+    <t>* 立即杀死一个没有位于红色卡槽的生物</t>
+  </si>
+  <si>
+    <t>焦灼血脉</t>
+  </si>
+  <si>
+    <t>XXFF</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成5点伤害, 如果目标生物因此而死亡, 对其拥有者造成5点伤害.</t>
+  </si>
+  <si>
+    <t>纵火</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成4点伤害, 在同一回合, 你每有一个生物进入墓地, 纵火的符文消耗减少1点.</t>
+  </si>
+  <si>
+    <t>灰烬暴君</t>
+  </si>
+  <si>
+    <t>* 死亡时若前方没有阻挡生物, 对目标元素师造成等同于灰烬暴君力量的伤害.</t>
+  </si>
+  <si>
+    <t>* 目标白色生物的力量和生命值互换</t>
+  </si>
+  <si>
+    <t>* 目标生物获得-0/-1并且所在卡槽被视为白色</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -820,24 +944,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -847,12 +955,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -895,27 +997,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1226,7 +1325,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1236,8 +1335,8 @@
     <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="3.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1293,180 +1392,173 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="7">
+        <f>LEN(G2)</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F2" s="8">
-        <f>LEN(G2)</f>
-        <v>3</v>
-      </c>
       <c r="G2" s="6" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="4">
-        <v>0</v>
-      </c>
-      <c r="J2" s="4">
-        <v>0</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>166</v>
+        <v>209</v>
       </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="10">
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F3" s="7">
+        <f>LEN(G3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>43</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F3" s="8">
-        <f t="shared" ref="F3:F75" si="0">LEN(G3)</f>
+      <c r="C4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7">
+        <f>LEN(G4)</f>
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="G4" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
+      <c r="A5" s="10">
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>71</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F5" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="F5" s="7">
+        <f>LEN(G5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="F6" s="7">
+        <f>LEN(G6)</f>
+        <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1477,20 +1569,20 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="7">
+        <f>LEN(G7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F7" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H7" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1499,11 +1591,11 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1514,20 +1606,20 @@
         <v>23</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7">
+        <f>LEN(G8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F8" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H8" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1536,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1551,20 +1643,20 @@
         <v>24</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F9" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F9" s="7">
+        <f>LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1573,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,20 +1682,20 @@
         <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F10" s="7">
+        <f>LEN(G10)</f>
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I10" s="4">
         <v>1</v>
@@ -1612,155 +1704,149 @@
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F11" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="F11" s="7">
+        <f>LEN(G11)</f>
+        <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F12" s="8">
-        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F12" s="7">
+        <f>LEN(G12)</f>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>175</v>
+        <v>218</v>
       </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="F13" s="7">
+        <f>LEN(G13)</f>
+        <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
       <c r="K13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="N13" s="3"/>
+        <v>217</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F14" s="7">
+        <f>LEN(G14)</f>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1771,20 +1857,20 @@
         <v>30</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="7">
+        <f>LEN(G15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -1793,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1805,23 +1891,23 @@
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>240</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F16" s="7">
+        <f>LEN(G16)</f>
         <v>2</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I16" s="4">
         <v>2</v>
@@ -1830,85 +1916,83 @@
         <v>2</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7">
+        <f>LEN(G17)</f>
+        <v>2</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="8">
-        <f t="shared" si="0"/>
+      <c r="H17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="6">
+      <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" s="4">
-        <v>2</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
       <c r="K17" s="4" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7">
+        <f>LEN(G18)</f>
+        <v>2</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I18" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="K18" s="4"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1916,23 +2000,23 @@
         <v>14</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F19" s="7">
+        <f>LEN(G19)</f>
         <v>3</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I19" s="4">
         <v>1</v>
@@ -1941,117 +2025,107 @@
         <v>2</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7">
+        <f>LEN(G20)</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="E21" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="7">
+        <f>LEN(G21)</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>127</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I21" s="4">
-        <v>3</v>
-      </c>
-      <c r="J21" s="4">
-        <v>3</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="E22" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="7">
+        <f>LEN(G22)</f>
+        <v>2</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="H22" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4" t="s">
+        <v>223</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2062,23 +2136,23 @@
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F23" s="7">
+        <f>LEN(G23)</f>
         <v>4</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I23" s="4">
         <v>4</v>
@@ -2087,85 +2161,81 @@
         <v>4</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="7">
+        <f>LEN(G24)</f>
+        <v>2</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F24" s="8">
-        <f t="shared" si="0"/>
+      <c r="H24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0</v>
-      </c>
       <c r="J24" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F25" s="7">
+        <f>LEN(G25)</f>
+        <v>2</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="H25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I25" s="4">
-        <v>2</v>
-      </c>
-      <c r="J25" s="4">
-        <v>4</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2173,23 +2243,23 @@
         <v>15</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F26" s="7">
+        <f>LEN(G26)</f>
         <v>5</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I26" s="4">
         <v>5</v>
@@ -2198,7 +2268,7 @@
         <v>5</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="N26" s="3"/>
     </row>
@@ -2210,23 +2280,23 @@
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F27" s="7">
+        <f>LEN(G27)</f>
         <v>5</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I27" s="4">
         <v>5</v>
@@ -2235,149 +2305,157 @@
         <v>5</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>113</v>
+      </c>
+      <c r="F28" s="7">
+        <f>LEN(G28)</f>
+        <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I28" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J28" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="N28" s="3"/>
+        <v>141</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7">
+        <f>LEN(G29)</f>
+        <v>2</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="8">
-        <f t="shared" si="0"/>
+      <c r="H29" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
       <c r="K29" s="4" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" s="7">
+        <f>LEN(G30)</f>
+        <v>2</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>123</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="F31" s="7">
+        <f>LEN(G31)</f>
+        <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="I31" s="4">
+        <v>3</v>
+      </c>
+      <c r="J31" s="4">
+        <v>3</v>
+      </c>
       <c r="K31" s="4" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2385,28 +2463,28 @@
         <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F32" s="7">
+        <f>LEN(G32)</f>
         <v>2</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4" t="s">
-        <v>195</v>
+        <v>152</v>
       </c>
       <c r="N32" s="3"/>
     </row>
@@ -2418,25 +2496,28 @@
         <v>15</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>115</v>
+      </c>
+      <c r="F33" s="7">
+        <f>LEN(G33)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>124</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>146</v>
+        <v>241</v>
       </c>
       <c r="N33" s="4"/>
     </row>
@@ -2448,28 +2529,28 @@
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F34" s="7">
+        <f>LEN(G34)</f>
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4" t="s">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="N34" s="3"/>
     </row>
@@ -2481,28 +2562,28 @@
         <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F35" s="7">
+        <f>LEN(G35)</f>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4" t="s">
-        <v>148</v>
+        <v>243</v>
       </c>
       <c r="N35" s="3"/>
     </row>
@@ -2514,32 +2595,28 @@
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F36" s="7">
+        <f>LEN(G36)</f>
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" s="3">
-        <v>1</v>
-      </c>
-      <c r="J36" s="3">
-        <v>1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="4" t="s">
-        <v>149</v>
+        <v>244</v>
       </c>
       <c r="N36" s="3"/>
     </row>
@@ -2548,39 +2625,35 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F37" s="7">
+        <f>LEN(G37)</f>
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I37" s="3">
-        <v>2</v>
-      </c>
-      <c r="J37" s="3">
-        <v>2</v>
-      </c>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="4" t="s">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2588,32 +2661,32 @@
         <v>15</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F38" s="7">
+        <f>LEN(G38)</f>
         <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2621,353 +2694,384 @@
         <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="F39" s="7">
+        <f>LEN(G39)</f>
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>152</v>
+        <v>293</v>
       </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="F40" s="7">
+        <f>LEN(G40)</f>
+        <v>4</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I40" s="4">
+        <v>3</v>
+      </c>
+      <c r="J40" s="4">
+        <v>3</v>
+      </c>
       <c r="K40" s="4" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F41" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="F41" s="7">
+        <f>LEN(G41)</f>
+        <v>3</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>224</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2</v>
+      </c>
       <c r="K41" s="4" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F42" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="F42" s="7">
+        <f>LEN(G42)</f>
+        <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" s="4">
+        <v>2</v>
+      </c>
       <c r="K42" s="4" t="s">
-        <v>155</v>
+        <v>231</v>
       </c>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="F43" s="7">
+        <f>LEN(G43)</f>
+        <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>156</v>
+        <v>225</v>
       </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F44" s="8">
-        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F44" s="7">
+        <f>LEN(G44)</f>
+        <v>3</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" s="4">
         <v>0</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
+      <c r="J44" s="4">
+        <v>0</v>
+      </c>
       <c r="K44" s="4" t="s">
-        <v>157</v>
+        <v>232</v>
       </c>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>234</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F45" s="8">
-        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F45" s="7">
+        <f>LEN(G45)</f>
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I45" s="4">
+        <v>3</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3</v>
+      </c>
       <c r="K45" s="4" t="s">
-        <v>158</v>
+        <v>236</v>
       </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="8">
-        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="F46" s="7">
+        <f>LEN(G46)</f>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I46" s="4">
+        <v>2</v>
+      </c>
+      <c r="J46" s="4">
+        <v>4</v>
+      </c>
       <c r="K46" s="4" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F47" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F47" s="7">
+        <f>LEN(G47)</f>
+        <v>3</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>121</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>160</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I47" s="4">
+        <v>3</v>
+      </c>
+      <c r="J47" s="4">
+        <v>4</v>
+      </c>
+      <c r="K47" s="4"/>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F48" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <v>113</v>
+      </c>
+      <c r="F48" s="7">
+        <f>LEN(G48)</f>
+        <v>3</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I48" s="4">
-        <v>2</v>
-      </c>
-      <c r="J48" s="4">
-        <v>2</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>161</v>
+        <v>237</v>
       </c>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>113</v>
+      </c>
+      <c r="F49" s="7">
+        <f>LEN(G49)</f>
+        <v>3</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>162</v>
+        <v>238</v>
       </c>
       <c r="N49" s="3"/>
     </row>
@@ -2979,23 +3083,23 @@
         <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="F50" s="7">
+        <f>LEN(G50)</f>
+        <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -3004,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c r="N50" s="3"/>
     </row>
@@ -3013,35 +3117,35 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F51" s="7">
+        <f>LEN(G51)</f>
         <v>3</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I51" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="4">
         <v>3</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>164</v>
+        <v>247</v>
       </c>
       <c r="N51" s="3"/>
     </row>
@@ -3050,35 +3154,35 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F52" s="8">
-        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="F52" s="7">
+        <f>LEN(G52)</f>
         <v>1</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3086,20 +3190,20 @@
         <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>193</v>
+        <v>150</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="7">
+        <f>LEN(G53)</f>
+        <v>1</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F53" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I53" s="2">
         <v>1</v>
@@ -3108,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3116,20 +3220,20 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F54" s="7">
+        <f>LEN(G54)</f>
+        <v>1</v>
+      </c>
+      <c r="G54" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F54" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H54" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I54" s="2">
         <v>0</v>
@@ -3138,10 +3242,10 @@
         <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3149,53 +3253,53 @@
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>203</v>
+        <v>160</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" s="7">
+        <f>LEN(G55)</f>
+        <v>1</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F55" s="8">
-        <f t="shared" si="0"/>
+      <c r="H55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="7">
+        <f>LEN(G56)</f>
         <v>1</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="12" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
-        <v>55</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="G56" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="F56" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H56" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3203,26 +3307,26 @@
         <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F57" s="7">
+        <f>LEN(G57)</f>
+        <v>1</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F57" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H57" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3230,26 +3334,26 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>208</v>
+        <v>163</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" s="7">
+        <f>LEN(G58)</f>
+        <v>1</v>
+      </c>
+      <c r="G58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="F58" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3257,20 +3361,20 @@
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F59" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F59" s="7">
+        <f>LEN(G59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I59" s="2">
         <v>2</v>
@@ -3279,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3290,20 +3394,20 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F60" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F60" s="7">
+        <f>LEN(G60)</f>
         <v>2</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I60" s="2">
         <v>2</v>
@@ -3312,7 +3416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3320,20 +3424,20 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F61" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F61" s="7">
+        <f>LEN(G61)</f>
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I61" s="2">
         <v>1</v>
@@ -3342,10 +3446,10 @@
         <v>3</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3353,20 +3457,20 @@
         <v>15</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F62" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F62" s="7">
+        <f>LEN(G62)</f>
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I62" s="2">
         <v>2</v>
@@ -3375,10 +3479,10 @@
         <v>2</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3386,26 +3490,26 @@
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F63" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F63" s="7">
+        <f>LEN(G63)</f>
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3413,26 +3517,26 @@
         <v>16</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F64" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F64" s="7">
+        <f>LEN(G64)</f>
         <v>2</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3440,26 +3544,26 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F65" s="7">
+        <f>LEN(G65)</f>
         <v>2</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3467,20 +3571,20 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>223</v>
+        <v>178</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F66" s="7">
+        <f>LEN(G66)</f>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I66" s="2">
         <v>2</v>
@@ -3489,10 +3593,10 @@
         <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3500,20 +3604,20 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F67" s="7">
+        <f>LEN(G67)</f>
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I67" s="2">
         <v>3</v>
@@ -3522,10 +3626,10 @@
         <v>4</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3533,20 +3637,20 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F68" s="7">
+        <f>LEN(G68)</f>
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>226</v>
+        <v>181</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I68" s="2">
         <v>3</v>
@@ -3555,10 +3659,10 @@
         <v>2</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3566,26 +3670,26 @@
         <v>16</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>229</v>
+        <v>184</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F69" s="7">
+        <f>LEN(G69)</f>
         <v>3</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3593,20 +3697,20 @@
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F70" s="7">
+        <f>LEN(G70)</f>
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I70" s="2">
         <v>4</v>
@@ -3615,10 +3719,10 @@
         <v>5</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3626,20 +3730,20 @@
         <v>15</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F71" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F71" s="7">
+        <f>LEN(G71)</f>
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I71" s="2">
         <v>4</v>
@@ -3648,10 +3752,10 @@
         <v>4</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3659,20 +3763,20 @@
         <v>16</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F72" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F72" s="7">
+        <f>LEN(G72)</f>
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I72" s="2">
         <v>1</v>
@@ -3681,10 +3785,10 @@
         <v>6</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3692,20 +3796,20 @@
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F73" s="7">
+        <f>LEN(G73)</f>
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I73" s="2">
         <v>5</v>
@@ -3714,10 +3818,10 @@
         <v>4</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3725,26 +3829,26 @@
         <v>15</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F74" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F74" s="7">
+        <f>LEN(G74)</f>
         <v>4</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3752,20 +3856,20 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F75" s="8">
-        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="F75" s="7">
+        <f>LEN(G75)</f>
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="I75" s="2">
         <v>5</v>
@@ -3774,110 +3878,598 @@
         <v>5</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F76" s="7">
+        <f>LEN(G76)</f>
+        <v>1</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F77" s="7">
+        <f>LEN(G77)</f>
+        <v>1</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I77" s="2">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F78" s="7">
+        <f>LEN(G78)</f>
+        <v>1</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F79" s="7">
+        <f>LEN(G79)</f>
+        <v>2</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" s="2">
+        <v>2</v>
+      </c>
+      <c r="J79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F80" s="7">
+        <f>LEN(G80)</f>
+        <v>2</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F81" s="7">
+        <f>LEN(G81)</f>
+        <v>2</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F82" s="7">
+        <f>LEN(G82)</f>
+        <v>2</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F83" s="7">
+        <f>LEN(G83)</f>
+        <v>3</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="7">
+        <f>LEN(G84)</f>
+        <v>2</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F85" s="7">
+        <f>LEN(G85)</f>
+        <v>4</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I85" s="2">
+        <v>5</v>
+      </c>
+      <c r="J85" s="2">
+        <v>3</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="7">
+        <f>LEN(G86)</f>
+        <v>3</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="2">
+        <v>1</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="7">
+        <f>LEN(G87)</f>
+        <v>3</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I87" s="2">
+        <v>4</v>
+      </c>
+      <c r="J87" s="2">
+        <v>4</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F88" s="7">
+        <f>LEN(G88)</f>
+        <v>3</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I88" s="2">
+        <v>4</v>
+      </c>
+      <c r="J88" s="2">
+        <v>2</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="7">
+        <f>LEN(G89)</f>
+        <v>3</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F90" s="7">
+        <f>LEN(G90)</f>
+        <v>3</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F91" s="7">
+        <f>LEN(G91)</f>
+        <v>3</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F92" s="7">
+        <f>LEN(G92)</f>
+        <v>4</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" s="7">
+        <f>LEN(G93)</f>
+        <v>4</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F94" s="7">
+        <f>LEN(G94)</f>
+        <v>4</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F95" s="7">
+        <f>LEN(G95)</f>
+        <v>4</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I95" s="2">
+        <v>3</v>
+      </c>
+      <c r="J95" s="2">
+        <v>4</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -8405,11 +8997,14 @@
   </sheetData>
   <autoFilter ref="E1:F1000">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Green"/>
+      <filters blank="1">
+        <filter val="White"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="A2:N1000">
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -8437,178 +9032,178 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="6.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="9"/>
+    <col min="5" max="5" width="12.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>198</v>
+      <c r="C1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>1</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>6</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>4</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>4</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <f>B2*(C2+D2+E2)</f>
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>4</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <f t="shared" ref="F3:F8" si="0">B3*(C3+D3+E3)</f>
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>1</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>3.5</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>4</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>1</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>5.5</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>1</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>5.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="A8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="8">
         <v>6</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="E9" s="9">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="8">
         <f>SUM(C2:E8)</f>
         <v>36</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <f>SUM(F2:F8)</f>
         <v>80.5</v>
       </c>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="298">
   <si>
     <t>#</t>
   </si>
@@ -904,6 +904,15 @@
   </si>
   <si>
     <t>* 目标生物获得-0/-1并且所在卡槽被视为白色</t>
+  </si>
+  <si>
+    <t>Centaur Ranger</t>
+  </si>
+  <si>
+    <t>Wood Fairy</t>
+  </si>
+  <si>
+    <t>Rain of the Jungles</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1334,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K106" sqref="K106"/>
+      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1417,7 @@
         <v>113</v>
       </c>
       <c r="F2" s="7">
-        <f>LEN(G2)</f>
+        <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1441,7 +1450,7 @@
         <v>113</v>
       </c>
       <c r="F3" s="7">
-        <f>LEN(G3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1474,7 +1483,7 @@
         <v>113</v>
       </c>
       <c r="F4" s="7">
-        <f>LEN(G4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1505,7 +1514,7 @@
         <v>113</v>
       </c>
       <c r="F5" s="7">
-        <f>LEN(G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1538,7 +1547,7 @@
         <v>113</v>
       </c>
       <c r="F6" s="7">
-        <f>LEN(G6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1558,7 +1567,7 @@
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1595,7 +1604,7 @@
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1846,7 +1855,7 @@
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1992,42 +2001,38 @@
       <c r="K18" s="4"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F19" s="7">
         <f>LEN(G19)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="2">
         <v>1</v>
       </c>
-      <c r="J19" s="4">
-        <v>2</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N19" s="3"/>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2235,42 +2240,41 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="4" t="s">
+      <c r="C26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F26" s="7">
         <f>LEN(G26)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I26" s="4">
-        <v>5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>5</v>
-      </c>
-      <c r="K26" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N26" s="3"/>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2455,38 +2459,35 @@
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F32" s="7">
         <f>LEN(G32)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N32" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2653,7 +2654,7 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2686,7 +2687,7 @@
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3182,45 +3183,48 @@
       </c>
       <c r="N52" s="3"/>
     </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>55</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="C53" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>114</v>
       </c>
       <c r="F53" s="7">
         <f>LEN(G53)</f>
         <v>1</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="H53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="2">
-        <v>1</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H53" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>114</v>
@@ -3233,27 +3237,21 @@
         <v>120</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>114</v>
@@ -3266,102 +3264,119 @@
         <v>120</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="13">
-        <v>55</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E56" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>31</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F56" s="7">
         <f>LEN(G56)</f>
-        <v>1</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="K56" s="11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F57" s="7">
         <f>LEN(G57)</f>
+        <v>2</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="2">
+        <v>2</v>
+      </c>
+      <c r="J57" s="2">
         <v>1</v>
       </c>
-      <c r="G57" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K57" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F58" s="7">
         <f>LEN(G58)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="I58" s="2">
+        <v>2</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>114</v>
@@ -3377,24 +3392,24 @@
         <v>130</v>
       </c>
       <c r="I59" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>114</v>
@@ -3413,18 +3428,21 @@
         <v>2</v>
       </c>
       <c r="J60" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>114</v>
@@ -3437,27 +3455,21 @@
         <v>164</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" s="2">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>114</v>
@@ -3470,27 +3482,21 @@
         <v>118</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I62" s="2">
-        <v>2</v>
-      </c>
-      <c r="J62" s="2">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>114</v>
@@ -3506,72 +3512,88 @@
         <v>131</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>63</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E64" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F64" s="7">
         <f>LEN(G64)</f>
+        <v>3</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I64" s="4">
+        <v>1</v>
+      </c>
+      <c r="J64" s="4">
         <v>2</v>
       </c>
-      <c r="G64" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K64" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F65" s="7">
         <f>LEN(G65)</f>
+        <v>3</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I65" s="2">
         <v>2</v>
       </c>
-      <c r="G65" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>131</v>
+      <c r="J65" s="2">
+        <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>114</v>
@@ -3581,30 +3603,30 @@
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I66" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>114</v>
@@ -3623,21 +3645,21 @@
         <v>3</v>
       </c>
       <c r="J67" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>114</v>
@@ -3647,57 +3669,57 @@
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I68" s="2">
-        <v>3</v>
-      </c>
-      <c r="J68" s="2">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F69" s="7">
         <f>LEN(G69)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I69" s="2">
+        <v>4</v>
+      </c>
+      <c r="J69" s="2">
+        <v>5</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>114</v>
@@ -3707,7 +3729,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>130</v>
@@ -3716,21 +3738,21 @@
         <v>4</v>
       </c>
       <c r="J70" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>114</v>
@@ -3740,30 +3762,30 @@
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I71" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J71" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>114</v>
@@ -3773,30 +3795,30 @@
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>130</v>
       </c>
       <c r="I72" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J72" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>114</v>
@@ -3806,49 +3828,53 @@
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I73" s="2">
-        <v>5</v>
-      </c>
-      <c r="J73" s="2">
-        <v>4</v>
+        <v>131</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="C74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E74" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F74" s="7">
         <f>LEN(G74)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="I74" s="4">
+        <v>5</v>
+      </c>
+      <c r="J74" s="4">
+        <v>5</v>
+      </c>
+      <c r="K74" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3881,7 +3907,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3914,7 +3940,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3947,7 +3973,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3974,7 +4000,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4007,7 +4033,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -8998,11 +9024,11 @@
   <autoFilter ref="E1:F1000">
     <filterColumn colId="0">
       <filters blank="1">
-        <filter val="White"/>
+        <filter val="Green"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:N1000">
+  <sortState ref="A7:N1000">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Numeric" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$E$1:$F$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$B$1:$J$1000</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="326">
   <si>
     <t>#</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Disintegrate</t>
   </si>
   <si>
-    <t>Aether crucible</t>
-  </si>
-  <si>
     <t>Dracon's Spell Catalog</t>
   </si>
   <si>
@@ -900,12 +897,6 @@
     <t>* 死亡时若前方没有阻挡生物, 对目标元素师造成等同于灰烬暴君力量的伤害.</t>
   </si>
   <si>
-    <t>* 目标白色生物的力量和生命值互换</t>
-  </si>
-  <si>
-    <t>* 目标生物获得-0/-1并且所在卡槽被视为白色</t>
-  </si>
-  <si>
     <t>Centaur Ranger</t>
   </si>
   <si>
@@ -913,6 +904,99 @@
   </si>
   <si>
     <t>Rain of the Jungles</t>
+  </si>
+  <si>
+    <t>空气元素</t>
+  </si>
+  <si>
+    <t>Aether Crucible</t>
+  </si>
+  <si>
+    <t>* 如果空气元素所在卡槽颜色不是白色, 将空气元素置于墓地并对目标生物或者元素师造成1点伤害.</t>
+  </si>
+  <si>
+    <t>位面之兽</t>
+  </si>
+  <si>
+    <t>* 冻结自身: 迁移到另外一个你的卡槽, 如果目标卡槽有生物, 位面之兽与目标卡槽的生物交换位置.</t>
+  </si>
+  <si>
+    <t>虚幻刺客</t>
+  </si>
+  <si>
+    <t>* 虚幻刺客无法被防御, 也无法防御任何生物</t>
+  </si>
+  <si>
+    <t>滞流气息</t>
+  </si>
+  <si>
+    <t>* 进入战场时, 被冻结.</t>
+  </si>
+  <si>
+    <t>传送</t>
+  </si>
+  <si>
+    <t>* 将目标生物转移至其拥有者的另外一个卡槽</t>
+  </si>
+  <si>
+    <t>气化</t>
+  </si>
+  <si>
+    <t>失重</t>
+  </si>
+  <si>
+    <t>* 目标生物获得-1/-0, 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 附魔的生物无法被防御, 也无法防御任何生物 * 附魔的生物成为法术的目标时, 附魔的生物受到1点伤害, 然后气化被置于墓地</t>
+  </si>
+  <si>
+    <t>以太行者</t>
+  </si>
+  <si>
+    <t>* 附魔的生物可以自由地移动到一个未被占据的卡槽 * 附魔的生物在发动攻击之后, 本回合将无法在卡槽间移动</t>
+  </si>
+  <si>
+    <t>空气具象</t>
+  </si>
+  <si>
+    <t>* 目标生物所在卡槽被视为白色, 然后获得-0/-1</t>
+  </si>
+  <si>
+    <t>虚幻武士</t>
+  </si>
+  <si>
+    <t>* 虚幻武士位于白色卡槽时, 无法被防御</t>
+  </si>
+  <si>
+    <t>天空之墙</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>* 防御者 * 战斗时, 进攻的生物获得-3/-0</t>
+  </si>
+  <si>
+    <t>气元素暗杀者</t>
+  </si>
+  <si>
+    <t>* 气元素暗杀者无法被位于白色卡槽的生物防御</t>
+  </si>
+  <si>
+    <t>* 目标白色卡槽内生物的力量和生命值互换, 直到回合结束</t>
+  </si>
+  <si>
+    <t>大气之盾</t>
+  </si>
+  <si>
+    <t>* 目标生物获得+0/+1并且所在卡槽被视为白色, 直到回合结束</t>
+  </si>
+  <si>
+    <t>空气震裂</t>
+  </si>
+  <si>
+    <t>* 目标生物被冻结, 直到其回合结束 * 目标生物无法防御, 直到你的回合结束</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1418,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1414,22 +1498,22 @@
         <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F2" s="7">
         <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -1444,25 +1528,25 @@
         <v>54</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1477,25 +1561,25 @@
         <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1507,26 +1591,26 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1544,17 +1628,17 @@
         <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -1563,11 +1647,11 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1581,17 +1665,17 @@
         <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="7">
-        <f>LEN(G7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1600,11 +1684,11 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1618,17 +1702,17 @@
         <v>70</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7">
-        <f>LEN(G8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1637,7 +1721,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1655,17 +1739,17 @@
         <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7">
         <f>LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1674,48 +1758,44 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>75</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F10" s="7">
         <f>LEN(G10)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" s="4">
+        <v>129</v>
+      </c>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="2">
         <v>1</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="N10" s="3"/>
+      <c r="K10" s="2" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1731,17 +1811,17 @@
         <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7">
         <f>LEN(G11)</f>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -1750,7 +1830,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -1768,22 +1848,22 @@
         <v>90</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F12" s="7">
         <f>LEN(G12)</f>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -1801,25 +1881,25 @@
         <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7">
         <f>LEN(G13)</f>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1836,26 +1916,26 @@
         <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F14" s="7">
         <f>LEN(G14)</f>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1869,17 +1949,17 @@
         <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7">
         <f>LEN(G15)</f>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -1888,46 +1968,42 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
+        <v>76</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>115</v>
+      <c r="C16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F16" s="7">
         <f>LEN(G16)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="4">
-        <v>2</v>
-      </c>
-      <c r="J16" s="4">
-        <v>2</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="N16" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1943,17 +2019,17 @@
         <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7">
         <f>LEN(G17)</f>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -1962,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -1980,17 +2056,17 @@
         <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="7">
         <f>LEN(G18)</f>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2001,7 +2077,7 @@
       <c r="K18" s="4"/>
       <c r="N18" s="3"/>
     </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>52</v>
       </c>
@@ -2009,23 +2085,23 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7">
         <f>LEN(G19)</f>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2045,25 +2121,25 @@
         <v>53</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7">
         <f>LEN(G20)</f>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2078,25 +2154,25 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7">
         <f>LEN(G21)</f>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2105,70 +2181,66 @@
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7">
         <f>LEN(G22)</f>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F23" s="7">
         <f>LEN(G23)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I23" s="4">
-        <v>4</v>
-      </c>
-      <c r="J23" s="4">
-        <v>4</v>
-      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N23" s="3"/>
+        <v>240</v>
+      </c>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2184,17 +2256,17 @@
         <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F24" s="7">
         <f>LEN(G24)</f>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2203,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -2221,26 +2293,26 @@
         <v>66</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7">
         <f>LEN(G25)</f>
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>53</v>
       </c>
@@ -2248,23 +2320,23 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7">
         <f>LEN(G26)</f>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -2273,43 +2345,39 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F27" s="7">
         <f>LEN(G27)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I27" s="4">
-        <v>5</v>
-      </c>
-      <c r="J27" s="4">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="4" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -2327,17 +2395,17 @@
         <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F28" s="7">
         <f>LEN(G28)</f>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -2346,10 +2414,10 @@
         <v>5</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2366,17 +2434,17 @@
         <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F29" s="7">
         <f>LEN(G29)</f>
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2385,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N29" s="3"/>
     </row>
@@ -2394,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -2403,22 +2471,22 @@
         <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7">
         <f>LEN(G30)</f>
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N30" s="3"/>
     </row>
@@ -2436,17 +2504,17 @@
         <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F31" s="7">
         <f>LEN(G31)</f>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I31" s="4">
         <v>3</v>
@@ -2455,11 +2523,11 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N31" s="3"/>
     </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>54</v>
       </c>
@@ -2467,194 +2535,192 @@
         <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F32" s="7">
         <f>LEN(G32)</f>
         <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F33" s="7">
         <f>LEN(G33)</f>
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N33" s="4"/>
+        <v>247</v>
+      </c>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>115</v>
+      <c r="C34" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F34" s="7">
         <f>LEN(G34)</f>
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N34" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F35" s="7">
         <f>LEN(G35)</f>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
       <c r="K35" s="4" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7">
         <f>LEN(G36)</f>
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F37" s="7">
         <f>LEN(G37)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2668,7 +2734,7 @@
         <v>99</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F38" s="7">
         <f>LEN(G38)</f>
@@ -2678,16 +2744,16 @@
         <v>14</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2698,25 +2764,25 @@
         <v>52</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F39" s="7">
         <f>LEN(G39)</f>
         <v>2</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="N39" s="3"/>
     </row>
@@ -2725,7 +2791,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>34</v>
@@ -2734,17 +2800,17 @@
         <v>82</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="7">
         <f>LEN(G40)</f>
         <v>4</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="4">
         <v>3</v>
@@ -2753,7 +2819,7 @@
         <v>3</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N40" s="3"/>
     </row>
@@ -2771,17 +2837,17 @@
         <v>83</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="7">
         <f>LEN(G41)</f>
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I41" s="4">
         <v>2</v>
@@ -2790,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="N41" s="3"/>
     </row>
@@ -2799,26 +2865,26 @@
         <v>47</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="7">
         <f>LEN(G42)</f>
         <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="4">
         <v>3</v>
@@ -2827,7 +2893,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N42" s="3"/>
     </row>
@@ -2842,25 +2908,25 @@
         <v>60</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="7">
         <f>LEN(G43)</f>
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -2869,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>17</v>
@@ -2878,17 +2944,17 @@
         <v>64</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="7">
         <f>LEN(G44)</f>
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
@@ -2897,7 +2963,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N44" s="3"/>
     </row>
@@ -2906,26 +2972,26 @@
         <v>20</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>235</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="7">
         <f>LEN(G45)</f>
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I45" s="4">
         <v>3</v>
@@ -2934,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N45" s="3"/>
     </row>
@@ -2943,7 +3009,7 @@
         <v>24</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>38</v>
@@ -2952,17 +3018,17 @@
         <v>86</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="7">
         <f>LEN(G46)</f>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I46" s="4">
         <v>2</v>
@@ -2971,7 +3037,7 @@
         <v>4</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N46" s="3"/>
     </row>
@@ -2989,17 +3055,17 @@
         <v>89</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F47" s="7">
         <f>LEN(G47)</f>
         <v>3</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I47" s="4">
         <v>3</v>
@@ -3021,25 +3087,25 @@
         <v>57</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="7">
         <f>LEN(G48)</f>
         <v>3</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N48" s="3"/>
     </row>
@@ -3048,59 +3114,59 @@
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F49" s="7">
         <f>LEN(G49)</f>
         <v>3</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N49" s="3"/>
     </row>
     <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>61</v>
+        <v>239</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F50" s="7">
         <f>LEN(G50)</f>
         <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -3109,81 +3175,81 @@
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="N50" s="3"/>
     </row>
     <row r="51" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F51" s="7">
         <f>LEN(G51)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="I51" s="4">
         <v>2</v>
       </c>
       <c r="J51" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="N51" s="3"/>
     </row>
     <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>115</v>
+        <v>78</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="F52" s="7">
         <f>LEN(G52)</f>
+        <v>2</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="2">
+        <v>2</v>
+      </c>
+      <c r="J52" s="2">
         <v>1</v>
       </c>
-      <c r="G52" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K52" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>55</v>
       </c>
@@ -3191,32 +3257,32 @@
         <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" s="7">
         <f>LEN(G53)</f>
         <v>1</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>56</v>
       </c>
@@ -3224,26 +3290,26 @@
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="7">
         <f>LEN(G54)</f>
         <v>1</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>57</v>
       </c>
@@ -3251,26 +3317,26 @@
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="7">
         <f>LEN(G55)</f>
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>31</v>
       </c>
@@ -3284,28 +3350,28 @@
         <v>93</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F56" s="7">
         <f>LEN(G56)</f>
         <v>2</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="3"/>
     </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>58</v>
       </c>
@@ -3313,20 +3379,20 @@
         <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F57" s="7">
         <f>LEN(G57)</f>
         <v>2</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I57" s="2">
         <v>2</v>
@@ -3335,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>59</v>
       </c>
@@ -3346,20 +3412,20 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F58" s="7">
         <f>LEN(G58)</f>
         <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I58" s="2">
         <v>2</v>
@@ -3368,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>60</v>
       </c>
@@ -3376,20 +3442,20 @@
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F59" s="7">
         <f>LEN(G59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I59" s="2">
         <v>1</v>
@@ -3398,10 +3464,10 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>61</v>
       </c>
@@ -3409,20 +3475,20 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F60" s="7">
         <f>LEN(G60)</f>
         <v>2</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I60" s="2">
         <v>2</v>
@@ -3431,10 +3497,10 @@
         <v>2</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>62</v>
       </c>
@@ -3442,26 +3508,26 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F61" s="7">
         <f>LEN(G61)</f>
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>63</v>
       </c>
@@ -3469,26 +3535,26 @@
         <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F62" s="7">
         <f>LEN(G62)</f>
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>64</v>
       </c>
@@ -3496,26 +3562,26 @@
         <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F63" s="7">
         <f>LEN(G63)</f>
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>18</v>
       </c>
@@ -3529,17 +3595,17 @@
         <v>81</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F64" s="7">
         <f>LEN(G64)</f>
         <v>3</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I64" s="4">
         <v>1</v>
@@ -3548,11 +3614,11 @@
         <v>2</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N64" s="3"/>
     </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -3560,20 +3626,20 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="7">
         <f>LEN(G65)</f>
         <v>3</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I65" s="2">
         <v>2</v>
@@ -3582,10 +3648,10 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -3593,20 +3659,20 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F66" s="7">
         <f>LEN(G66)</f>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I66" s="2">
         <v>3</v>
@@ -3615,10 +3681,10 @@
         <v>4</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -3626,20 +3692,20 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F67" s="7">
         <f>LEN(G67)</f>
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I67" s="2">
         <v>3</v>
@@ -3648,10 +3714,10 @@
         <v>2</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>68</v>
       </c>
@@ -3659,26 +3725,26 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F68" s="7">
         <f>LEN(G68)</f>
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -3686,20 +3752,20 @@
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F69" s="7">
         <f>LEN(G69)</f>
         <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I69" s="2">
         <v>4</v>
@@ -3708,10 +3774,10 @@
         <v>5</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -3719,20 +3785,20 @@
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F70" s="7">
         <f>LEN(G70)</f>
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I70" s="2">
         <v>4</v>
@@ -3741,10 +3807,10 @@
         <v>4</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -3752,20 +3818,20 @@
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F71" s="7">
         <f>LEN(G71)</f>
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -3774,10 +3840,10 @@
         <v>6</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>72</v>
       </c>
@@ -3785,20 +3851,20 @@
         <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F72" s="7">
         <f>LEN(G72)</f>
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I72" s="2">
         <v>5</v>
@@ -3807,10 +3873,10 @@
         <v>4</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>73</v>
       </c>
@@ -3818,26 +3884,26 @@
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F73" s="7">
         <f>LEN(G73)</f>
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>25</v>
       </c>
@@ -3851,17 +3917,17 @@
         <v>87</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F74" s="7">
         <f>LEN(G74)</f>
         <v>5</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I74" s="4">
         <v>5</v>
@@ -3870,11 +3936,11 @@
         <v>5</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N74" s="3"/>
     </row>
-    <row r="75" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3882,20 +3948,20 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F75" s="7">
         <f>LEN(G75)</f>
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I75" s="2">
         <v>5</v>
@@ -3904,217 +3970,221 @@
         <v>5</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F76" s="7">
         <f>LEN(G76)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I76" s="2">
-        <v>1</v>
-      </c>
-      <c r="J76" s="2">
-        <v>1</v>
-      </c>
       <c r="K76" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F77" s="7">
         <f>LEN(G77)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I77" s="2">
-        <v>1</v>
-      </c>
-      <c r="J77" s="2">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F78" s="7">
         <f>LEN(G78)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="6" t="s">
         <v>124</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F79" s="7">
         <f>LEN(G79)</f>
         <v>2</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I79" s="2">
-        <v>2</v>
-      </c>
-      <c r="J79" s="2">
-        <v>1</v>
-      </c>
       <c r="K79" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>79</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>115</v>
+        <v>36</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F80" s="7">
         <f>LEN(G80)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="N80" s="3"/>
+    </row>
+    <row r="81" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>80</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F81" s="7">
         <f>LEN(G81)</f>
+        <v>3</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I81" s="4">
         <v>2</v>
       </c>
-      <c r="G81" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>3</v>
+      </c>
+      <c r="K81" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F82" s="7">
         <f>LEN(G82)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="I82" s="2">
+        <v>1</v>
+      </c>
+      <c r="J82" s="2">
+        <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4122,460 +4192,827 @@
         <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F83" s="7">
         <f>LEN(G83)</f>
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K83" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F84" s="7">
         <f>LEN(G84)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>125</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="I84" s="2">
+        <v>4</v>
+      </c>
+      <c r="J84" s="2">
+        <v>4</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F85" s="7">
         <f>LEN(G85)</f>
+        <v>3</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I85" s="2">
         <v>4</v>
       </c>
-      <c r="G85" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I85" s="2">
-        <v>5</v>
-      </c>
       <c r="J85" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F86" s="7">
         <f>LEN(G86)</f>
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>129</v>
+        <v>264</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="2">
-        <v>1</v>
-      </c>
-      <c r="J86" s="2">
-        <v>5</v>
-      </c>
       <c r="K86" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F87" s="7">
         <f>LEN(G87)</f>
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I87" s="2">
-        <v>4</v>
-      </c>
-      <c r="J87" s="2">
-        <v>4</v>
-      </c>
       <c r="K87" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F88" s="7">
         <f>LEN(G88)</f>
         <v>3</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="I88" s="2">
-        <v>4</v>
-      </c>
-      <c r="J88" s="2">
-        <v>2</v>
-      </c>
       <c r="K88" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>88</v>
-      </c>
-      <c r="B89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>115</v>
+      <c r="C89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F89" s="7">
         <f>LEN(G89)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>265</v>
+        <v>143</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="I89" s="4">
+        <v>4</v>
+      </c>
+      <c r="J89" s="4">
+        <v>4</v>
+      </c>
+      <c r="K89" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F90" s="7">
         <f>LEN(G90)</f>
+        <v>4</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I90" s="2">
+        <v>5</v>
+      </c>
+      <c r="J90" s="2">
         <v>3</v>
       </c>
-      <c r="G90" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="K90" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F91" s="7">
         <f>LEN(G91)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F92" s="7">
         <f>LEN(G92)</f>
         <v>4</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F93" s="7">
         <f>LEN(G93)</f>
         <v>4</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F94" s="7">
         <f>LEN(G94)</f>
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
+      </c>
+      <c r="I94" s="2">
+        <v>3</v>
+      </c>
+      <c r="J94" s="2">
+        <v>4</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>94</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>115</v>
+        <v>26</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F95" s="7">
         <f>LEN(G95)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I95" s="2">
-        <v>3</v>
-      </c>
-      <c r="J95" s="2">
-        <v>4</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="I95" s="4">
+        <v>5</v>
+      </c>
+      <c r="J95" s="4">
+        <v>5</v>
+      </c>
+      <c r="K95" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F96" s="7">
+        <f t="shared" ref="F66:F97" si="1">LEN(G96)</f>
+        <v>1</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I96" s="2">
+        <v>1</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F97" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I97" s="2">
+        <v>1</v>
+      </c>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F98" s="7">
+        <f t="shared" ref="F98:F109" si="2">LEN(G98)</f>
+        <v>1</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I98" s="2">
+        <v>1</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I99" s="2">
+        <v>2</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F100" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F101" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F102" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F103" s="7">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F104" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I104" s="2">
+        <v>0</v>
+      </c>
+      <c r="J104" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F105" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I105" s="2">
+        <v>1</v>
+      </c>
+      <c r="J105" s="2">
+        <v>2</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F106" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I106" s="2">
+        <v>0</v>
+      </c>
+      <c r="J106" s="2">
+        <v>3</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I107" s="2">
+        <v>2</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F108" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F109" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -9021,14 +9458,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:F1000">
-    <filterColumn colId="0">
+  <autoFilter ref="B1:J1000">
+    <filterColumn colId="3">
       <filters blank="1">
-        <filter val="Green"/>
+        <filter val="White"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A7:N1000">
+  <sortState ref="A9:N95">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9074,16 +9511,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>154</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9206,7 +9643,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="397">
   <si>
     <t>#</t>
   </si>
@@ -516,9 +516,6 @@
     <t>精灵射手</t>
   </si>
   <si>
-    <t>* 暗杀: 进攻时, 敌方生物无法攻击</t>
-  </si>
-  <si>
     <t>半人马冲锋者</t>
   </si>
   <si>
@@ -997,6 +994,222 @@
   </si>
   <si>
     <t>* 目标生物被冻结, 直到其回合结束 * 目标生物无法防御, 直到你的回合结束</t>
+  </si>
+  <si>
+    <t>Convert</t>
+  </si>
+  <si>
+    <t>Lost in the Forest</t>
+  </si>
+  <si>
+    <t>Green Creeps</t>
+  </si>
+  <si>
+    <t>Sentinel</t>
+  </si>
+  <si>
+    <t>Elf Archer</t>
+  </si>
+  <si>
+    <t>Centaur Charger</t>
+  </si>
+  <si>
+    <t>Dryad Guardian</t>
+  </si>
+  <si>
+    <t>Dwarf Explorer</t>
+  </si>
+  <si>
+    <t>Restless Wild</t>
+  </si>
+  <si>
+    <t>Weaken</t>
+  </si>
+  <si>
+    <t>Parasitical Spore</t>
+  </si>
+  <si>
+    <t>Dwarf Druid</t>
+  </si>
+  <si>
+    <t>Forest Werebear</t>
+  </si>
+  <si>
+    <t>Elf Priest</t>
+  </si>
+  <si>
+    <t>Enlarge</t>
+  </si>
+  <si>
+    <t>Ancient Dryad</t>
+  </si>
+  <si>
+    <t>Stone Chameleon</t>
+  </si>
+  <si>
+    <t>Dryad Rain Prayer</t>
+  </si>
+  <si>
+    <t>Centaur Warchief</t>
+  </si>
+  <si>
+    <t>Giant Growth</t>
+  </si>
+  <si>
+    <t>Marsh Hydra</t>
+  </si>
+  <si>
+    <t>Flame Bringer</t>
+  </si>
+  <si>
+    <t>Fire Fiend</t>
+  </si>
+  <si>
+    <t>Fire of Immolation</t>
+  </si>
+  <si>
+    <t>Molten Thug</t>
+  </si>
+  <si>
+    <t>Burn Down</t>
+  </si>
+  <si>
+    <t>Furnance</t>
+  </si>
+  <si>
+    <t>Chain Lightning</t>
+  </si>
+  <si>
+    <t>Lightning Strike</t>
+  </si>
+  <si>
+    <t>Scorching Ooze</t>
+  </si>
+  <si>
+    <t>Fire Mastery</t>
+  </si>
+  <si>
+    <t>Lunatic Beast</t>
+  </si>
+  <si>
+    <t>Red Dragon Whelp</t>
+  </si>
+  <si>
+    <t>Pyrowave</t>
+  </si>
+  <si>
+    <t>Molten Spawnling</t>
+  </si>
+  <si>
+    <t>Metoer Shower</t>
+  </si>
+  <si>
+    <t>Lord of the Fires</t>
+  </si>
+  <si>
+    <t>Destruction</t>
+  </si>
+  <si>
+    <t>Searing Blood</t>
+  </si>
+  <si>
+    <t>Incendiary</t>
+  </si>
+  <si>
+    <t>Ember Tyrant</t>
+  </si>
+  <si>
+    <t>佯攻</t>
+  </si>
+  <si>
+    <t>* 目标生物获得[先攻], 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 先攻: 进攻时, 你首先对敌人造成伤害并结算, 然后敌人对你造成伤害并结算</t>
+  </si>
+  <si>
+    <t>空气之刃</t>
+  </si>
+  <si>
+    <t>XAA</t>
+  </si>
+  <si>
+    <t>妄想之境</t>
+  </si>
+  <si>
+    <t>* 如果附魔的生物因战斗而死亡, 对与之发生战斗的生物之拥有者造成伤害, 其值为与附魔之生物发生战斗的生物之力量值</t>
+  </si>
+  <si>
+    <t>气旋舞者</t>
+  </si>
+  <si>
+    <t>* 进入白色卡槽时, 获得+0/+1, 被冻结 * 进入非白色卡槽时, 对目标元素师造成1点伤害, 然后获得-0/-1</t>
+  </si>
+  <si>
+    <t>虚幻斩杀者</t>
+  </si>
+  <si>
+    <t>XXA</t>
+  </si>
+  <si>
+    <t>* 虚幻斩杀者无法被防御</t>
+  </si>
+  <si>
+    <t>多重阴影</t>
+  </si>
+  <si>
+    <t>* 战斗时, 对战斗目标的拥有者造成1次攻击伤害</t>
+  </si>
+  <si>
+    <t>漂浮</t>
+  </si>
+  <si>
+    <t>* 附魔的生物死亡时, 对目标元素师造成一次攻击伤害, 然后回到手牌</t>
+  </si>
+  <si>
+    <t>发现弱点</t>
+  </si>
+  <si>
+    <t>* 目标生物战斗时, 会额外造成一次攻击伤害</t>
+  </si>
+  <si>
+    <t>快银战士</t>
+  </si>
+  <si>
+    <t>* 进入战场时, 立即对目标元素师或者生物造成一次攻击伤害</t>
+  </si>
+  <si>
+    <t>Elemental Air</t>
+  </si>
+  <si>
+    <t>Phase Beast</t>
+  </si>
+  <si>
+    <t>Unreal Assassin</t>
+  </si>
+  <si>
+    <t>Congested Flow</t>
+  </si>
+  <si>
+    <t>Teleport</t>
+  </si>
+  <si>
+    <t>Weightless</t>
+  </si>
+  <si>
+    <t>Vaporise</t>
+  </si>
+  <si>
+    <t>Aether Walker</t>
+  </si>
+  <si>
+    <t>Air Concretization</t>
+  </si>
+  <si>
+    <t>Unreal Warrior</t>
+  </si>
+  <si>
+    <t>Sky Wall</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1631,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K110" sqref="K110"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1501,7 +1714,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
+        <f t="shared" ref="F2:F8" si="0">LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1513,7 +1726,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -1546,7 +1759,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1579,7 +1792,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1591,9 +1804,11 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>210</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>325</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>112</v>
       </c>
@@ -1610,7 +1825,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1647,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -1742,7 +1957,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="7">
-        <f>LEN(G9)</f>
+        <f t="shared" ref="F9:F40" si="1">LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1772,13 +1987,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F10" s="7">
-        <f>LEN(G10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -1794,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,7 +2032,7 @@
         <v>112</v>
       </c>
       <c r="F11" s="7">
-        <f>LEN(G11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1830,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -1851,7 +2069,7 @@
         <v>112</v>
       </c>
       <c r="F12" s="7">
-        <f>LEN(G12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -1863,7 +2081,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -1884,7 +2102,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="7">
-        <f>LEN(G13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1896,7 +2114,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>135</v>
@@ -1919,7 +2137,7 @@
         <v>112</v>
       </c>
       <c r="F14" s="7">
-        <f>LEN(G14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -1931,7 +2149,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -1952,7 +2170,7 @@
         <v>113</v>
       </c>
       <c r="F15" s="7">
-        <f>LEN(G15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -1968,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -1980,13 +2198,16 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F16" s="7">
-        <f>LEN(G16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2002,7 +2223,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2022,7 +2243,7 @@
         <v>112</v>
       </c>
       <c r="F17" s="7">
-        <f>LEN(G17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2038,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -2059,7 +2280,7 @@
         <v>112</v>
       </c>
       <c r="F18" s="7">
-        <f>LEN(G18)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2088,13 +2309,13 @@
         <v>149</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F19" s="7">
-        <f>LEN(G19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2127,7 +2348,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7">
-        <f>LEN(G20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2139,7 +2360,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2160,7 +2381,7 @@
         <v>112</v>
       </c>
       <c r="F21" s="7">
-        <f>LEN(G21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2172,7 +2393,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2184,7 +2405,7 @@
         <v>136</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>103</v>
@@ -2193,7 +2414,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="7">
-        <f>LEN(G22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2205,7 +2426,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -2226,7 +2447,7 @@
         <v>114</v>
       </c>
       <c r="F23" s="7">
-        <f>LEN(G23)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2238,7 +2459,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N23" s="4"/>
     </row>
@@ -2259,7 +2480,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="7">
-        <f>LEN(G24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2275,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N24" s="3"/>
     </row>
@@ -2296,7 +2517,7 @@
         <v>112</v>
       </c>
       <c r="F25" s="7">
-        <f>LEN(G25)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2308,7 +2529,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N25" s="3"/>
     </row>
@@ -2323,13 +2544,13 @@
         <v>156</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F26" s="7">
-        <f>LEN(G26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2365,7 +2586,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7">
-        <f>LEN(G27)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2377,7 +2598,7 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -2398,7 +2619,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="7">
-        <f>LEN(G28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2437,7 +2658,7 @@
         <v>112</v>
       </c>
       <c r="F29" s="7">
-        <f>LEN(G29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2453,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N29" s="3"/>
     </row>
@@ -2474,7 +2695,7 @@
         <v>112</v>
       </c>
       <c r="F30" s="7">
-        <f>LEN(G30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2486,7 +2707,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="N30" s="3"/>
     </row>
@@ -2507,7 +2728,7 @@
         <v>112</v>
       </c>
       <c r="F31" s="7">
-        <f>LEN(G31)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2523,7 +2744,7 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N31" s="3"/>
     </row>
@@ -2538,13 +2759,13 @@
         <v>159</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F32" s="7">
-        <f>LEN(G32)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2554,7 +2775,7 @@
         <v>130</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,7 +2795,7 @@
         <v>114</v>
       </c>
       <c r="F33" s="7">
-        <f>LEN(G33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2586,7 +2807,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N33" s="3"/>
     </row>
@@ -2598,13 +2819,16 @@
         <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>348</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F34" s="7">
-        <f>LEN(G34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -2614,7 +2838,7 @@
         <v>130</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2634,7 +2858,7 @@
         <v>114</v>
       </c>
       <c r="F35" s="7">
-        <f>LEN(G35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2650,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N35" s="3"/>
     </row>
@@ -2671,7 +2895,7 @@
         <v>114</v>
       </c>
       <c r="F36" s="7">
-        <f>LEN(G36)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -2683,7 +2907,7 @@
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N36" s="3"/>
     </row>
@@ -2704,7 +2928,7 @@
         <v>114</v>
       </c>
       <c r="F37" s="7">
-        <f>LEN(G37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2716,7 +2940,7 @@
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N37" s="3"/>
     </row>
@@ -2749,42 +2973,45 @@
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>38</v>
-      </c>
-      <c r="B39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="C39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F39" s="7">
         <f>LEN(G39)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="N39" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -2807,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>129</v>
@@ -2844,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>129</v>
@@ -2856,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="N41" s="3"/>
     </row>
@@ -2893,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N42" s="3"/>
     </row>
@@ -2918,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>130</v>
@@ -2926,7 +3153,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N43" s="3"/>
     </row>
@@ -2963,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N44" s="3"/>
     </row>
@@ -2975,10 +3202,10 @@
         <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>112</v>
@@ -3000,7 +3227,7 @@
         <v>3</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N45" s="3"/>
     </row>
@@ -3105,7 +3332,7 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N48" s="3"/>
     </row>
@@ -3138,7 +3365,7 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N49" s="3"/>
     </row>
@@ -3150,7 +3377,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>78</v>
@@ -3175,7 +3402,7 @@
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N50" s="3"/>
     </row>
@@ -3212,7 +3439,7 @@
         <v>2</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="N51" s="3"/>
     </row>
@@ -3224,7 +3451,10 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>114</v>
@@ -3246,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3257,9 +3487,11 @@
         <v>15</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D53" s="11"/>
+        <v>206</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>326</v>
+      </c>
       <c r="E53" s="11" t="s">
         <v>113</v>
       </c>
@@ -3276,7 +3508,7 @@
       <c r="I53" s="11"/>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="L53" s="11"/>
       <c r="M53" s="11"/>
@@ -3292,6 +3524,9 @@
       <c r="C54" s="2" t="s">
         <v>160</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>327</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>113</v>
       </c>
@@ -3319,6 +3554,9 @@
       <c r="C55" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="E55" s="2" t="s">
         <v>113</v>
       </c>
@@ -3333,7 +3571,7 @@
         <v>131</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,6 +3619,9 @@
       <c r="C57" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>329</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>113</v>
       </c>
@@ -3401,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>165</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3412,7 +3653,10 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>113</v>
@@ -3442,7 +3686,10 @@
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>113</v>
@@ -3464,7 +3711,7 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,7 +3722,10 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>113</v>
@@ -3497,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3508,7 +3758,10 @@
         <v>15</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>333</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>113</v>
@@ -3524,7 +3777,7 @@
         <v>130</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,7 +3788,10 @@
         <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>334</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>113</v>
@@ -3551,7 +3807,7 @@
         <v>131</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3562,7 +3818,10 @@
         <v>16</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>113</v>
@@ -3578,7 +3837,7 @@
         <v>130</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3626,7 +3885,10 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>113</v>
@@ -3648,7 +3910,7 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3659,7 +3921,10 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>113</v>
@@ -3669,7 +3934,7 @@
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>129</v>
@@ -3681,7 +3946,7 @@
         <v>4</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,7 +3957,10 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>338</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>113</v>
@@ -3702,7 +3970,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>129</v>
@@ -3714,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3725,7 +3993,10 @@
         <v>16</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>113</v>
@@ -3741,7 +4012,7 @@
         <v>130</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3752,7 +4023,10 @@
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>113</v>
@@ -3762,7 +4036,7 @@
         <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>129</v>
@@ -3774,7 +4048,7 @@
         <v>5</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,7 +4059,10 @@
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>113</v>
@@ -3795,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>129</v>
@@ -3807,7 +4084,7 @@
         <v>4</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3818,7 +4095,10 @@
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>113</v>
@@ -3828,7 +4108,7 @@
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>129</v>
@@ -3840,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,7 +4131,10 @@
         <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>343</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>113</v>
@@ -3861,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>129</v>
@@ -3873,7 +4156,7 @@
         <v>4</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,7 +4167,10 @@
         <v>15</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>113</v>
@@ -3894,13 +4180,13 @@
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3948,7 +4234,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>113</v>
@@ -3958,7 +4247,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>129</v>
@@ -3970,7 +4259,7 @@
         <v>5</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3981,7 +4270,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>350</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>114</v>
@@ -3997,7 +4289,7 @@
         <v>130</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4008,7 +4300,10 @@
         <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>114</v>
@@ -4024,7 +4319,7 @@
         <v>131</v>
       </c>
       <c r="K77" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4035,7 +4330,10 @@
         <v>16</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>352</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>114</v>
@@ -4051,7 +4349,7 @@
         <v>130</v>
       </c>
       <c r="K78" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4062,7 +4360,10 @@
         <v>15</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>114</v>
@@ -4078,7 +4379,7 @@
         <v>130</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4110,7 +4411,7 @@
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
       <c r="K80" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N80" s="3"/>
     </row>
@@ -4147,7 +4448,7 @@
         <v>3</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N81" s="3"/>
     </row>
@@ -4159,7 +4460,10 @@
         <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>114</v>
@@ -4181,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,7 +4496,10 @@
         <v>14</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>355</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>114</v>
@@ -4202,13 +4509,13 @@
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,7 +4526,10 @@
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>114</v>
@@ -4241,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4252,7 +4562,10 @@
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>114</v>
@@ -4274,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,7 +4598,10 @@
         <v>15</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>114</v>
@@ -4295,13 +4611,13 @@
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4312,7 +4628,10 @@
         <v>16</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>359</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>114</v>
@@ -4328,7 +4647,7 @@
         <v>130</v>
       </c>
       <c r="K87" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4339,7 +4658,10 @@
         <v>15</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>360</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>114</v>
@@ -4355,7 +4677,7 @@
         <v>130</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4403,7 +4725,10 @@
         <v>136</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>114</v>
@@ -4413,7 +4738,7 @@
         <v>4</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>129</v>
@@ -4425,7 +4750,7 @@
         <v>3</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4436,7 +4761,10 @@
         <v>14</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>114</v>
@@ -4446,13 +4774,13 @@
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4463,7 +4791,10 @@
         <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>114</v>
@@ -4473,13 +4804,13 @@
         <v>4</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4490,7 +4821,10 @@
         <v>16</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>364</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>114</v>
@@ -4500,13 +4834,13 @@
         <v>4</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K93" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4517,7 +4851,10 @@
         <v>136</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>365</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>114</v>
@@ -4527,7 +4864,7 @@
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>129</v>
@@ -4539,7 +4876,7 @@
         <v>4</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4581,19 +4918,22 @@
     </row>
     <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>387</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" ref="F66:F97" si="1">LEN(G96)</f>
+        <f>LEN(G96)</f>
         <v>1</v>
       </c>
       <c r="G96" s="6" t="s">
@@ -4609,24 +4949,27 @@
         <v>1</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G97)</f>
         <v>1</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -4642,24 +4985,27 @@
         <v>1</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>389</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" ref="F98:F109" si="2">LEN(G98)</f>
+        <f>LEN(G98)</f>
         <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -4669,63 +5015,63 @@
         <v>129</v>
       </c>
       <c r="I98" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" s="2">
         <v>1</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>390</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G99)</f>
         <v>1</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I99" s="2">
-        <v>2</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1</v>
+        <v>130</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G100)</f>
         <v>1</v>
       </c>
       <c r="G100" s="6" t="s">
@@ -4735,51 +5081,57 @@
         <v>130</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G101)</f>
         <v>1</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>306</v>
+        <v>309</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>393</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G102)</f>
         <v>1</v>
       </c>
       <c r="G102" s="6" t="s">
@@ -4789,37 +5141,43 @@
         <v>131</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>102</v>
-      </c>
-      <c r="B103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="C103" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="4" t="s">
         <v>115</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>LEN(G103)</f>
+        <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="N103" s="3"/>
+    </row>
+    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -4827,13 +5185,16 @@
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G104)</f>
         <v>2</v>
       </c>
       <c r="G104" s="6" t="s">
@@ -4849,7 +5210,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -4857,13 +5218,16 @@
         <v>15</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G105)</f>
         <v>2</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -4879,10 +5243,10 @@
         <v>2</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -4890,17 +5254,20 @@
         <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>396</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G106)</f>
         <v>2</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>129</v>
@@ -4912,10 +5279,10 @@
         <v>3</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -4923,13 +5290,13 @@
         <v>16</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G107)</f>
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -4945,10 +5312,10 @@
         <v>2</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -4956,26 +5323,26 @@
         <v>15</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G108)</f>
         <v>2</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -4983,116 +5350,344 @@
         <v>15</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>115</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G109)</f>
         <v>2</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>130</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F110" s="7">
+        <f>LEN(G110)</f>
+        <v>2</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F111" s="7">
+        <f>LEN(G111)</f>
+        <v>3</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I111" s="2">
+        <v>3</v>
+      </c>
+      <c r="J111" s="2">
+        <v>2</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F112" s="7">
+        <f>LEN(G112)</f>
+        <v>3</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F113" s="7">
+        <f>LEN(G113)</f>
+        <v>3</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2">
+        <v>5</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F114" s="7">
+        <f>LEN(G114)</f>
+        <v>3</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I114" s="2">
+        <v>4</v>
+      </c>
+      <c r="J114" s="2">
+        <v>1</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F115" s="7">
+        <f>LEN(G115)</f>
+        <v>3</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I115" s="2">
+        <v>2</v>
+      </c>
+      <c r="J115" s="2">
+        <v>2</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F116" s="7">
+        <f>LEN(G116)</f>
+        <v>3</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K116" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F117" s="7">
+        <f>LEN(G117)</f>
+        <v>3</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F118" s="7">
+        <f>LEN(G118)</f>
+        <v>3</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I118" s="2">
+        <v>3</v>
+      </c>
+      <c r="J118" s="2">
+        <v>3</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9465,7 +10060,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A9:N95">
+  <sortState ref="A38:N1000">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1251,7 +1251,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1270,6 +1270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1283,7 +1289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1320,6 +1326,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1631,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1698,7 +1707,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="14">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1714,7 +1723,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F8" si="0">LEN(G2)</f>
+        <f>LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1731,7 +1740,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="14">
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1747,7 +1756,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1780,7 +1789,7 @@
         <v>112</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G4)</f>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1813,7 +1822,7 @@
         <v>112</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G5)</f>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1846,7 +1855,7 @@
         <v>112</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G6)</f>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1867,7 +1876,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1883,7 +1892,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G7)</f>
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1904,7 +1913,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1920,7 +1929,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G8)</f>
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1941,7 +1950,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1957,7 +1966,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F40" si="1">LEN(G9)</f>
+        <f>LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1996,7 +2005,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2032,7 +2041,7 @@
         <v>112</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G11)</f>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2053,7 +2062,7 @@
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="14">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2069,7 +2078,7 @@
         <v>112</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G12)</f>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2086,7 +2095,7 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="14">
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2102,7 +2111,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G13)</f>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2121,7 +2130,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="14">
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2137,7 +2146,7 @@
         <v>112</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G14)</f>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2154,7 +2163,7 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2170,7 +2179,7 @@
         <v>113</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G15)</f>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2207,7 +2216,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G16)</f>
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2243,7 +2252,7 @@
         <v>112</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G17)</f>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2280,7 +2289,7 @@
         <v>112</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G18)</f>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2299,7 +2308,7 @@
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="14">
         <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2315,7 +2324,7 @@
         <v>113</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G19)</f>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2348,7 +2357,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G20)</f>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2381,7 +2390,7 @@
         <v>112</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G21)</f>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2414,7 +2423,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G22)</f>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2447,7 +2456,7 @@
         <v>114</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G23)</f>
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2480,7 +2489,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G24)</f>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2501,7 +2510,7 @@
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="14">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2517,7 +2526,7 @@
         <v>112</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G25)</f>
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2534,7 +2543,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="14">
         <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2550,7 +2559,7 @@
         <v>113</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G26)</f>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2586,7 +2595,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G27)</f>
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2603,7 +2612,7 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="14">
         <v>5</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2619,7 +2628,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G28)</f>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2658,7 +2667,7 @@
         <v>112</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G29)</f>
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2695,7 +2704,7 @@
         <v>112</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G30)</f>
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2728,7 +2737,7 @@
         <v>112</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G31)</f>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2749,7 +2758,7 @@
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="14">
         <v>54</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2765,7 +2774,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G32)</f>
         <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2795,7 +2804,7 @@
         <v>114</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G33)</f>
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2828,7 +2837,7 @@
         <v>114</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G34)</f>
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -2858,7 +2867,7 @@
         <v>114</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G35)</f>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2895,7 +2904,7 @@
         <v>114</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G36)</f>
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -2928,7 +2937,7 @@
         <v>114</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G37)</f>
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2978,7 +2987,7 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="14">
         <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3015,53 +3024,53 @@
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F40" s="7">
         <f>LEN(G40)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>142</v>
+        <v>231</v>
       </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>112</v>
@@ -3071,34 +3080,34 @@
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="4">
         <v>2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="N41" s="3"/>
     </row>
     <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>112</v>
@@ -3108,34 +3117,30 @@
         <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="4">
-        <v>3</v>
-      </c>
-      <c r="J42" s="4">
-        <v>2</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N42" s="3"/>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>112</v>
@@ -3145,30 +3150,34 @@
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>222</v>
+        <v>127</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
       <c r="K43" s="4" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>64</v>
+        <v>233</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>112</v>
@@ -3178,34 +3187,34 @@
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I44" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>232</v>
+        <v>38</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>233</v>
+        <v>86</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>112</v>
@@ -3215,34 +3224,34 @@
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I45" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>112</v>
@@ -3252,34 +3261,32 @@
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" s="4">
         <v>4</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>145</v>
-      </c>
+      <c r="K46" s="4"/>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>112</v>
@@ -3292,29 +3299,27 @@
         <v>120</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="4">
-        <v>3</v>
-      </c>
-      <c r="J47" s="4">
-        <v>4</v>
-      </c>
-      <c r="K47" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4" t="s">
+        <v>235</v>
+      </c>
       <c r="N47" s="3"/>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>112</v>
@@ -3324,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>130</v>
@@ -3332,40 +3337,44 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F49" s="7">
         <f>LEN(G49)</f>
+        <v>4</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I49" s="4">
         <v>3</v>
       </c>
-      <c r="G49" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="4">
+        <v>3</v>
+      </c>
       <c r="K49" s="4" t="s">
-        <v>236</v>
+        <v>142</v>
       </c>
       <c r="N49" s="3"/>
     </row>
@@ -10060,7 +10069,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A38:N1000">
+  <sortState ref="A2:N1000">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1640,7 +1640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1723,7 @@
         <v>112</v>
       </c>
       <c r="F2" s="7">
-        <f>LEN(G2)</f>
+        <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1756,7 +1756,7 @@
         <v>112</v>
       </c>
       <c r="F3" s="7">
-        <f>LEN(G3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1789,7 +1789,7 @@
         <v>112</v>
       </c>
       <c r="F4" s="7">
-        <f>LEN(G4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1822,7 +1822,7 @@
         <v>112</v>
       </c>
       <c r="F5" s="7">
-        <f>LEN(G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1855,7 +1855,7 @@
         <v>112</v>
       </c>
       <c r="F6" s="7">
-        <f>LEN(G6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1892,7 +1892,7 @@
         <v>113</v>
       </c>
       <c r="F7" s="7">
-        <f>LEN(G7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1929,7 +1929,7 @@
         <v>113</v>
       </c>
       <c r="F8" s="7">
-        <f>LEN(G8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>114</v>
       </c>
       <c r="F9" s="7">
-        <f>LEN(G9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -1988,8 +1988,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2005,7 +2005,7 @@
         <v>114</v>
       </c>
       <c r="F10" s="7">
-        <f>LEN(G10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2041,7 +2041,7 @@
         <v>112</v>
       </c>
       <c r="F11" s="7">
-        <f>LEN(G11)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2078,7 +2078,7 @@
         <v>112</v>
       </c>
       <c r="F12" s="7">
-        <f>LEN(G12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2111,7 +2111,7 @@
         <v>112</v>
       </c>
       <c r="F13" s="7">
-        <f>LEN(G13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2146,7 +2146,7 @@
         <v>112</v>
       </c>
       <c r="F14" s="7">
-        <f>LEN(G14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2179,7 +2179,7 @@
         <v>113</v>
       </c>
       <c r="F15" s="7">
-        <f>LEN(G15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2199,8 +2199,8 @@
       </c>
       <c r="N15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2216,7 +2216,7 @@
         <v>114</v>
       </c>
       <c r="F16" s="7">
-        <f>LEN(G16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2252,7 +2252,7 @@
         <v>112</v>
       </c>
       <c r="F17" s="7">
-        <f>LEN(G17)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2289,7 +2289,7 @@
         <v>112</v>
       </c>
       <c r="F18" s="7">
-        <f>LEN(G18)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2324,7 +2324,7 @@
         <v>113</v>
       </c>
       <c r="F19" s="7">
-        <f>LEN(G19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2357,7 +2357,7 @@
         <v>112</v>
       </c>
       <c r="F20" s="7">
-        <f>LEN(G20)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2390,7 +2390,7 @@
         <v>112</v>
       </c>
       <c r="F21" s="7">
-        <f>LEN(G21)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2423,7 +2423,7 @@
         <v>112</v>
       </c>
       <c r="F22" s="7">
-        <f>LEN(G22)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2439,8 +2439,8 @@
       </c>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>32</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2456,7 +2456,7 @@
         <v>114</v>
       </c>
       <c r="F23" s="7">
-        <f>LEN(G23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2489,7 +2489,7 @@
         <v>112</v>
       </c>
       <c r="F24" s="7">
-        <f>LEN(G24)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2526,7 +2526,7 @@
         <v>112</v>
       </c>
       <c r="F25" s="7">
-        <f>LEN(G25)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2559,7 +2559,7 @@
         <v>113</v>
       </c>
       <c r="F26" s="7">
-        <f>LEN(G26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2578,8 +2578,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>33</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2595,7 +2595,7 @@
         <v>114</v>
       </c>
       <c r="F27" s="7">
-        <f>LEN(G27)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2628,7 +2628,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="7">
-        <f>LEN(G28)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2667,7 +2667,7 @@
         <v>112</v>
       </c>
       <c r="F29" s="7">
-        <f>LEN(G29)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2704,7 +2704,7 @@
         <v>112</v>
       </c>
       <c r="F30" s="7">
-        <f>LEN(G30)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2737,7 +2737,7 @@
         <v>112</v>
       </c>
       <c r="F31" s="7">
-        <f>LEN(G31)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2774,7 +2774,7 @@
         <v>113</v>
       </c>
       <c r="F32" s="7">
-        <f>LEN(G32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2787,8 +2787,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2804,7 +2804,7 @@
         <v>114</v>
       </c>
       <c r="F33" s="7">
-        <f>LEN(G33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2820,8 +2820,8 @@
       </c>
       <c r="N33" s="3"/>
     </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2837,7 +2837,7 @@
         <v>114</v>
       </c>
       <c r="F34" s="7">
-        <f>LEN(G34)</f>
+        <f t="shared" ref="F34:F65" si="1">LEN(G34)</f>
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
@@ -2850,8 +2850,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>9</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2867,7 +2867,7 @@
         <v>114</v>
       </c>
       <c r="F35" s="7">
-        <f>LEN(G35)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -2887,8 +2887,8 @@
       </c>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2904,7 +2904,7 @@
         <v>114</v>
       </c>
       <c r="F36" s="7">
-        <f>LEN(G36)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -2920,8 +2920,8 @@
       </c>
       <c r="N36" s="3"/>
     </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2937,7 +2937,7 @@
         <v>114</v>
       </c>
       <c r="F37" s="7">
-        <f>LEN(G37)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2970,7 +2970,7 @@
         <v>115</v>
       </c>
       <c r="F38" s="7">
-        <f>LEN(G38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>95</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>115</v>
       </c>
       <c r="F39" s="7">
-        <f>LEN(G39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -3039,7 +3039,7 @@
         <v>112</v>
       </c>
       <c r="F40" s="7">
-        <f>LEN(G40)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -3076,7 +3076,7 @@
         <v>112</v>
       </c>
       <c r="F41" s="7">
-        <f>LEN(G41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3113,7 +3113,7 @@
         <v>112</v>
       </c>
       <c r="F42" s="7">
-        <f>LEN(G42)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3146,7 +3146,7 @@
         <v>112</v>
       </c>
       <c r="F43" s="7">
-        <f>LEN(G43)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3183,7 +3183,7 @@
         <v>112</v>
       </c>
       <c r="F44" s="7">
-        <f>LEN(G44)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3220,7 +3220,7 @@
         <v>112</v>
       </c>
       <c r="F45" s="7">
-        <f>LEN(G45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3257,7 +3257,7 @@
         <v>112</v>
       </c>
       <c r="F46" s="7">
-        <f>LEN(G46)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -3292,7 +3292,7 @@
         <v>112</v>
       </c>
       <c r="F47" s="7">
-        <f>LEN(G47)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -3325,7 +3325,7 @@
         <v>112</v>
       </c>
       <c r="F48" s="7">
-        <f>LEN(G48)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -3358,7 +3358,7 @@
         <v>112</v>
       </c>
       <c r="F49" s="7">
-        <f>LEN(G49)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -3378,8 +3378,8 @@
       </c>
       <c r="N49" s="3"/>
     </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>15</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3395,7 +3395,7 @@
         <v>114</v>
       </c>
       <c r="F50" s="7">
-        <f>LEN(G50)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -3415,7 +3415,7 @@
       </c>
       <c r="N50" s="3"/>
     </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>114</v>
       </c>
       <c r="F51" s="7">
-        <f>LEN(G51)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3452,7 +3452,7 @@
       </c>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>78</v>
       </c>
@@ -3469,7 +3469,7 @@
         <v>114</v>
       </c>
       <c r="F52" s="7">
-        <f>LEN(G52)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -3505,7 +3505,7 @@
         <v>113</v>
       </c>
       <c r="F53" s="7">
-        <f>LEN(G53)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G53" s="12" t="s">
@@ -3540,7 +3540,7 @@
         <v>113</v>
       </c>
       <c r="F54" s="7">
-        <f>LEN(G54)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G54" s="6" t="s">
@@ -3570,7 +3570,7 @@
         <v>113</v>
       </c>
       <c r="F55" s="7">
-        <f>LEN(G55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -3600,7 +3600,7 @@
         <v>113</v>
       </c>
       <c r="F56" s="7">
-        <f>LEN(G56)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G56" s="6" t="s">
@@ -3635,7 +3635,7 @@
         <v>113</v>
       </c>
       <c r="F57" s="7">
-        <f>LEN(G57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -3671,7 +3671,7 @@
         <v>113</v>
       </c>
       <c r="F58" s="7">
-        <f>LEN(G58)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -3704,7 +3704,7 @@
         <v>113</v>
       </c>
       <c r="F59" s="7">
-        <f>LEN(G59)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
@@ -3740,7 +3740,7 @@
         <v>113</v>
       </c>
       <c r="F60" s="7">
-        <f>LEN(G60)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -3776,7 +3776,7 @@
         <v>113</v>
       </c>
       <c r="F61" s="7">
-        <f>LEN(G61)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -3806,7 +3806,7 @@
         <v>113</v>
       </c>
       <c r="F62" s="7">
-        <f>LEN(G62)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -3836,7 +3836,7 @@
         <v>113</v>
       </c>
       <c r="F63" s="7">
-        <f>LEN(G63)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -3866,7 +3866,7 @@
         <v>113</v>
       </c>
       <c r="F64" s="7">
-        <f>LEN(G64)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -3903,7 +3903,7 @@
         <v>113</v>
       </c>
       <c r="F65" s="7">
-        <f>LEN(G65)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G65" s="6" t="s">
@@ -3939,7 +3939,7 @@
         <v>113</v>
       </c>
       <c r="F66" s="7">
-        <f>LEN(G66)</f>
+        <f t="shared" ref="F66:F97" si="2">LEN(G66)</f>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -3975,7 +3975,7 @@
         <v>113</v>
       </c>
       <c r="F67" s="7">
-        <f>LEN(G67)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
@@ -4011,7 +4011,7 @@
         <v>113</v>
       </c>
       <c r="F68" s="7">
-        <f>LEN(G68)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G68" s="6" t="s">
@@ -4041,7 +4041,7 @@
         <v>113</v>
       </c>
       <c r="F69" s="7">
-        <f>LEN(G69)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
@@ -4077,7 +4077,7 @@
         <v>113</v>
       </c>
       <c r="F70" s="7">
-        <f>LEN(G70)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
@@ -4113,7 +4113,7 @@
         <v>113</v>
       </c>
       <c r="F71" s="7">
-        <f>LEN(G71)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -4149,7 +4149,7 @@
         <v>113</v>
       </c>
       <c r="F72" s="7">
-        <f>LEN(G72)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
@@ -4185,7 +4185,7 @@
         <v>113</v>
       </c>
       <c r="F73" s="7">
-        <f>LEN(G73)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G73" s="6" t="s">
@@ -4215,7 +4215,7 @@
         <v>113</v>
       </c>
       <c r="F74" s="7">
-        <f>LEN(G74)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G74" s="6" t="s">
@@ -4252,7 +4252,7 @@
         <v>113</v>
       </c>
       <c r="F75" s="7">
-        <f>LEN(G75)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -4271,7 +4271,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>79</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>114</v>
       </c>
       <c r="F76" s="7">
-        <f>LEN(G76)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -4301,7 +4301,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>80</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>114</v>
       </c>
       <c r="F77" s="7">
-        <f>LEN(G77)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G77" s="6" t="s">
@@ -4331,7 +4331,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>81</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>114</v>
       </c>
       <c r="F78" s="7">
-        <f>LEN(G78)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -4361,7 +4361,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>83</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>114</v>
       </c>
       <c r="F79" s="7">
-        <f>LEN(G79)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -4391,7 +4391,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>36</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>114</v>
       </c>
       <c r="F80" s="7">
-        <f>LEN(G80)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
@@ -4424,7 +4424,7 @@
       </c>
       <c r="N80" s="3"/>
     </row>
-    <row r="81" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>50</v>
       </c>
@@ -4441,7 +4441,7 @@
         <v>114</v>
       </c>
       <c r="F81" s="7">
-        <f>LEN(G81)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="N81" s="3"/>
     </row>
-    <row r="82" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>85</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>114</v>
       </c>
       <c r="F82" s="7">
-        <f>LEN(G82)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
@@ -4497,7 +4497,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>114</v>
       </c>
       <c r="F83" s="7">
-        <f>LEN(G83)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -4527,7 +4527,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>86</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>114</v>
       </c>
       <c r="F84" s="7">
-        <f>LEN(G84)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
@@ -4563,7 +4563,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>87</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>114</v>
       </c>
       <c r="F85" s="7">
-        <f>LEN(G85)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -4599,7 +4599,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>88</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>114</v>
       </c>
       <c r="F86" s="7">
-        <f>LEN(G86)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
@@ -4629,7 +4629,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>89</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>114</v>
       </c>
       <c r="F87" s="7">
-        <f>LEN(G87)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -4659,7 +4659,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>90</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>114</v>
       </c>
       <c r="F88" s="7">
-        <f>LEN(G88)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G88" s="6" t="s">
@@ -4689,7 +4689,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>22</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>114</v>
       </c>
       <c r="F89" s="7">
-        <f>LEN(G89)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G89" s="6" t="s">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="N89" s="3"/>
     </row>
-    <row r="90" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>84</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>114</v>
       </c>
       <c r="F90" s="7">
-        <f>LEN(G90)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G90" s="6" t="s">
@@ -4762,7 +4762,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>91</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>114</v>
       </c>
       <c r="F91" s="7">
-        <f>LEN(G91)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
@@ -4792,7 +4792,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>92</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>114</v>
       </c>
       <c r="F92" s="7">
-        <f>LEN(G92)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G92" s="6" t="s">
@@ -4822,7 +4822,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>93</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>114</v>
       </c>
       <c r="F93" s="7">
-        <f>LEN(G93)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G93" s="6" t="s">
@@ -4852,7 +4852,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>114</v>
       </c>
       <c r="F94" s="7">
-        <f>LEN(G94)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
@@ -4888,7 +4888,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>26</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>114</v>
       </c>
       <c r="F95" s="7">
-        <f>LEN(G95)</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G95" s="6" t="s">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="N95" s="3"/>
     </row>
-    <row r="96" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>115</v>
       </c>
       <c r="F96" s="7">
-        <f>LEN(G96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G96" s="6" t="s">
@@ -4961,7 +4961,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -4978,7 +4978,7 @@
         <v>115</v>
       </c>
       <c r="F97" s="7">
-        <f>LEN(G97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -4997,7 +4997,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>115</v>
       </c>
       <c r="F98" s="7">
-        <f>LEN(G98)</f>
+        <f t="shared" ref="F98:F129" si="3">LEN(G98)</f>
         <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -5033,7 +5033,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>99</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>115</v>
       </c>
       <c r="F99" s="7">
-        <f>LEN(G99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -5063,7 +5063,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>100</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>115</v>
       </c>
       <c r="F100" s="7">
-        <f>LEN(G100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G100" s="6" t="s">
@@ -5093,7 +5093,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>101</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>115</v>
       </c>
       <c r="F101" s="7">
-        <f>LEN(G101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G101" s="6" t="s">
@@ -5123,7 +5123,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>102</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>115</v>
       </c>
       <c r="F102" s="7">
-        <f>LEN(G102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G102" s="6" t="s">
@@ -5153,7 +5153,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>38</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>115</v>
       </c>
       <c r="F103" s="7">
-        <f>LEN(G103)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="N103" s="3"/>
     </row>
-    <row r="104" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>115</v>
       </c>
       <c r="F104" s="7">
-        <f>LEN(G104)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G104" s="6" t="s">
@@ -5219,7 +5219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>115</v>
       </c>
       <c r="F105" s="7">
-        <f>LEN(G105)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -5255,7 +5255,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>115</v>
       </c>
       <c r="F106" s="7">
-        <f>LEN(G106)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G106" s="6" t="s">
@@ -5291,7 +5291,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>115</v>
       </c>
       <c r="F107" s="7">
-        <f>LEN(G107)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -5324,7 +5324,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>115</v>
       </c>
       <c r="F108" s="7">
-        <f>LEN(G108)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G108" s="6" t="s">
@@ -5351,7 +5351,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>115</v>
       </c>
       <c r="F109" s="7">
-        <f>LEN(G109)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G109" s="6" t="s">
@@ -5378,7 +5378,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>115</v>
       </c>
       <c r="F110" s="7">
-        <f>LEN(G110)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
@@ -5405,7 +5405,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>115</v>
       </c>
       <c r="F111" s="7">
-        <f>LEN(G111)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G111" s="6" t="s">
@@ -5438,7 +5438,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>115</v>
       </c>
       <c r="F112" s="7">
-        <f>LEN(G112)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
@@ -5465,7 +5465,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>115</v>
       </c>
       <c r="F113" s="7">
-        <f>LEN(G113)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G113" s="6" t="s">
@@ -5498,7 +5498,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>115</v>
       </c>
       <c r="F114" s="7">
-        <f>LEN(G114)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G114" s="6" t="s">
@@ -5531,7 +5531,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5545,7 +5545,7 @@
         <v>115</v>
       </c>
       <c r="F115" s="7">
-        <f>LEN(G115)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G115" s="6" t="s">
@@ -5564,7 +5564,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>115</v>
       </c>
       <c r="F116" s="7">
-        <f>LEN(G116)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G116" s="6" t="s">
@@ -5591,7 +5591,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>115</v>
       </c>
       <c r="F117" s="7">
-        <f>LEN(G117)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
@@ -5618,7 +5618,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>115</v>
       </c>
       <c r="F118" s="7">
-        <f>LEN(G118)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
@@ -10065,7 +10065,7 @@
   <autoFilter ref="B1:J1000">
     <filterColumn colId="3">
       <filters blank="1">
-        <filter val="White"/>
+        <filter val="Red"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Numeric" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$B$1:$J$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$E$1:$K$1000</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="408">
   <si>
     <t>#</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Counter Spell</t>
   </si>
   <si>
-    <t>Spirit Leech</t>
-  </si>
-  <si>
     <t>Energy Torrent</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
     <t>* 位面行者: 可以选择任意颜色卡槽的生物进行攻击</t>
   </si>
   <si>
-    <t>* 目标生物本回合可以攻击2次</t>
-  </si>
-  <si>
     <t>自然虚弱</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>巨化术</t>
   </si>
   <si>
-    <t>* 目标生物获得+2/+2</t>
-  </si>
-  <si>
     <t>远古树精</t>
   </si>
   <si>
@@ -588,9 +579,6 @@
     <t>石化变色龙</t>
   </si>
   <si>
-    <t>* 在任何卡槽均可获得元素协调效果 * 可以攻击任意颜色卡槽的生物</t>
-  </si>
-  <si>
     <t>野性狂躁</t>
   </si>
   <si>
@@ -636,15 +624,9 @@
     <t>* 退回: 目标卡牌回到其拥有者手牌</t>
   </si>
   <si>
-    <t>* 目标生物无法攻击绿色卡槽的生物, 直到其回合结束</t>
-  </si>
-  <si>
     <t>森林迷失</t>
   </si>
   <si>
-    <t>* 目标生物获得-1/-0, 但是在战斗时不会受到伤害</t>
-  </si>
-  <si>
     <t>* 移除目标生物身上1个附魔效果, 并对目标生物造成1点伤害</t>
   </si>
   <si>
@@ -693,9 +675,6 @@
     <t>* 目标生物对其拥有者造成一次攻击</t>
   </si>
   <si>
-    <t>* 将你的一个生物置于墓地, 目标生物-X/-Y, 数值等于你的生物的力量/防御.</t>
-  </si>
-  <si>
     <t>* 寒冰山猫上场时, 冻结与其所在卡槽颜色相同的所有敌方生物, 直到该玩家的回合结束阶段.</t>
   </si>
   <si>
@@ -750,9 +729,6 @@
     <t>* 在回合开始阶段，对附魔生物的拥有者造成1点伤害.</t>
   </si>
   <si>
-    <t>* 附魔生物攻击时, 对自己和目标元素师的所有生物造成2点伤害 * 附魔生物死亡时, 对所有生物造成1点伤害</t>
-  </si>
-  <si>
     <t>* 上场时, 对目标生物造成1点伤害.</t>
   </si>
   <si>
@@ -957,9 +933,6 @@
     <t>空气具象</t>
   </si>
   <si>
-    <t>* 目标生物所在卡槽被视为白色, 然后获得-0/-1</t>
-  </si>
-  <si>
     <t>虚幻武士</t>
   </si>
   <si>
@@ -993,9 +966,6 @@
     <t>空气震裂</t>
   </si>
   <si>
-    <t>* 目标生物被冻结, 直到其回合结束 * 目标生物无法防御, 直到你的回合结束</t>
-  </si>
-  <si>
     <t>Convert</t>
   </si>
   <si>
@@ -1137,9 +1107,6 @@
     <t>妄想之境</t>
   </si>
   <si>
-    <t>* 如果附魔的生物因战斗而死亡, 对与之发生战斗的生物之拥有者造成伤害, 其值为与附魔之生物发生战斗的生物之力量值</t>
-  </si>
-  <si>
     <t>气旋舞者</t>
   </si>
   <si>
@@ -1170,9 +1137,6 @@
     <t>发现弱点</t>
   </si>
   <si>
-    <t>* 目标生物战斗时, 会额外造成一次攻击伤害</t>
-  </si>
-  <si>
     <t>快银战士</t>
   </si>
   <si>
@@ -1210,6 +1174,75 @@
   </si>
   <si>
     <t>Sky Wall</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Death</t>
+  </si>
+  <si>
+    <t>Passive</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>* 目标生物可以攻击2次, 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 目标生物获得+3/+3, 直到回合结束.</t>
+  </si>
+  <si>
+    <t>* 目标生物所在卡槽被视为白色, 然后获得-0/-1, 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 在任何卡槽均可获得元素协调效果 * 免疫嘲讽</t>
+  </si>
+  <si>
+    <t>* 附魔生物攻击时, 对自己的和目标元素师的所有生物造成2点伤害 * 附魔生物死亡时, 对所有生物造成1点伤害</t>
+  </si>
+  <si>
+    <t>* 如果附魔的生物因战斗而死亡, 对与之发生战斗的生物之拥有者造成伤害, 其值为与附魔之生物发生战斗的生物之力量值, 妄想之境重新附魔到你的另外一个生物</t>
+  </si>
+  <si>
+    <t>* 目标生物战斗时, 会额外造成一次攻击伤害, 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 目标生物获得-1/-0, 但是在战斗时不会受到伤害, 直到回合结束</t>
+  </si>
+  <si>
+    <t>Unstable Planes</t>
+  </si>
+  <si>
+    <t>* 牺牲一个你控制的生物, 目标生物-X/-Y, 数值等于你的生物的力量/防御. 直到回合结束</t>
+  </si>
+  <si>
+    <t>Cheat Attack</t>
+  </si>
+  <si>
+    <t>Weakness Exposure</t>
+  </si>
+  <si>
+    <t>Air Implosion</t>
+  </si>
+  <si>
+    <t>Air Shield</t>
+  </si>
+  <si>
+    <t>* 目标生物无法攻击绿色卡槽的生物, 直到目标生物的回合结束</t>
+  </si>
+  <si>
+    <t>* 目标生物被冻结, 直到目标生物的回合结束 * 目标生物无法防御, 直到回合结束</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1284,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1276,6 +1309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1289,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1330,6 +1369,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1636,11 +1678,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:N1000"/>
+  <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
+      <selection pane="bottomLeft" activeCell="L122" sqref="L122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1655,14 +1697,15 @@
     <col min="8" max="8" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="136.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="156.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1694,19 +1737,22 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>4</v>
       </c>
@@ -1720,26 +1766,29 @@
         <v>67</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
+        <f>LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>40</v>
       </c>
@@ -1753,26 +1802,29 @@
         <v>101</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43</v>
       </c>
@@ -1783,29 +1835,32 @@
         <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G4)</f>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>46</v>
       </c>
@@ -1813,32 +1868,35 @@
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G5)</f>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="O5" s="3"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1852,17 +1910,17 @@
         <v>65</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G6)</f>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="4">
         <v>0</v>
@@ -1871,11 +1929,14 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1889,17 +1950,17 @@
         <v>69</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G7)</f>
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
@@ -1908,11 +1969,14 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1926,17 +1990,17 @@
         <v>70</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G8)</f>
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
@@ -1945,11 +2009,14 @@
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1963,17 +2030,17 @@
         <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1982,13 +2049,16 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>75</v>
       </c>
@@ -1996,23 +2066,23 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
@@ -2021,10 +2091,13 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>23</v>
       </c>
@@ -2038,17 +2111,17 @@
         <v>85</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G11)</f>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -2057,11 +2130,14 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>28</v>
       </c>
@@ -2075,26 +2151,29 @@
         <v>90</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G12)</f>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>29</v>
       </c>
@@ -2108,28 +2187,31 @@
         <v>91</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G13)</f>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>30</v>
       </c>
@@ -2143,26 +2225,29 @@
         <v>92</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G14)</f>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2176,17 +2261,17 @@
         <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G15)</f>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
@@ -2195,11 +2280,14 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>76</v>
       </c>
@@ -2207,23 +2295,23 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G16)</f>
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
@@ -2232,10 +2320,13 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2249,17 +2340,17 @@
         <v>76</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G17)</f>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -2268,11 +2359,14 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2286,17 +2380,17 @@
         <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G18)</f>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="4">
         <v>1</v>
@@ -2304,10 +2398,13 @@
       <c r="J18" s="4">
         <v>3</v>
       </c>
-      <c r="K18" s="4"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14">
         <v>52</v>
       </c>
@@ -2315,23 +2412,23 @@
         <v>15</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G19)</f>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
@@ -2339,8 +2436,11 @@
       <c r="J19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>39</v>
       </c>
@@ -2354,26 +2454,29 @@
         <v>100</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G20)</f>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41</v>
       </c>
@@ -2387,92 +2490,101 @@
         <v>102</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G21)</f>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>400</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G22)</f>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>LEN(G23)</f>
+        <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L23" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>11</v>
       </c>
@@ -2486,17 +2598,17 @@
         <v>74</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G24)</f>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
@@ -2505,44 +2617,50 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+        <v>387</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="7">
+        <f>LEN(G25)</f>
         <v>3</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
       <c r="G25" s="6" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>53</v>
       </c>
@@ -2550,23 +2668,23 @@
         <v>15</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G26)</f>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" s="2">
         <v>0</v>
@@ -2575,43 +2693,49 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
-        <v>33</v>
+        <v>387</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>44</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>LEN(G27)</f>
+        <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
       <c r="K27" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14">
         <v>5</v>
       </c>
@@ -2625,17 +2749,17 @@
         <v>68</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G28)</f>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -2644,13 +2768,16 @@
         <v>5</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -2664,17 +2791,17 @@
         <v>73</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G29)</f>
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I29" s="4">
         <v>1</v>
@@ -2683,16 +2810,19 @@
         <v>1</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>12</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -2701,26 +2831,29 @@
         <v>75</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G30)</f>
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>17</v>
       </c>
@@ -2734,17 +2867,17 @@
         <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G31)</f>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I31" s="4">
         <v>3</v>
@@ -2753,104 +2886,121 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14">
+        <v>386</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="7">
+        <f>LEN(G32)</f>
+        <v>3</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>54</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
+      <c r="C33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="7">
+        <f>LEN(G33)</f>
         <v>1</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
-        <v>51</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
+      <c r="G33" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>55</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F34" s="7">
+        <f>LEN(G34)</f>
         <v>1</v>
       </c>
-      <c r="G33" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
-        <v>77</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" ref="F34:F65" si="1">LEN(G34)</f>
-        <v>1</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>9</v>
       </c>
@@ -2864,17 +3014,17 @@
         <v>72</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G35)</f>
         <v>2</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I35" s="4">
         <v>1</v>
@@ -2883,44 +3033,47 @@
         <v>1</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>56</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>114</v>
+      <c r="C36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>LEN(G36)</f>
+        <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>35</v>
       </c>
@@ -2934,59 +3087,62 @@
         <v>97</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G37)</f>
         <v>2</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
-      <c r="K37" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>115</v>
+      <c r="C38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f>LEN(G38)</f>
+        <v>2</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>95</v>
       </c>
@@ -2994,23 +3150,23 @@
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G39)</f>
         <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
@@ -3019,10 +3175,13 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>21</v>
       </c>
@@ -3036,17 +3195,17 @@
         <v>83</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G40)</f>
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
@@ -3055,35 +3214,38 @@
         <v>2</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G41)</f>
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I41" s="4">
         <v>3</v>
@@ -3092,49 +3254,52 @@
         <v>2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>48</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>LEN(G42)</f>
+        <v>2</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>17</v>
@@ -3143,17 +3308,17 @@
         <v>64</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G43)</f>
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I43" s="4">
         <v>0</v>
@@ -3162,35 +3327,38 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G44)</f>
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="4">
         <v>3</v>
@@ -3199,16 +3367,19 @@
         <v>3</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>38</v>
@@ -3217,17 +3388,17 @@
         <v>86</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G45)</f>
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I45" s="4">
         <v>2</v>
@@ -3236,11 +3407,14 @@
         <v>4</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>27</v>
       </c>
@@ -3254,17 +3428,17 @@
         <v>89</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G46)</f>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I46" s="4">
         <v>3</v>
@@ -3272,81 +3446,84 @@
       <c r="J46" s="4">
         <v>4</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K46" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>44</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G47)</f>
         <v>3</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>LEN(G48)</f>
+        <v>4</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>34</v>
@@ -3355,17 +3532,17 @@
         <v>82</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G49)</f>
         <v>4</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I49" s="4">
         <v>3</v>
@@ -3374,11 +3551,14 @@
         <v>3</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>15</v>
       </c>
@@ -3386,23 +3566,23 @@
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G50)</f>
         <v>2</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I50" s="4">
         <v>2</v>
@@ -3411,11 +3591,14 @@
         <v>2</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>388</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -3426,20 +3609,20 @@
         <v>61</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G51)</f>
         <v>2</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I51" s="4">
         <v>2</v>
@@ -3448,11 +3631,14 @@
         <v>2</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>78</v>
       </c>
@@ -3460,23 +3646,23 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G52)</f>
         <v>2</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I52" s="2">
         <v>2</v>
@@ -3485,75 +3671,85 @@
         <v>1</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="13">
-        <v>55</v>
-      </c>
-      <c r="B53" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
+        <v>32</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="E53" s="11" t="s">
+      <c r="C53" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G53)</f>
         <v>1</v>
       </c>
-      <c r="G53" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="H53" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>56</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="G53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
+        <v>33</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="C54" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G54)</f>
         <v>1</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>57</v>
       </c>
@@ -3561,29 +3757,32 @@
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G55)</f>
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>31</v>
       </c>
@@ -3597,28 +3796,31 @@
         <v>93</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G56)</f>
         <v>2</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="L56" s="2"/>
+      <c r="K56" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>150</v>
+      </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N56" s="2"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>58</v>
       </c>
@@ -3626,23 +3828,23 @@
         <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G57)</f>
         <v>2</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I57" s="2">
         <v>2</v>
@@ -3651,10 +3853,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>59</v>
       </c>
@@ -3662,23 +3867,23 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G58)</f>
         <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I58" s="2">
         <v>2</v>
@@ -3686,8 +3891,11 @@
       <c r="J58" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K58" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>60</v>
       </c>
@@ -3695,23 +3903,23 @@
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I59" s="2">
         <v>1</v>
@@ -3720,10 +3928,13 @@
         <v>3</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>61</v>
       </c>
@@ -3731,23 +3942,23 @@
         <v>15</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G60)</f>
         <v>2</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I60" s="2">
         <v>2</v>
@@ -3756,40 +3967,49 @@
         <v>2</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>62</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="E61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
+        <v>51</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>LEN(G61)</f>
+        <v>1</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>63</v>
       </c>
@@ -3797,59 +4017,65 @@
         <v>16</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G62)</f>
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
+        <v>77</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>174</v>
+        <v>242</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>LEN(G63)</f>
+        <v>1</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>18</v>
       </c>
@@ -3863,17 +4089,17 @@
         <v>81</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G64)</f>
         <v>3</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I64" s="4">
         <v>1</v>
@@ -3882,11 +4108,14 @@
         <v>2</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>65</v>
       </c>
@@ -3894,23 +4123,23 @@
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G65)</f>
         <v>3</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I65" s="2">
         <v>2</v>
@@ -3919,10 +4148,13 @@
         <v>2</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -3930,23 +4162,23 @@
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" ref="F66:F97" si="2">LEN(G66)</f>
+        <f>LEN(G66)</f>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I66" s="2">
         <v>3</v>
@@ -3955,10 +4187,13 @@
         <v>4</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>67</v>
       </c>
@@ -3966,23 +4201,23 @@
         <v>16</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G67)</f>
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I67" s="2">
         <v>3</v>
@@ -3991,40 +4226,49 @@
         <v>2</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E68" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
+        <v>34</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>LEN(G68)</f>
+        <v>2</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L68" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>69</v>
       </c>
@@ -4032,23 +4276,23 @@
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G69)</f>
         <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I69" s="2">
         <v>4</v>
@@ -4057,10 +4301,13 @@
         <v>5</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>70</v>
       </c>
@@ -4068,23 +4315,23 @@
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G70)</f>
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I70" s="2">
         <v>4</v>
@@ -4093,10 +4340,13 @@
         <v>4</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>71</v>
       </c>
@@ -4104,23 +4354,23 @@
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G71)</f>
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I71" s="2">
         <v>1</v>
@@ -4129,10 +4379,13 @@
         <v>6</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>72</v>
       </c>
@@ -4140,23 +4393,23 @@
         <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G72)</f>
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I72" s="2">
         <v>5</v>
@@ -4165,40 +4418,46 @@
         <v>4</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>LEN(G73)</f>
+        <v>2</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>25</v>
       </c>
@@ -4212,17 +4471,17 @@
         <v>87</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G74)</f>
         <v>5</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I74" s="4">
         <v>5</v>
@@ -4231,11 +4490,14 @@
         <v>5</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4243,23 +4505,23 @@
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G75)</f>
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I75" s="2">
         <v>5</v>
@@ -4268,40 +4530,46 @@
         <v>5</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G76)</f>
         <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K76" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>80</v>
       </c>
@@ -4309,94 +4577,103 @@
         <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F77" s="7">
+        <f>LEN(G77)</f>
+        <v>2</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>83</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F77" s="7">
-        <f t="shared" si="2"/>
+      <c r="D78" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F78" s="7">
+        <f>LEN(G78)</f>
         <v>2</v>
       </c>
-      <c r="G77" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="G78" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L78" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
-        <v>81</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F78" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G78" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>LEN(G79)</f>
+        <v>3</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>124</v>
+        <v>255</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>50</v>
@@ -4405,50 +4682,53 @@
         <v>98</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G80)</f>
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="N80" s="3"/>
-    </row>
-    <row r="81" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K80" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="O80" s="3"/>
+    </row>
+    <row r="81" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G81)</f>
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H81" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I81" s="4">
         <v>2</v>
@@ -4457,11 +4737,14 @@
         <v>3</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>85</v>
       </c>
@@ -4469,23 +4752,23 @@
         <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G82)</f>
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I82" s="2">
         <v>1</v>
@@ -4494,40 +4777,46 @@
         <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G83)</f>
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K83" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L83" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>86</v>
       </c>
@@ -4535,23 +4824,23 @@
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G84)</f>
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I84" s="2">
         <v>4</v>
@@ -4560,10 +4849,13 @@
         <v>4</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>87</v>
       </c>
@@ -4571,23 +4863,23 @@
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G85)</f>
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I85" s="2">
         <v>4</v>
@@ -4596,100 +4888,112 @@
         <v>2</v>
       </c>
       <c r="K85" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L85" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>89</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" s="7">
+        <f>LEN(G86)</f>
+        <v>3</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>90</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="7">
+        <f>LEN(G87)</f>
+        <v>3</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>91</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="7">
+        <f>LEN(G88)</f>
+        <v>4</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L88" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
-        <v>88</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F86" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
-        <v>89</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
-        <v>90</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F88" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G88" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>22</v>
       </c>
@@ -4703,17 +5007,17 @@
         <v>84</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G89)</f>
         <v>4</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
@@ -4722,35 +5026,38 @@
         <v>4</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G90)</f>
         <v>4</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I90" s="2">
         <v>5</v>
@@ -4759,124 +5066,139 @@
         <v>3</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G91)</f>
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="7">
+        <f>LEN(G92)</f>
+        <v>4</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>37</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E93" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G92" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
-        <v>93</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F93" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>LEN(G93)</f>
+        <v>1</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>268</v>
+        <v>14</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="L93" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G94)</f>
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I94" s="2">
         <v>3</v>
@@ -4885,10 +5207,13 @@
         <v>4</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>26</v>
       </c>
@@ -4902,17 +5227,17 @@
         <v>88</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G95)</f>
         <v>5</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I95" s="4">
         <v>5</v>
@@ -4921,11 +5246,14 @@
         <v>5</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L95" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -4933,23 +5261,23 @@
         <v>15</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G96)</f>
         <v>1</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
@@ -4958,10 +5286,13 @@
         <v>1</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -4969,23 +5300,23 @@
         <v>16</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G97)</f>
         <v>1</v>
       </c>
       <c r="G97" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
@@ -4994,10 +5325,13 @@
         <v>1</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -5005,23 +5339,23 @@
         <v>15</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" ref="F98:F129" si="3">LEN(G98)</f>
+        <f>LEN(G98)</f>
         <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I98" s="2">
         <v>2</v>
@@ -5030,10 +5364,13 @@
         <v>1</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>99</v>
       </c>
@@ -5041,29 +5378,32 @@
         <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G99)</f>
         <v>1</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>100</v>
       </c>
@@ -5071,29 +5411,32 @@
         <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G100)</f>
         <v>1</v>
       </c>
       <c r="G100" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>101</v>
       </c>
@@ -5101,29 +5444,32 @@
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G101)</f>
         <v>1</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>102</v>
       </c>
@@ -5131,29 +5477,32 @@
         <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G102)</f>
         <v>1</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>14</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>38</v>
       </c>
@@ -5164,29 +5513,32 @@
         <v>52</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G103)</f>
         <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="N103" s="3"/>
-    </row>
-    <row r="104" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L103" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O103" s="3"/>
+    </row>
+    <row r="104" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5194,23 +5546,23 @@
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G104)</f>
         <v>2</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I104" s="2">
         <v>0</v>
@@ -5218,8 +5570,11 @@
       <c r="J104" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K104" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5227,23 +5582,23 @@
         <v>15</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G105)</f>
         <v>2</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I105" s="2">
         <v>1</v>
@@ -5252,10 +5607,13 @@
         <v>2</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5263,23 +5621,23 @@
         <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G106)</f>
         <v>2</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I106" s="2">
         <v>0</v>
@@ -5288,10 +5646,13 @@
         <v>3</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5299,20 +5660,20 @@
         <v>16</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G107)</f>
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I107" s="2">
         <v>2</v>
@@ -5321,10 +5682,13 @@
         <v>2</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5332,26 +5696,32 @@
         <v>15</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>321</v>
+        <v>312</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G108)</f>
         <v>2</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5359,26 +5729,32 @@
         <v>15</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>323</v>
+        <v>314</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>404</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G109)</f>
         <v>2</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5386,26 +5762,32 @@
         <v>15</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>366</v>
+        <v>356</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>402</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G110)</f>
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5413,20 +5795,20 @@
         <v>15</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G111)</f>
         <v>3</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I111" s="2">
         <v>3</v>
@@ -5435,10 +5817,13 @@
         <v>2</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5446,26 +5831,29 @@
         <v>14</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F112" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G112)</f>
         <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5473,20 +5861,20 @@
         <v>16</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F113" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G113)</f>
         <v>3</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I113" s="2">
         <v>1</v>
@@ -5495,10 +5883,13 @@
         <v>5</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5506,20 +5897,20 @@
         <v>15</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F114" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G114)</f>
         <v>3</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I114" s="2">
         <v>4</v>
@@ -5528,10 +5919,13 @@
         <v>1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5539,20 +5933,20 @@
         <v>15</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F115" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G115)</f>
         <v>3</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I115" s="2">
         <v>2</v>
@@ -5561,10 +5955,13 @@
         <v>2</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -5572,26 +5969,29 @@
         <v>15</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F116" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G116)</f>
         <v>3</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -5599,26 +5999,32 @@
         <v>14</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>382</v>
+        <v>371</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>403</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F117" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G117)</f>
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -5626,20 +6032,20 @@
         <v>16</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F118" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G118)</f>
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I118" s="2">
         <v>3</v>
@@ -5648,55 +6054,58 @@
         <v>3</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -10062,15 +10471,15 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:J1000">
-    <filterColumn colId="3">
+  <autoFilter ref="E1:K1000">
+    <filterColumn colId="6">
       <filters blank="1">
-        <filter val="Red"/>
+        <filter val="Summon"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:N1000">
-    <sortCondition ref="F1"/>
+  <sortState ref="A2:O1000">
+    <sortCondition ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10115,16 +10524,16 @@
         <v>5</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -10247,7 +10656,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B8" s="8">
         <v>6</v>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1681,8 +1681,8 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L122" sqref="L122"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1769,7 @@
         <v>111</v>
       </c>
       <c r="F2" s="7">
-        <f>LEN(G2)</f>
+        <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1805,7 +1805,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="7">
-        <f>LEN(G3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1841,7 +1841,7 @@
         <v>111</v>
       </c>
       <c r="F4" s="7">
-        <f>LEN(G4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1877,7 +1877,7 @@
         <v>111</v>
       </c>
       <c r="F5" s="7">
-        <f>LEN(G5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1913,7 +1913,7 @@
         <v>111</v>
       </c>
       <c r="F6" s="7">
-        <f>LEN(G6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1953,7 +1953,7 @@
         <v>112</v>
       </c>
       <c r="F7" s="7">
-        <f>LEN(G7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1993,7 +1993,7 @@
         <v>112</v>
       </c>
       <c r="F8" s="7">
-        <f>LEN(G8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>75</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>76</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>10</v>
       </c>
@@ -3002,43 +3002,39 @@
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F35" s="7">
         <f>LEN(G35)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="4">
-        <v>1</v>
-      </c>
-      <c r="J35" s="4">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="4" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="O35" s="3"/>
+        <v>232</v>
+      </c>
+      <c r="O35" s="4"/>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -3073,39 +3069,39 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F37" s="7">
         <f>LEN(G37)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O37" s="3"/>
     </row>
@@ -3221,7 +3217,7 @@
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>47</v>
       </c>
@@ -3558,100 +3554,89 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>231</v>
+        <v>63</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F50" s="7">
         <f>LEN(G50)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I50" s="4">
-        <v>2</v>
-      </c>
-      <c r="J50" s="4">
-        <v>2</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="4" t="s">
-        <v>388</v>
+        <v>129</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O50" s="3"/>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E51" s="4" t="s">
+      <c r="A51" s="14">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F51" s="7">
         <f>LEN(G51)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I51" s="4">
-        <v>2</v>
-      </c>
-      <c r="J51" s="4">
-        <v>2</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="L51" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>78</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
+        <v>9</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F52" s="7">
@@ -3664,88 +3649,93 @@
       <c r="H52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I52" s="2">
-        <v>2</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="I52" s="4">
         <v>1</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>1</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F53" s="7">
         <f>LEN(G53)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="O53" s="4"/>
-    </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>47</v>
+        <v>231</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F54" s="7">
         <f>LEN(G54)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="I54" s="4">
+        <v>2</v>
+      </c>
+      <c r="J54" s="4">
+        <v>2</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>388</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="O54" s="3"/>
     </row>
@@ -3973,39 +3963,43 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F61" s="7">
         <f>LEN(G61)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="I61" s="4">
+        <v>2</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2</v>
+      </c>
       <c r="K61" s="4" t="s">
-        <v>129</v>
+        <v>390</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O61" s="3"/>
     </row>
@@ -4042,37 +4036,43 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
-        <v>77</v>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F63" s="7">
         <f>LEN(G63)</f>
+        <v>2</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I63" s="2">
+        <v>2</v>
+      </c>
+      <c r="J63" s="2">
         <v>1</v>
       </c>
-      <c r="G63" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="K63" s="2" t="s">
-        <v>129</v>
+        <v>387</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4232,7 +4232,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>34</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>79</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>81</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>80</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>83</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>82</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>36</v>
       </c>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>50</v>
       </c>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>85</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>88</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>86</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>87</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>89</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>90</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>91</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>22</v>
       </c>
@@ -5033,7 +5033,7 @@
       </c>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>84</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>92</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>93</v>
       </c>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>94</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>26</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -10472,14 +10472,14 @@
     </row>
   </sheetData>
   <autoFilter ref="E1:K1000">
-    <filterColumn colId="6">
+    <filterColumn colId="0">
       <filters blank="1">
-        <filter val="Summon"/>
+        <filter val="Red"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState ref="A2:O1000">
-    <sortCondition ref="E1"/>
+  <sortState ref="A9:O1000">
+    <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1681,8 +1681,8 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1690,7 @@
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1769,7 +1769,7 @@
         <v>111</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F33" si="0">LEN(G2)</f>
+        <f t="shared" ref="F2:F8" si="0">LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -2033,7 +2033,7 @@
         <v>113</v>
       </c>
       <c r="F9" s="7">
-        <f>LEN(G9)</f>
+        <f t="shared" ref="F9:F40" si="1">LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2075,7 +2075,7 @@
         <v>113</v>
       </c>
       <c r="F10" s="7">
-        <f>LEN(G10)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2114,7 +2114,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="7">
-        <f>LEN(G11)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2154,7 +2154,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="7">
-        <f>LEN(G12)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2190,7 +2190,7 @@
         <v>111</v>
       </c>
       <c r="F13" s="7">
-        <f>LEN(G13)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2228,7 +2228,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="7">
-        <f>LEN(G14)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2264,7 +2264,7 @@
         <v>112</v>
       </c>
       <c r="F15" s="7">
-        <f>LEN(G15)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2304,7 +2304,7 @@
         <v>113</v>
       </c>
       <c r="F16" s="7">
-        <f>LEN(G16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2343,7 +2343,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="7">
-        <f>LEN(G17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2383,7 +2383,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="7">
-        <f>LEN(G18)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2421,7 +2421,7 @@
         <v>112</v>
       </c>
       <c r="F19" s="7">
-        <f>LEN(G19)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2457,7 +2457,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="7">
-        <f>LEN(G20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2493,7 +2493,7 @@
         <v>111</v>
       </c>
       <c r="F21" s="7">
-        <f>LEN(G21)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2529,7 +2529,7 @@
         <v>111</v>
       </c>
       <c r="F22" s="7">
-        <f>LEN(G22)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2565,7 +2565,7 @@
         <v>111</v>
       </c>
       <c r="F23" s="7">
-        <f>LEN(G23)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2601,7 +2601,7 @@
         <v>111</v>
       </c>
       <c r="F24" s="7">
-        <f>LEN(G24)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2641,7 +2641,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="7">
-        <f>LEN(G25)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2677,7 +2677,7 @@
         <v>112</v>
       </c>
       <c r="F26" s="7">
-        <f>LEN(G26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2716,7 +2716,7 @@
         <v>111</v>
       </c>
       <c r="F27" s="7">
-        <f>LEN(G27)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2752,7 +2752,7 @@
         <v>111</v>
       </c>
       <c r="F28" s="7">
-        <f>LEN(G28)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -2794,7 +2794,7 @@
         <v>111</v>
       </c>
       <c r="F29" s="7">
-        <f>LEN(G29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -2834,7 +2834,7 @@
         <v>111</v>
       </c>
       <c r="F30" s="7">
-        <f>LEN(G30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2870,7 +2870,7 @@
         <v>111</v>
       </c>
       <c r="F31" s="7">
-        <f>LEN(G31)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2910,7 +2910,7 @@
         <v>111</v>
       </c>
       <c r="F32" s="7">
-        <f>LEN(G32)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2946,7 +2946,7 @@
         <v>112</v>
       </c>
       <c r="F33" s="7">
-        <f>LEN(G33)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2979,7 +2979,7 @@
         <v>112</v>
       </c>
       <c r="F34" s="7">
-        <f>LEN(G34)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -3017,7 +3017,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="7">
-        <f>LEN(G35)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -3053,7 +3053,7 @@
         <v>112</v>
       </c>
       <c r="F36" s="7">
-        <f>LEN(G36)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3086,7 +3086,7 @@
         <v>113</v>
       </c>
       <c r="F37" s="7">
-        <f>LEN(G37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -3122,7 +3122,7 @@
         <v>112</v>
       </c>
       <c r="F38" s="7">
-        <f>LEN(G38)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -3155,7 +3155,7 @@
         <v>114</v>
       </c>
       <c r="F39" s="7">
-        <f>LEN(G39)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -3194,7 +3194,7 @@
         <v>111</v>
       </c>
       <c r="F40" s="7">
-        <f>LEN(G40)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -3234,7 +3234,7 @@
         <v>111</v>
       </c>
       <c r="F41" s="7">
-        <f>LEN(G41)</f>
+        <f t="shared" ref="F41:F72" si="2">LEN(G41)</f>
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3274,7 +3274,7 @@
         <v>112</v>
       </c>
       <c r="F42" s="7">
-        <f>LEN(G42)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3307,7 +3307,7 @@
         <v>111</v>
       </c>
       <c r="F43" s="7">
-        <f>LEN(G43)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3347,7 +3347,7 @@
         <v>111</v>
       </c>
       <c r="F44" s="7">
-        <f>LEN(G44)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3387,7 +3387,7 @@
         <v>111</v>
       </c>
       <c r="F45" s="7">
-        <f>LEN(G45)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3427,7 +3427,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="7">
-        <f>LEN(G46)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -3465,7 +3465,7 @@
         <v>112</v>
       </c>
       <c r="F47" s="7">
-        <f>LEN(G47)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G47" s="6" t="s">
@@ -3498,7 +3498,7 @@
         <v>112</v>
       </c>
       <c r="F48" s="7">
-        <f>LEN(G48)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G48" s="6" t="s">
@@ -3531,7 +3531,7 @@
         <v>111</v>
       </c>
       <c r="F49" s="7">
-        <f>LEN(G49)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G49" s="6" t="s">
@@ -3571,7 +3571,7 @@
         <v>113</v>
       </c>
       <c r="F50" s="7">
-        <f>LEN(G50)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -3607,7 +3607,7 @@
         <v>113</v>
       </c>
       <c r="F51" s="7">
-        <f>LEN(G51)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3640,7 +3640,7 @@
         <v>113</v>
       </c>
       <c r="F52" s="7">
-        <f>LEN(G52)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -3680,7 +3680,7 @@
         <v>113</v>
       </c>
       <c r="F53" s="7">
-        <f>LEN(G53)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G53" s="6" t="s">
@@ -3716,7 +3716,7 @@
         <v>113</v>
       </c>
       <c r="F54" s="7">
-        <f>LEN(G54)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G54" s="6" t="s">
@@ -3756,7 +3756,7 @@
         <v>112</v>
       </c>
       <c r="F55" s="7">
-        <f>LEN(G55)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G55" s="6" t="s">
@@ -3789,7 +3789,7 @@
         <v>112</v>
       </c>
       <c r="F56" s="7">
-        <f>LEN(G56)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G56" s="6" t="s">
@@ -3827,7 +3827,7 @@
         <v>112</v>
       </c>
       <c r="F57" s="7">
-        <f>LEN(G57)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -3866,7 +3866,7 @@
         <v>112</v>
       </c>
       <c r="F58" s="7">
-        <f>LEN(G58)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -3902,7 +3902,7 @@
         <v>112</v>
       </c>
       <c r="F59" s="7">
-        <f>LEN(G59)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
@@ -3941,7 +3941,7 @@
         <v>112</v>
       </c>
       <c r="F60" s="7">
-        <f>LEN(G60)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -3980,7 +3980,7 @@
         <v>113</v>
       </c>
       <c r="F61" s="7">
-        <f>LEN(G61)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -4020,7 +4020,7 @@
         <v>112</v>
       </c>
       <c r="F62" s="7">
-        <f>LEN(G62)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G62" s="6" t="s">
@@ -4037,7 +4037,7 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="14">
         <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -4053,7 +4053,7 @@
         <v>113</v>
       </c>
       <c r="F63" s="7">
-        <f>LEN(G63)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -4092,7 +4092,7 @@
         <v>112</v>
       </c>
       <c r="F64" s="7">
-        <f>LEN(G64)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -4132,7 +4132,7 @@
         <v>112</v>
       </c>
       <c r="F65" s="7">
-        <f>LEN(G65)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G65" s="6" t="s">
@@ -4171,7 +4171,7 @@
         <v>112</v>
       </c>
       <c r="F66" s="7">
-        <f>LEN(G66)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -4210,7 +4210,7 @@
         <v>112</v>
       </c>
       <c r="F67" s="7">
-        <f>LEN(G67)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="G67" s="6" t="s">
@@ -4249,7 +4249,7 @@
         <v>113</v>
       </c>
       <c r="F68" s="7">
-        <f>LEN(G68)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G68" s="6" t="s">
@@ -4285,7 +4285,7 @@
         <v>112</v>
       </c>
       <c r="F69" s="7">
-        <f>LEN(G69)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
@@ -4324,7 +4324,7 @@
         <v>112</v>
       </c>
       <c r="F70" s="7">
-        <f>LEN(G70)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
@@ -4363,7 +4363,7 @@
         <v>112</v>
       </c>
       <c r="F71" s="7">
-        <f>LEN(G71)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -4402,7 +4402,7 @@
         <v>112</v>
       </c>
       <c r="F72" s="7">
-        <f>LEN(G72)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
@@ -4425,7 +4425,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="2">
+      <c r="A73" s="14">
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -4441,7 +4441,7 @@
         <v>113</v>
       </c>
       <c r="F73" s="7">
-        <f>LEN(G73)</f>
+        <f t="shared" ref="F73:F104" si="3">LEN(G73)</f>
         <v>2</v>
       </c>
       <c r="G73" s="6" t="s">
@@ -4474,7 +4474,7 @@
         <v>112</v>
       </c>
       <c r="F74" s="7">
-        <f>LEN(G74)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G74" s="6" t="s">
@@ -4514,7 +4514,7 @@
         <v>112</v>
       </c>
       <c r="F75" s="7">
-        <f>LEN(G75)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
@@ -4537,7 +4537,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="2">
+      <c r="A76" s="14">
         <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -4553,7 +4553,7 @@
         <v>113</v>
       </c>
       <c r="F76" s="7">
-        <f>LEN(G76)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -4570,7 +4570,7 @@
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="2">
+      <c r="A77" s="14">
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -4586,7 +4586,7 @@
         <v>113</v>
       </c>
       <c r="F77" s="7">
-        <f>LEN(G77)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G77" s="6" t="s">
@@ -4603,7 +4603,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="2">
+      <c r="A78" s="14">
         <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4619,7 +4619,7 @@
         <v>113</v>
       </c>
       <c r="F78" s="7">
-        <f>LEN(G78)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -4636,7 +4636,7 @@
       </c>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="2">
+      <c r="A79" s="14">
         <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -4652,7 +4652,7 @@
         <v>113</v>
       </c>
       <c r="F79" s="7">
-        <f>LEN(G79)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G79" s="6" t="s">
@@ -4669,7 +4669,7 @@
       </c>
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="2">
+      <c r="A80" s="14">
         <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4685,7 +4685,7 @@
         <v>113</v>
       </c>
       <c r="F80" s="7">
-        <f>LEN(G80)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
@@ -4705,7 +4705,7 @@
       <c r="O80" s="3"/>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="2">
+      <c r="A81" s="14">
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -4721,7 +4721,7 @@
         <v>113</v>
       </c>
       <c r="F81" s="7">
-        <f>LEN(G81)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -4745,7 +4745,7 @@
       <c r="O81" s="3"/>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2">
+      <c r="A82" s="14">
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
@@ -4761,7 +4761,7 @@
         <v>113</v>
       </c>
       <c r="F82" s="7">
-        <f>LEN(G82)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
@@ -4800,7 +4800,7 @@
         <v>113</v>
       </c>
       <c r="F83" s="7">
-        <f>LEN(G83)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
@@ -4833,7 +4833,7 @@
         <v>113</v>
       </c>
       <c r="F84" s="7">
-        <f>LEN(G84)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
@@ -4872,7 +4872,7 @@
         <v>113</v>
       </c>
       <c r="F85" s="7">
-        <f>LEN(G85)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -4911,7 +4911,7 @@
         <v>113</v>
       </c>
       <c r="F86" s="7">
-        <f>LEN(G86)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
@@ -4944,7 +4944,7 @@
         <v>113</v>
       </c>
       <c r="F87" s="7">
-        <f>LEN(G87)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -4977,7 +4977,7 @@
         <v>113</v>
       </c>
       <c r="F88" s="7">
-        <f>LEN(G88)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G88" s="6" t="s">
@@ -5010,7 +5010,7 @@
         <v>113</v>
       </c>
       <c r="F89" s="7">
-        <f>LEN(G89)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G89" s="6" t="s">
@@ -5050,7 +5050,7 @@
         <v>113</v>
       </c>
       <c r="F90" s="7">
-        <f>LEN(G90)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G90" s="6" t="s">
@@ -5089,7 +5089,7 @@
         <v>113</v>
       </c>
       <c r="F91" s="7">
-        <f>LEN(G91)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
@@ -5122,7 +5122,7 @@
         <v>113</v>
       </c>
       <c r="F92" s="7">
-        <f>LEN(G92)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G92" s="6" t="s">
@@ -5155,7 +5155,7 @@
         <v>114</v>
       </c>
       <c r="F93" s="7">
-        <f>LEN(G93)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G93" s="6" t="s">
@@ -5191,7 +5191,7 @@
         <v>113</v>
       </c>
       <c r="F94" s="7">
-        <f>LEN(G94)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
@@ -5230,7 +5230,7 @@
         <v>113</v>
       </c>
       <c r="F95" s="7">
-        <f>LEN(G95)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G95" s="6" t="s">
@@ -5270,7 +5270,7 @@
         <v>114</v>
       </c>
       <c r="F96" s="7">
-        <f>LEN(G96)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G96" s="6" t="s">
@@ -5309,7 +5309,7 @@
         <v>114</v>
       </c>
       <c r="F97" s="7">
-        <f>LEN(G97)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -5348,7 +5348,7 @@
         <v>114</v>
       </c>
       <c r="F98" s="7">
-        <f>LEN(G98)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -5387,7 +5387,7 @@
         <v>114</v>
       </c>
       <c r="F99" s="7">
-        <f>LEN(G99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -5420,7 +5420,7 @@
         <v>114</v>
       </c>
       <c r="F100" s="7">
-        <f>LEN(G100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G100" s="6" t="s">
@@ -5453,7 +5453,7 @@
         <v>114</v>
       </c>
       <c r="F101" s="7">
-        <f>LEN(G101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G101" s="6" t="s">
@@ -5486,7 +5486,7 @@
         <v>114</v>
       </c>
       <c r="F102" s="7">
-        <f>LEN(G102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G102" s="6" t="s">
@@ -5519,7 +5519,7 @@
         <v>114</v>
       </c>
       <c r="F103" s="7">
-        <f>LEN(G103)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -5555,7 +5555,7 @@
         <v>114</v>
       </c>
       <c r="F104" s="7">
-        <f>LEN(G104)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G104" s="6" t="s">
@@ -5591,7 +5591,7 @@
         <v>114</v>
       </c>
       <c r="F105" s="7">
-        <f>LEN(G105)</f>
+        <f t="shared" ref="F105:F136" si="4">LEN(G105)</f>
         <v>2</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -5630,7 +5630,7 @@
         <v>114</v>
       </c>
       <c r="F106" s="7">
-        <f>LEN(G106)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G106" s="6" t="s">
@@ -5666,7 +5666,7 @@
         <v>114</v>
       </c>
       <c r="F107" s="7">
-        <f>LEN(G107)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -5705,7 +5705,7 @@
         <v>114</v>
       </c>
       <c r="F108" s="7">
-        <f>LEN(G108)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G108" s="6" t="s">
@@ -5738,7 +5738,7 @@
         <v>114</v>
       </c>
       <c r="F109" s="7">
-        <f>LEN(G109)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G109" s="6" t="s">
@@ -5771,7 +5771,7 @@
         <v>114</v>
       </c>
       <c r="F110" s="7">
-        <f>LEN(G110)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
@@ -5801,7 +5801,7 @@
         <v>114</v>
       </c>
       <c r="F111" s="7">
-        <f>LEN(G111)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G111" s="6" t="s">
@@ -5837,7 +5837,7 @@
         <v>114</v>
       </c>
       <c r="F112" s="7">
-        <f>LEN(G112)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
@@ -5867,7 +5867,7 @@
         <v>114</v>
       </c>
       <c r="F113" s="7">
-        <f>LEN(G113)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G113" s="6" t="s">
@@ -5903,7 +5903,7 @@
         <v>114</v>
       </c>
       <c r="F114" s="7">
-        <f>LEN(G114)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G114" s="6" t="s">
@@ -5939,7 +5939,7 @@
         <v>114</v>
       </c>
       <c r="F115" s="7">
-        <f>LEN(G115)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G115" s="6" t="s">
@@ -5975,7 +5975,7 @@
         <v>114</v>
       </c>
       <c r="F116" s="7">
-        <f>LEN(G116)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G116" s="6" t="s">
@@ -6008,7 +6008,7 @@
         <v>114</v>
       </c>
       <c r="F117" s="7">
-        <f>LEN(G117)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
@@ -6038,7 +6038,7 @@
         <v>114</v>
       </c>
       <c r="F118" s="7">
-        <f>LEN(G118)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
@@ -10473,7 +10473,7 @@
   </sheetData>
   <autoFilter ref="E1:K1000">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="Red"/>
       </filters>
     </filterColumn>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1328,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1371,6 +1371,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1681,14 +1687,14 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
@@ -1698,7 +1704,7 @@
     <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="156.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="140.5703125" style="17" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1739,7 +1745,7 @@
       <c r="K1" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -2093,7 +2099,7 @@
       <c r="K10" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="17" t="s">
         <v>240</v>
       </c>
     </row>
@@ -2322,7 +2328,7 @@
       <c r="K16" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="17" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2439,6 +2445,7 @@
       <c r="K19" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="L19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -3619,7 +3626,7 @@
       <c r="K51" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="17" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3884,6 +3891,7 @@
       <c r="K58" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="L58" s="2"/>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -4071,7 +4079,7 @@
       <c r="K63" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4453,7 +4461,7 @@
       <c r="K73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="17" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4565,7 +4573,7 @@
       <c r="K76" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="17" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4598,7 +4606,7 @@
       <c r="K77" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" s="17" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4631,7 +4639,7 @@
       <c r="K78" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4664,7 +4672,7 @@
       <c r="K79" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="17" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4779,12 +4787,12 @@
       <c r="K82" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" s="17" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="2">
+      <c r="A83" s="14">
         <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
@@ -4812,12 +4820,12 @@
       <c r="K83" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="17" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="2">
+      <c r="A84" s="14">
         <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
@@ -4851,12 +4859,12 @@
       <c r="K84" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="17" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2">
+      <c r="A85" s="14">
         <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4890,12 +4898,12 @@
       <c r="K85" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" s="17" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2">
+      <c r="A86" s="14">
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -4923,12 +4931,12 @@
       <c r="K86" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2">
+      <c r="A87" s="14">
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
@@ -4956,12 +4964,12 @@
       <c r="K87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L87" s="17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="2">
+      <c r="A88" s="14">
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
@@ -4989,7 +4997,7 @@
       <c r="K88" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" s="17" t="s">
         <v>275</v>
       </c>
     </row>
@@ -5034,7 +5042,7 @@
       <c r="O89" s="3"/>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="2">
+      <c r="A90" s="14">
         <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5068,12 +5076,12 @@
       <c r="K90" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="17" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2">
+      <c r="A91" s="14">
         <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5101,12 +5109,12 @@
       <c r="K91" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="17" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="2">
+      <c r="A92" s="14">
         <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5134,7 +5142,7 @@
       <c r="K92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="17" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5175,7 +5183,7 @@
       <c r="O93" s="3"/>
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2">
+      <c r="A94" s="14">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5209,7 +5217,7 @@
       <c r="K94" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="17" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5573,6 +5581,7 @@
       <c r="K104" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
@@ -5591,7 +5600,7 @@
         <v>114</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" ref="F105:F136" si="4">LEN(G105)</f>
+        <f t="shared" ref="F105:F118" si="4">LEN(G105)</f>
         <v>2</v>
       </c>
       <c r="G105" s="6" t="s">

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1688,7 +1688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>75</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <v>76</v>
       </c>
@@ -3007,7 +3007,7 @@
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
     </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14">
         <v>32</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14">
         <v>33</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14">
         <v>95</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14">
         <v>51</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14">
         <v>77</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14">
         <v>9</v>
       </c>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14">
         <v>35</v>
       </c>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14">
         <v>15</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14">
         <v>49</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14">
         <v>78</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14">
         <v>34</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14">
         <v>79</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14">
         <v>81</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14">
         <v>80</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14">
         <v>83</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14">
         <v>82</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14">
         <v>36</v>
       </c>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14">
         <v>50</v>
       </c>
@@ -4752,7 +4752,7 @@
       </c>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14">
         <v>85</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14">
         <v>88</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14">
         <v>86</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14">
         <v>87</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14">
         <v>89</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="14">
         <v>90</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="14">
         <v>91</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>22</v>
       </c>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="14">
         <v>84</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="14">
         <v>92</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14">
         <v>93</v>
       </c>
@@ -5146,8 +5146,8 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="2">
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
         <v>37</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14">
         <v>94</v>
       </c>
@@ -5221,7 +5221,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>26</v>
       </c>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>99</v>
       </c>
@@ -5411,7 +5411,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>100</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>101</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>102</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>38</v>
       </c>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5583,7 +5583,7 @@
       </c>
       <c r="L104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5697,7 +5697,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5862,7 +5862,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5898,7 +5898,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -10482,8 +10482,8 @@
   </sheetData>
   <autoFilter ref="E1:K1000">
     <filterColumn colId="0">
-      <filters>
-        <filter val="Red"/>
+      <filters blank="1">
+        <filter val="White"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="416">
   <si>
     <t>#</t>
   </si>
@@ -528,21 +528,12 @@
     <t>矮人探险家</t>
   </si>
   <si>
-    <t>* 位面行者: 可以选择任意颜色卡槽的生物进行攻击</t>
-  </si>
-  <si>
     <t>自然虚弱</t>
   </si>
   <si>
-    <t>* 目标生物不会获得元素增强效果并且获得-1/-1</t>
-  </si>
-  <si>
     <t>寄生孢子</t>
   </si>
   <si>
-    <t>* 对目标生物造成2点伤害, 施法的元素师恢复2点生命值, 如果目标生物因此而死亡, 为其所有者召唤一个1/1的绿色孢子并置于死亡生物的卡槽</t>
-  </si>
-  <si>
     <t>矮人德鲁伊</t>
   </si>
   <si>
@@ -636,9 +627,6 @@
     <t>转化</t>
   </si>
   <si>
-    <t>* 可以不受任何阻挡, 直接攻击元素师</t>
-  </si>
-  <si>
     <t>* 进攻时, 获得1个符文</t>
   </si>
   <si>
@@ -681,9 +669,6 @@
     <t>* 目标生物攻击时, 对面的生物被退回其拥有者手牌</t>
   </si>
   <si>
-    <t>* 法力粘虫进入墓地后, 你可以消耗W, 立即复制一个2/2的法力黏虫幼体进入战场.</t>
-  </si>
-  <si>
     <t>XWWW</t>
   </si>
   <si>
@@ -1243,6 +1228,45 @@
   </si>
   <si>
     <t>* 目标生物被冻结, 直到目标生物的回合结束 * 目标生物无法防御, 直到回合结束</t>
+  </si>
+  <si>
+    <t>* 幻影裂片无法被防御</t>
+  </si>
+  <si>
+    <t>* 法力粘虫进入墓地后, 你可以消耗W, 立即召唤 一个2/2的法力黏虫幼体进入战场.</t>
+  </si>
+  <si>
+    <t>* 对目标生物造成2点伤害, 施法的元素师恢复2点生命值, 如果目标生物因此而死亡, 为其所有者召唤一个1/1的孢子并置于死亡生物的卡槽</t>
+  </si>
+  <si>
+    <t>* 可以选择任意颜色卡槽的生物进行攻击</t>
+  </si>
+  <si>
+    <t>* 目标生物不会获得元素增强效果然后获得-1/-1</t>
+  </si>
+  <si>
+    <t>Air Assassin</t>
+  </si>
+  <si>
+    <t>Ethereal Blade</t>
+  </si>
+  <si>
+    <t>Realm of Delusion</t>
+  </si>
+  <si>
+    <t>Vortex Spinner</t>
+  </si>
+  <si>
+    <t>Unreal Executioner</t>
+  </si>
+  <si>
+    <t>Twin Shadow</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>Quicksilver Warrior</t>
   </si>
 </sst>
 </file>
@@ -1305,13 +1329,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1355,22 +1379,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1378,6 +1393,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1683,12 +1704,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L100" sqref="L100"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1696,7 +1716,7 @@
     <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="3.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" style="6" bestFit="1" customWidth="1"/>
@@ -1704,7 +1724,7 @@
     <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="140.5703125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="140.5703125" style="14" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="70.42578125" style="2" bestFit="1" customWidth="1"/>
@@ -1743,9 +1763,9 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="L1" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -1758,8 +1778,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1775,7 +1795,7 @@
         <v>111</v>
       </c>
       <c r="F2" s="7">
-        <f t="shared" ref="F2:F8" si="0">LEN(G2)</f>
+        <f>LEN(G2)</f>
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
@@ -1789,13 +1809,13 @@
       <c r="K2" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="15" t="s">
-        <v>399</v>
+      <c r="L2" s="12" t="s">
+        <v>394</v>
       </c>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1811,7 +1831,7 @@
         <v>111</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
@@ -1826,12 +1846,12 @@
         <v>129</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1847,7 +1867,7 @@
         <v>111</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G4)</f>
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -1862,28 +1882,28 @@
         <v>129</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F5" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G5)</f>
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -1898,12 +1918,12 @@
         <v>129</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1919,7 +1939,7 @@
         <v>111</v>
       </c>
       <c r="F6" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G6)</f>
         <v>1</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1935,15 +1955,15 @@
         <v>2</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1959,7 +1979,7 @@
         <v>112</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G7)</f>
         <v>1</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -1975,15 +1995,15 @@
         <v>1</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>137</v>
       </c>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1999,7 +2019,7 @@
         <v>112</v>
       </c>
       <c r="F8" s="7">
-        <f t="shared" si="0"/>
+        <f>LEN(G8)</f>
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2022,8 +2042,8 @@
       </c>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2039,7 +2059,7 @@
         <v>113</v>
       </c>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F40" si="1">LEN(G9)</f>
+        <f>LEN(G9)</f>
         <v>1</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2055,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>138</v>
@@ -2064,24 +2084,24 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F10" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G10)</f>
         <v>1</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2097,14 +2117,14 @@
         <v>1</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+        <v>381</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2120,7 +2140,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G11)</f>
         <v>1</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2136,15 +2156,15 @@
         <v>4</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>28</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2160,7 +2180,7 @@
         <v>111</v>
       </c>
       <c r="F12" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G12)</f>
         <v>1</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2175,12 +2195,12 @@
         <v>129</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2196,7 +2216,7 @@
         <v>111</v>
       </c>
       <c r="F13" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G13)</f>
         <v>1</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2211,14 +2231,14 @@
         <v>129</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
         <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2234,7 +2254,7 @@
         <v>111</v>
       </c>
       <c r="F14" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G14)</f>
         <v>1</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2249,12 +2269,12 @@
         <v>130</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2270,7 +2290,7 @@
         <v>112</v>
       </c>
       <c r="F15" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G15)</f>
         <v>1</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2286,31 +2306,31 @@
         <v>2</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>76</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G16)</f>
         <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2326,14 +2346,14 @@
         <v>1</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L16" s="17" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+        <v>382</v>
+      </c>
+      <c r="L16" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2349,7 +2369,7 @@
         <v>111</v>
       </c>
       <c r="F17" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G17)</f>
         <v>2</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2365,15 +2385,15 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2389,7 +2409,7 @@
         <v>111</v>
       </c>
       <c r="F18" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G18)</f>
         <v>2</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -2405,13 +2425,13 @@
         <v>3</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L18" s="4"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2421,13 +2441,13 @@
         <v>148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F19" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G19)</f>
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -2443,12 +2463,12 @@
         <v>1</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2464,7 +2484,7 @@
         <v>111</v>
       </c>
       <c r="F20" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G20)</f>
         <v>2</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -2479,12 +2499,12 @@
         <v>129</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15">
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2500,7 +2520,7 @@
         <v>111</v>
       </c>
       <c r="F21" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G21)</f>
         <v>2</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -2515,28 +2535,28 @@
         <v>129</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F22" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G22)</f>
         <v>2</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -2551,12 +2571,12 @@
         <v>129</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15">
         <v>3</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2572,7 +2592,7 @@
         <v>111</v>
       </c>
       <c r="F23" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G23)</f>
         <v>2</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -2586,13 +2606,13 @@
       <c r="K23" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>401</v>
+      <c r="L23" s="12" t="s">
+        <v>396</v>
       </c>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2608,7 +2628,7 @@
         <v>111</v>
       </c>
       <c r="F24" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G24)</f>
         <v>2</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2624,51 +2644,57 @@
         <v>1</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>48</v>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15">
+        <v>5</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F25" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>LEN(G25)</f>
+        <v>2</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4">
+        <v>5</v>
+      </c>
       <c r="K25" s="4" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14">
+        <v>139</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2678,13 +2704,13 @@
         <v>155</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F26" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G26)</f>
         <v>1</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2700,168 +2726,162 @@
         <v>1</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>44</v>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15">
+        <v>10</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F27" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f>LEN(G27)</f>
+        <v>2</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
       <c r="K27" s="4" t="s">
-        <v>129</v>
+        <v>385</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14">
-        <v>5</v>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
+        <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F28" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G28)</f>
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="4">
-        <v>0</v>
-      </c>
-      <c r="J28" s="4">
-        <v>5</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4" t="s">
-        <v>387</v>
+        <v>130</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>10</v>
+        <v>215</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>48</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>LEN(G29)</f>
+        <v>3</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="4">
-        <v>1</v>
-      </c>
-      <c r="J29" s="4">
-        <v>1</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="4" t="s">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>12</v>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
+        <v>44</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>LEN(G30)</f>
+        <v>3</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15">
         <v>17</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2877,7 +2897,7 @@
         <v>111</v>
       </c>
       <c r="F31" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G31)</f>
         <v>3</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2893,15 +2913,15 @@
         <v>3</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>220</v>
+        <v>404</v>
       </c>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>45</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2917,7 +2937,7 @@
         <v>111</v>
       </c>
       <c r="F32" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G32)</f>
         <v>3</v>
       </c>
       <c r="G32" s="6" t="s">
@@ -2932,12 +2952,12 @@
         <v>129</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15">
         <v>54</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2947,13 +2967,13 @@
         <v>158</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G33)</f>
         <v>1</v>
       </c>
       <c r="G33" s="6" t="s">
@@ -2969,46 +2989,46 @@
         <v>167</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
         <v>55</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="E34" s="11" t="s">
+      <c r="C34" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F34" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G34)</f>
         <v>1</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="11" t="s">
+      <c r="H34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11" t="s">
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="L34" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -3024,7 +3044,7 @@
         <v>113</v>
       </c>
       <c r="F35" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G35)</f>
         <v>1</v>
       </c>
       <c r="G35" s="6" t="s">
@@ -3039,12 +3059,12 @@
         <v>129</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15">
         <v>56</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3054,13 +3074,13 @@
         <v>159</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F36" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G36)</f>
         <v>1</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -3076,8 +3096,8 @@
         <v>160</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -3093,7 +3113,7 @@
         <v>113</v>
       </c>
       <c r="F37" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G37)</f>
         <v>1</v>
       </c>
       <c r="G37" s="6" t="s">
@@ -3108,61 +3128,61 @@
         <v>129</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>62</v>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>57</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F38" s="7">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>LEN(G38)</f>
+        <v>1</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>162</v>
+        <v>118</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>392</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="15">
         <v>95</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F39" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G39)</f>
         <v>1</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -3178,14 +3198,14 @@
         <v>1</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
         <v>21</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -3201,11 +3221,11 @@
         <v>111</v>
       </c>
       <c r="F40" s="7">
-        <f t="shared" si="1"/>
+        <f>LEN(G40)</f>
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>128</v>
@@ -3217,15 +3237,15 @@
         <v>2</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="15">
         <v>47</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -3241,7 +3261,7 @@
         <v>111</v>
       </c>
       <c r="F41" s="7">
-        <f t="shared" ref="F41:F72" si="2">LEN(G41)</f>
+        <f>LEN(G41)</f>
         <v>3</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -3257,31 +3277,31 @@
         <v>2</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>64</v>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15">
+        <v>62</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G42)</f>
         <v>2</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -3294,11 +3314,11 @@
         <v>129</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
         <v>1</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3314,7 +3334,7 @@
         <v>111</v>
       </c>
       <c r="F43" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G43)</f>
         <v>3</v>
       </c>
       <c r="G43" s="6" t="s">
@@ -3330,31 +3350,31 @@
         <v>0</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15">
         <v>20</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>111</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G44)</f>
         <v>3</v>
       </c>
       <c r="G44" s="6" t="s">
@@ -3370,15 +3390,15 @@
         <v>3</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15">
         <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3394,7 +3414,7 @@
         <v>111</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G45)</f>
         <v>3</v>
       </c>
       <c r="G45" s="6" t="s">
@@ -3410,15 +3430,15 @@
         <v>4</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L45" s="4" t="s">
         <v>144</v>
       </c>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15">
         <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -3434,7 +3454,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G46)</f>
         <v>3</v>
       </c>
       <c r="G46" s="6" t="s">
@@ -3450,33 +3470,33 @@
         <v>4</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L46" s="4"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>68</v>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15">
+        <v>64</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F47" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>LEN(G47)</f>
+        <v>2</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>129</v>
@@ -3485,44 +3505,47 @@
         <v>129</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>73</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E48" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15">
+        <v>31</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F48" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>LEN(G48)</f>
+        <v>2</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>192</v>
+        <v>121</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+        <v>130</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15">
         <v>19</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -3538,11 +3561,11 @@
         <v>111</v>
       </c>
       <c r="F49" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G49)</f>
         <v>4</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>128</v>
@@ -3554,15 +3577,15 @@
         <v>3</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L49" s="4" t="s">
         <v>141</v>
       </c>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15">
         <v>51</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3578,7 +3601,7 @@
         <v>113</v>
       </c>
       <c r="F50" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G50)</f>
         <v>1</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -3593,28 +3616,28 @@
         <v>129</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15">
         <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F51" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G51)</f>
         <v>1</v>
       </c>
       <c r="G51" s="6" t="s">
@@ -3626,12 +3649,12 @@
       <c r="K51" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L51" s="17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14">
+      <c r="L51" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
         <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -3647,7 +3670,7 @@
         <v>113</v>
       </c>
       <c r="F52" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G52)</f>
         <v>2</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -3663,15 +3686,15 @@
         <v>1</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15">
         <v>35</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -3687,7 +3710,7 @@
         <v>113</v>
       </c>
       <c r="F53" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G53)</f>
         <v>2</v>
       </c>
       <c r="G53" s="6" t="s">
@@ -3702,19 +3725,19 @@
         <v>130</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
         <v>15</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>78</v>
@@ -3723,7 +3746,7 @@
         <v>113</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G54)</f>
         <v>2</v>
       </c>
       <c r="G54" s="6" t="s">
@@ -3739,102 +3762,110 @@
         <v>2</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>57</v>
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>58</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F55" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G55)</f>
+        <v>2</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2">
         <v>1</v>
       </c>
-      <c r="G55" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="K55" s="2" t="s">
-        <v>130</v>
+        <v>382</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>31</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E56" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>59</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F56" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G56)</f>
         <v>2</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="L56" s="4" t="s">
-        <v>150</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="I56" s="2">
+        <v>2</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
-      <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>58</v>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>60</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G57)</f>
         <v>2</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -3844,36 +3875,36 @@
         <v>128</v>
       </c>
       <c r="I57" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>59</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>61</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F58" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G58)</f>
         <v>2</v>
       </c>
       <c r="G58" s="6" t="s">
@@ -3886,93 +3917,83 @@
         <v>2</v>
       </c>
       <c r="J58" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="L58" s="2"/>
-    </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>60</v>
+        <v>382</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>63</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F59" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G59)</f>
         <v>2</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>162</v>
+        <v>116</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I59" s="2">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>391</v>
+        <v>130</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>61</v>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F60" s="7">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>LEN(G60)</f>
+        <v>3</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I60" s="2">
-        <v>2</v>
-      </c>
-      <c r="J60" s="2">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
         <v>49</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -3988,7 +4009,7 @@
         <v>113</v>
       </c>
       <c r="F61" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G61)</f>
         <v>2</v>
       </c>
       <c r="G61" s="6" t="s">
@@ -4004,64 +4025,71 @@
         <v>2</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>63</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E62" s="2" t="s">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="15">
+        <v>18</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="4" t="s">
         <v>112</v>
       </c>
       <c r="F62" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G62)</f>
+        <v>3</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" s="4">
         <v>2</v>
       </c>
-      <c r="G62" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="K62" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15">
         <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F63" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G63)</f>
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -4077,30 +4105,30 @@
         <v>1</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L63" s="17" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>18</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E64" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="L63" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="15">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F64" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G64)</f>
         <v>3</v>
       </c>
       <c r="G64" s="6" t="s">
@@ -4109,81 +4137,80 @@
       <c r="H64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="I64" s="4">
-        <v>1</v>
-      </c>
-      <c r="J64" s="4">
+      <c r="I64" s="2">
         <v>2</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>65</v>
+      <c r="J64" s="2">
+        <v>2</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15">
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F65" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G65)</f>
         <v>3</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I65" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J65" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>66</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>67</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F66" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G66)</f>
         <v>3</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>128</v>
@@ -4192,56 +4219,50 @@
         <v>3</v>
       </c>
       <c r="J66" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>67</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="15">
+        <v>73</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F67" s="7">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>LEN(G67)</f>
+        <v>4</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I67" s="2">
-        <v>3</v>
-      </c>
-      <c r="J67" s="2">
-        <v>2</v>
+        <v>129</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>387</v>
+        <v>129</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15">
         <v>34</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -4257,7 +4278,7 @@
         <v>113</v>
       </c>
       <c r="F68" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G68)</f>
         <v>2</v>
       </c>
       <c r="G68" s="6" t="s">
@@ -4272,32 +4293,32 @@
         <v>129</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="15">
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F69" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G69)</f>
         <v>4</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>128</v>
@@ -4309,34 +4330,34 @@
         <v>5</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15">
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F70" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G70)</f>
         <v>4</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>128</v>
@@ -4348,34 +4369,34 @@
         <v>4</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="15">
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F71" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G71)</f>
         <v>4</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>128</v>
@@ -4387,34 +4408,34 @@
         <v>6</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15">
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F72" s="7">
-        <f t="shared" si="2"/>
+        <f>LEN(G72)</f>
         <v>4</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>128</v>
@@ -4426,30 +4447,30 @@
         <v>4</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="15">
         <v>79</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F73" s="7">
-        <f t="shared" ref="F73:F104" si="3">LEN(G73)</f>
+        <f>LEN(G73)</f>
         <v>2</v>
       </c>
       <c r="G73" s="6" t="s">
@@ -4461,12 +4482,12 @@
       <c r="K73" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L73" s="17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="2">
+      <c r="L73" s="14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15">
         <v>25</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -4482,7 +4503,7 @@
         <v>112</v>
       </c>
       <c r="F74" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G74)</f>
         <v>5</v>
       </c>
       <c r="G74" s="6" t="s">
@@ -4498,35 +4519,35 @@
         <v>5</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>151</v>
       </c>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="2">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="15">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F75" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G75)</f>
         <v>5</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>128</v>
@@ -4538,30 +4559,30 @@
         <v>5</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15">
         <v>81</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F76" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G76)</f>
         <v>2</v>
       </c>
       <c r="G76" s="6" t="s">
@@ -4573,28 +4594,28 @@
       <c r="K76" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L76" s="17" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+      <c r="L76" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15">
         <v>80</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F77" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G77)</f>
         <v>2</v>
       </c>
       <c r="G77" s="6" t="s">
@@ -4606,28 +4627,28 @@
       <c r="K77" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="L77" s="17" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14">
+      <c r="L77" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15">
         <v>83</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F78" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G78)</f>
         <v>2</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -4639,32 +4660,32 @@
       <c r="K78" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L78" s="17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="L78" s="14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="15">
         <v>82</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F79" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G79)</f>
         <v>3</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>129</v>
@@ -4672,12 +4693,12 @@
       <c r="K79" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L79" s="17" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="L79" s="14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15">
         <v>36</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -4693,7 +4714,7 @@
         <v>113</v>
       </c>
       <c r="F80" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G80)</f>
         <v>3</v>
       </c>
       <c r="G80" s="6" t="s">
@@ -4708,12 +4729,12 @@
         <v>130</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="15">
         <v>50</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -4729,7 +4750,7 @@
         <v>113</v>
       </c>
       <c r="F81" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G81)</f>
         <v>3</v>
       </c>
       <c r="G81" s="6" t="s">
@@ -4745,31 +4766,31 @@
         <v>3</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="14">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15">
         <v>85</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F82" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G82)</f>
         <v>3</v>
       </c>
       <c r="G82" s="6" t="s">
@@ -4785,34 +4806,34 @@
         <v>5</v>
       </c>
       <c r="K82" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L82" s="17" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+        <v>382</v>
+      </c>
+      <c r="L82" s="14" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="15">
         <v>88</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F83" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G83)</f>
         <v>3</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>129</v>
@@ -4820,28 +4841,28 @@
       <c r="K83" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L83" s="17" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="14">
+      <c r="L83" s="14" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="15">
         <v>86</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F84" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G84)</f>
         <v>3</v>
       </c>
       <c r="G84" s="6" t="s">
@@ -4857,30 +4878,30 @@
         <v>4</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L84" s="17" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+        <v>382</v>
+      </c>
+      <c r="L84" s="14" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="15">
         <v>87</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F85" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G85)</f>
         <v>3</v>
       </c>
       <c r="G85" s="6" t="s">
@@ -4896,30 +4917,30 @@
         <v>2</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="L85" s="17" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
+        <v>386</v>
+      </c>
+      <c r="L85" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="15">
         <v>89</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F86" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G86)</f>
         <v>3</v>
       </c>
       <c r="G86" s="6" t="s">
@@ -4931,28 +4952,28 @@
       <c r="K86" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L86" s="17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+      <c r="L86" s="14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="15">
         <v>90</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F87" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G87)</f>
         <v>3</v>
       </c>
       <c r="G87" s="6" t="s">
@@ -4964,32 +4985,32 @@
       <c r="K87" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L87" s="17" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14">
+      <c r="L87" s="14" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15">
         <v>91</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F88" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G88)</f>
         <v>4</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>129</v>
@@ -4997,11 +5018,11 @@
       <c r="K88" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L88" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L88" s="14" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>22</v>
       </c>
@@ -5018,7 +5039,7 @@
         <v>113</v>
       </c>
       <c r="F89" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G89)</f>
         <v>4</v>
       </c>
       <c r="G89" s="6" t="s">
@@ -5034,35 +5055,35 @@
         <v>4</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L89" s="4" t="s">
         <v>143</v>
       </c>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="14">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15">
         <v>84</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F90" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G90)</f>
         <v>4</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>128</v>
@@ -5074,34 +5095,34 @@
         <v>3</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L90" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+        <v>382</v>
+      </c>
+      <c r="L90" s="14" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15">
         <v>92</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F91" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G91)</f>
         <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>129</v>
@@ -5109,32 +5130,32 @@
       <c r="K91" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L91" s="17" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
+      <c r="L91" s="14" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15">
         <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F92" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G92)</f>
         <v>4</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>129</v>
@@ -5142,12 +5163,12 @@
       <c r="K92" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="L92" s="17" t="s">
-        <v>280</v>
+      <c r="L92" s="14" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="14">
+      <c r="A93" s="15">
         <v>37</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -5163,7 +5184,7 @@
         <v>114</v>
       </c>
       <c r="F93" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G93)</f>
         <v>1</v>
       </c>
       <c r="G93" s="6" t="s">
@@ -5178,32 +5199,32 @@
         <v>129</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="14">
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15">
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F94" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G94)</f>
         <v>4</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>128</v>
@@ -5215,13 +5236,13 @@
         <v>4</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L94" s="17" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>382</v>
+      </c>
+      <c r="L94" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>26</v>
       </c>
@@ -5238,7 +5259,7 @@
         <v>113</v>
       </c>
       <c r="F95" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G95)</f>
         <v>5</v>
       </c>
       <c r="G95" s="6" t="s">
@@ -5254,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L95" s="4" t="s">
         <v>147</v>
@@ -5262,23 +5283,23 @@
       <c r="O95" s="3"/>
     </row>
     <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="2">
+      <c r="A96" s="15">
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F96" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G96)</f>
         <v>1</v>
       </c>
       <c r="G96" s="6" t="s">
@@ -5294,30 +5315,30 @@
         <v>1</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="2">
+      <c r="A97" s="15">
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F97" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G97)</f>
         <v>1</v>
       </c>
       <c r="G97" s="6" t="s">
@@ -5333,30 +5354,30 @@
         <v>1</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2">
+      <c r="A98" s="15">
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F98" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G98)</f>
         <v>1</v>
       </c>
       <c r="G98" s="6" t="s">
@@ -5372,30 +5393,30 @@
         <v>1</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="2">
+      <c r="A99" s="15">
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F99" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G99)</f>
         <v>1</v>
       </c>
       <c r="G99" s="6" t="s">
@@ -5408,27 +5429,27 @@
         <v>129</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="2">
+      <c r="A100" s="15">
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F100" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G100)</f>
         <v>1</v>
       </c>
       <c r="G100" s="6" t="s">
@@ -5441,27 +5462,27 @@
         <v>129</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2">
+      <c r="A101" s="15">
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F101" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G101)</f>
         <v>1</v>
       </c>
       <c r="G101" s="6" t="s">
@@ -5474,27 +5495,27 @@
         <v>130</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2">
+      <c r="A102" s="15">
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F102" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G102)</f>
         <v>1</v>
       </c>
       <c r="G102" s="6" t="s">
@@ -5507,11 +5528,11 @@
         <v>130</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2">
+      <c r="A103" s="15">
         <v>38</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -5521,13 +5542,13 @@
         <v>52</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>114</v>
       </c>
       <c r="F103" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G103)</f>
         <v>2</v>
       </c>
       <c r="G103" s="6" t="s">
@@ -5542,28 +5563,28 @@
         <v>129</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="O103" s="3"/>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="2">
+      <c r="A104" s="15">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F104" s="7">
-        <f t="shared" si="3"/>
+        <f>LEN(G104)</f>
         <v>2</v>
       </c>
       <c r="G104" s="6" t="s">
@@ -5579,28 +5600,28 @@
         <v>4</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L104" s="2"/>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="2">
+      <c r="A105" s="15">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F105" s="7">
-        <f t="shared" ref="F105:F118" si="4">LEN(G105)</f>
+        <f>LEN(G105)</f>
         <v>2</v>
       </c>
       <c r="G105" s="6" t="s">
@@ -5616,34 +5637,34 @@
         <v>2</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="2">
+      <c r="A106" s="15">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F106" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G106)</f>
         <v>2</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>128</v>
@@ -5655,27 +5676,30 @@
         <v>3</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L106" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
+      <c r="A107" s="15">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F107" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G107)</f>
         <v>2</v>
       </c>
       <c r="G107" s="6" t="s">
@@ -5691,34 +5715,34 @@
         <v>2</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L107" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
+      <c r="A108" s="15">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F108" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G108)</f>
         <v>2</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>129</v>
@@ -5727,31 +5751,31 @@
         <v>129</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
+      <c r="A109" s="15">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F109" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G109)</f>
         <v>2</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>129</v>
@@ -5760,31 +5784,31 @@
         <v>129</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
+      <c r="A110" s="15">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F110" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G110)</f>
         <v>2</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>129</v>
@@ -5793,28 +5817,31 @@
         <v>129</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
+      <c r="A111" s="15">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>409</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F111" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G111)</f>
         <v>3</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>128</v>
@@ -5826,31 +5853,34 @@
         <v>2</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
+      <c r="A112" s="15">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>410</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F112" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G112)</f>
         <v>3</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>130</v>
@@ -5859,28 +5889,31 @@
         <v>130</v>
       </c>
       <c r="L112" s="2" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
+      <c r="A113" s="15">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>411</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F113" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G113)</f>
         <v>3</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>128</v>
@@ -5892,31 +5925,34 @@
         <v>5</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
+      <c r="A114" s="15">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>412</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F114" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G114)</f>
         <v>3</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>128</v>
@@ -5928,31 +5964,34 @@
         <v>1</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L114" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
+      <c r="A115" s="15">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>413</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F115" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G115)</f>
         <v>3</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>128</v>
@@ -5964,31 +6003,34 @@
         <v>2</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
+      <c r="A116" s="15">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F116" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G116)</f>
         <v>3</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>130</v>
@@ -5997,31 +6039,31 @@
         <v>130</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
+      <c r="A117" s="15">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F117" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G117)</f>
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>129</v>
@@ -6030,28 +6072,31 @@
         <v>129</v>
       </c>
       <c r="L117" s="2" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
+      <c r="A118" s="15">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>372</v>
+        <v>367</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>415</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>114</v>
       </c>
       <c r="F118" s="7">
-        <f t="shared" si="4"/>
+        <f>LEN(G118)</f>
         <v>3</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>128</v>
@@ -6063,10 +6108,10 @@
         <v>3</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -10480,14 +10525,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:K1000">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="White"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A9:O1000">
+  <autoFilter ref="E1:K1000"/>
+  <sortState ref="A7:O1000">
     <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="394">
   <si>
     <t>#</t>
   </si>
@@ -117,18 +117,12 @@
     <t>野蛮生长荆棘</t>
   </si>
   <si>
-    <t>泰泽，水流拥抱者</t>
-  </si>
-  <si>
     <t>水元素</t>
   </si>
   <si>
     <t>熔岩石像鬼</t>
   </si>
   <si>
-    <t>要塞海市蜃楼</t>
-  </si>
-  <si>
     <t>冰元素</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
     <t>群体催眠</t>
   </si>
   <si>
-    <t>催眠师辛洛克</t>
-  </si>
-  <si>
     <t>意念植入</t>
   </si>
   <si>
@@ -261,9 +252,6 @@
     <t>Thorns of wild growth</t>
   </si>
   <si>
-    <t>Tarzar the Water Embracer</t>
-  </si>
-  <si>
     <t>Elemental Water</t>
   </si>
   <si>
@@ -333,9 +321,6 @@
     <t>Mass Hypnosis</t>
   </si>
   <si>
-    <t>Thinlock the Hypnotist</t>
-  </si>
-  <si>
     <t>Mind Inception</t>
   </si>
   <si>
@@ -387,18 +372,9 @@
     <t>* 死亡时, 对指定生物造成1点伤害</t>
   </si>
   <si>
-    <t>* 嘲讽: 攻击中的生物必须指定任一防御者作为目标 * 防御者</t>
-  </si>
-  <si>
-    <t>* 冻结自身, 目标玩家抽1张卡 * 消耗W, 冻结自身和目标生物</t>
-  </si>
-  <si>
     <t>* 嘲讽 * 位于绿色卡槽中时, 获得+1/+1</t>
   </si>
   <si>
-    <t>* 攻击后, 冻结目标生物.</t>
-  </si>
-  <si>
     <t>* 其它所有的黑曜石力量+1.</t>
   </si>
   <si>
@@ -534,9 +510,6 @@
     <t>转化</t>
   </si>
   <si>
-    <t>* 进攻时, 获得1个符文</t>
-  </si>
-  <si>
     <t>* 将一个你控制的蓝色生物置于墓地并获得2个符文</t>
   </si>
   <si>
@@ -570,24 +543,12 @@
     <t>* 目标生物攻击时, 对面的生物被退回其拥有者手牌</t>
   </si>
   <si>
-    <t>* 上场时, 获得一个与其所在卡槽颜色相同的生物所有权, 该生物仍然处于其原有卡槽 * 催眠师辛洛克进入墓地时, 归还所控制的生物.</t>
-  </si>
-  <si>
     <t>* 冷凝虚影以目标生物的复制品进入战场</t>
   </si>
   <si>
     <t>* 死亡时, 回到其拥有者手牌</t>
   </si>
   <si>
-    <t>冰行者塞恩</t>
-  </si>
-  <si>
-    <t>Theon the Ice Walker</t>
-  </si>
-  <si>
-    <t>* 攻击一个被冻结的生物时, 将目标生物退回其拥有者手牌, 然后对目标元素师造成伤害.</t>
-  </si>
-  <si>
     <t>* 立即杀死被冻结的生物</t>
   </si>
   <si>
@@ -1110,12 +1071,6 @@
     <t>* 目标生物被冻结, 直到目标生物的回合结束 * 目标生物无法防御, 直到回合结束</t>
   </si>
   <si>
-    <t>* 幻影裂片无法被防御</t>
-  </si>
-  <si>
-    <t>* 法力粘虫进入墓地后, 你可以消耗W, 立即召唤 一个2/2的法力黏虫幼体进入战场.</t>
-  </si>
-  <si>
     <t>* 对目标生物造成2点伤害, 施法的元素师恢复2点生命值, 如果目标生物因此而死亡, 为其所有者召唤一个1/1的孢子并置于死亡生物的卡槽</t>
   </si>
   <si>
@@ -1159,12 +1114,99 @@
   </si>
   <si>
     <t>* 防御者(进攻时力量-1, 防守时力量+1)</t>
+  </si>
+  <si>
+    <t>蜥蜴人</t>
+  </si>
+  <si>
+    <t>Lizardman</t>
+  </si>
+  <si>
+    <t>要塞幻象</t>
+  </si>
+  <si>
+    <t>* 进攻时, 获得1点生命</t>
+  </si>
+  <si>
+    <t>Marsh Witch</t>
+  </si>
+  <si>
+    <t>* 进攻时, 敌方力量-1</t>
+  </si>
+  <si>
+    <t>* 幻影裂片无法防御与被防御</t>
+  </si>
+  <si>
+    <t>* 嘲讽: 攻击中的生物必须选定一个生物不参与战斗与嘲讽者决斗</t>
+  </si>
+  <si>
+    <t>催眠师</t>
+  </si>
+  <si>
+    <t>Hypnotist</t>
+  </si>
+  <si>
+    <t>* 上场时, 获得一个与其所在卡槽颜色相同的生物所有权 * 催眠师辛洛克进入墓地时, 归还所控制的生物.</t>
+  </si>
+  <si>
+    <t>* 法力粘虫进入墓地后, 你可以消耗1, 立即召唤 一个2P的法力黏虫幼体进入战场.</t>
+  </si>
+  <si>
+    <t>Ice Walker</t>
+  </si>
+  <si>
+    <t>冰行者</t>
+  </si>
+  <si>
+    <t>* 攻击时, 将一个力量不大于冰行者的生物退回</t>
+  </si>
+  <si>
+    <t>* 攻击时, 每一个敌方目标会使敌方的总力量-1</t>
+  </si>
+  <si>
+    <t>沼泽女巫</t>
+  </si>
+  <si>
+    <t>Hydromancer</t>
+  </si>
+  <si>
+    <t>水流术士</t>
+  </si>
+  <si>
+    <t>* 若本回合没有参与战斗, 额外抽一张卡 * 攻击时, 选择一个敌方目标不参与战斗</t>
+  </si>
+  <si>
+    <t>海卓</t>
+  </si>
+  <si>
+    <t>Hydra</t>
+  </si>
+  <si>
+    <t>* 死亡时, 召唤6个P1的海卓蛇头进入战场, 可以以放置于任意卡槽</t>
+  </si>
+  <si>
+    <t>海龙</t>
+  </si>
+  <si>
+    <t>Sea Dragon</t>
+  </si>
+  <si>
+    <t>* 上场时, 指定一个敌方卡槽, 每回合力量-1, 海龙死亡后该效果消失</t>
+  </si>
+  <si>
+    <t>未知海怪</t>
+  </si>
+  <si>
+    <t>Unknown Kraken</t>
+  </si>
+  <si>
+    <t>* 上场时和每回合开始时, 敌方目标卡槽中力量最低的生物对其所有者造成一次伤害</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1260,7 +1302,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1276,7 +1318,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1318,7 +1360,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1351,9 +1393,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1386,6 +1445,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1567,7 +1643,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1002" sqref="K1002"/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1576,11 +1652,11 @@
     <col min="2" max="2" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="5" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="140.5703125" style="9" customWidth="1"/>
     <col min="12" max="12" width="11.140625" style="2" bestFit="1" customWidth="1"/>
@@ -1612,13 +1688,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>9</v>
@@ -1644,23 +1720,23 @@
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="N2" s="3"/>
     </row>
@@ -1672,26 +1748,26 @@
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="N3" s="3"/>
     </row>
@@ -1703,26 +1779,26 @@
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="N4" s="3"/>
     </row>
@@ -1734,26 +1810,26 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="N5" s="3"/>
     </row>
@@ -1762,31 +1838,31 @@
         <v>1000002</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="N6" s="3"/>
     </row>
@@ -1801,25 +1877,25 @@
         <v>20</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I7" s="4">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N7" s="3"/>
     </row>
@@ -1834,25 +1910,25 @@
         <v>21</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I8" s="4">
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="N8" s="3"/>
     </row>
@@ -1867,28 +1943,28 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1899,28 +1975,28 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2">
         <v>1</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1931,28 +2007,28 @@
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F11" s="4">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I11" s="4">
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -1964,26 +2040,26 @@
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="N12" s="3"/>
     </row>
@@ -1995,29 +2071,29 @@
         <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2028,26 +2104,26 @@
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -2062,25 +2138,25 @@
         <v>28</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F15" s="4">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I15" s="4">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="N15" s="4"/>
     </row>
@@ -2092,93 +2168,90 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2">
         <v>1</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>1000013</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
+        <v>1000118</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="4">
+        <v>108</v>
+      </c>
+      <c r="I17" s="2">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="3"/>
+      <c r="J17" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>1000016</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>1000119</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="4">
-        <v>2</v>
+      <c r="C18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K18" s="4"/>
-      <c r="N18" s="3"/>
+        <v>108</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
@@ -2188,25 +2261,25 @@
         <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2">
         <v>1</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -2218,26 +2291,26 @@
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F20" s="4">
         <v>2</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="N20" s="3"/>
     </row>
@@ -2249,26 +2322,26 @@
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F21" s="4">
         <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="N21" s="3"/>
     </row>
@@ -2277,29 +2350,29 @@
         <v>1000042</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F22" s="4">
         <v>2</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N22" s="3"/>
     </row>
@@ -2314,93 +2387,89 @@
         <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F23" s="4">
         <v>2</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
-        <v>1000011</v>
+        <v>1000013</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F24" s="4">
         <v>2</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I24" s="4">
         <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
-        <v>1000005</v>
+        <v>1000016</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F25" s="4">
         <v>2</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>116</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
@@ -2410,60 +2479,60 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2">
         <v>1</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
-        <v>1000010</v>
+        <v>1000011</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F27" s="4">
         <v>2</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I27" s="4">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="N27" s="3"/>
     </row>
@@ -2472,29 +2541,29 @@
         <v>1000012</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F28" s="4">
         <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="N28" s="3"/>
     </row>
@@ -2506,26 +2575,26 @@
         <v>12</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F29" s="4">
         <v>3</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="N29" s="3"/>
     </row>
@@ -2537,90 +2606,92 @@
         <v>12</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F30" s="4">
         <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
-        <v>1000017</v>
+        <v>1000005</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I31" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="N31" s="3"/>
+        <v>372</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>1000045</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F32" s="4">
         <v>3</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="N32" s="3"/>
     </row>
@@ -2632,25 +2703,25 @@
         <v>13</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2661,27 +2732,27 @@
         <v>13</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F34" s="6">
         <v>1</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -2695,26 +2766,26 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F35" s="4">
         <v>1</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="N35" s="4"/>
     </row>
@@ -2726,25 +2797,25 @@
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2755,26 +2826,26 @@
         <v>13</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F37" s="4">
         <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="N37" s="3"/>
     </row>
@@ -2786,25 +2857,25 @@
         <v>13</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2815,93 +2886,93 @@
         <v>13</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I39" s="2">
         <v>1</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
-        <v>1000021</v>
+        <v>1000010</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F40" s="4">
         <v>3</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
-        <v>1000047</v>
+        <v>1000017</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="D41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="F41" s="4">
         <v>3</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I41" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>183</v>
+        <v>376</v>
       </c>
       <c r="N41" s="3"/>
     </row>
@@ -2913,155 +2984,157 @@
         <v>13</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F42" s="2">
         <v>2</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
-        <v>1000001</v>
+        <v>1000021</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>119</v>
+        <v>14</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F43" s="4">
         <v>3</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I43" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="N43" s="3"/>
     </row>
     <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
-        <v>1000020</v>
+        <v>1000047</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>186</v>
+        <v>373</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>187</v>
+        <v>374</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F44" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>188</v>
+        <v>375</v>
       </c>
       <c r="N44" s="3"/>
     </row>
     <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <v>1000024</v>
+        <v>1000001</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F45" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I45" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="N45" s="3"/>
     </row>
     <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
-        <v>1000027</v>
+        <v>1000020</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>87</v>
+        <v>377</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F46" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I46" s="4">
         <v>3</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K46" s="4"/>
+        <v>330</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>379</v>
+      </c>
       <c r="N46" s="3"/>
     </row>
     <row r="47" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3072,25 +3145,25 @@
         <v>14</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F47" s="2">
         <v>2</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3101,59 +3174,59 @@
         <v>12</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F48" s="4">
         <v>2</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N48" s="3"/>
     </row>
     <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
-        <v>1000019</v>
+        <v>1000024</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F49" s="4">
+        <v>5</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" s="4">
         <v>4</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I49" s="4">
-        <v>3</v>
-      </c>
       <c r="J49" s="4" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>123</v>
+        <v>380</v>
       </c>
       <c r="N49" s="3"/>
     </row>
@@ -3165,26 +3238,26 @@
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F50" s="4">
         <v>1</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K50" s="4" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="N50" s="3"/>
     </row>
@@ -3196,25 +3269,25 @@
         <v>13</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3228,25 +3301,25 @@
         <v>23</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F52" s="4">
         <v>2</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I52" s="4">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="N52" s="3"/>
     </row>
@@ -3258,26 +3331,26 @@
         <v>13</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F53" s="4">
         <v>2</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="N53" s="3"/>
     </row>
@@ -3289,28 +3362,28 @@
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F54" s="4">
         <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I54" s="4">
         <v>2</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N54" s="3"/>
     </row>
@@ -3322,28 +3395,28 @@
         <v>13</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F55" s="2">
         <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I55" s="2">
         <v>1</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="56" spans="1:14" s="6" customFormat="1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3354,26 +3427,26 @@
         <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F56" s="2">
         <v>2</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56" s="2">
         <v>2</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
@@ -3388,28 +3461,28 @@
         <v>13</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F57" s="2">
         <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I57" s="2">
         <v>2</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3420,28 +3493,28 @@
         <v>13</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F58" s="2">
         <v>2</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I58" s="2">
         <v>2</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3452,25 +3525,25 @@
         <v>14</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F59" s="2">
         <v>2</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,25 +3554,25 @@
         <v>14</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F60" s="2">
         <v>3</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,28 +3583,28 @@
         <v>14</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="F61" s="4">
         <v>2</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I61" s="4">
         <v>2</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="N61" s="3"/>
     </row>
@@ -3546,25 +3619,25 @@
         <v>31</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F62" s="4">
         <v>3</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I62" s="4">
         <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N62" s="3"/>
     </row>
@@ -3576,28 +3649,28 @@
         <v>13</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F63" s="2">
         <v>2</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I63" s="2">
         <v>1</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,28 +3681,28 @@
         <v>14</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F64" s="2">
         <v>3</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I64" s="2">
         <v>2</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3640,28 +3713,28 @@
         <v>14</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F65" s="2">
         <v>3</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I65" s="2">
         <v>3</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,28 +3745,28 @@
         <v>14</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F66" s="2">
         <v>3</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I66" s="2">
         <v>2</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,25 +3777,25 @@
         <v>13</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F67" s="2">
         <v>4</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,26 +3806,26 @@
         <v>13</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F68" s="4">
         <v>2</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K68" s="4" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="N68" s="3"/>
     </row>
@@ -3764,28 +3837,28 @@
         <v>13</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F69" s="2">
         <v>4</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I69" s="2">
         <v>4</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3796,28 +3869,28 @@
         <v>13</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2">
         <v>4</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I70" s="2">
         <v>4</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K70" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3828,28 +3901,28 @@
         <v>14</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F71" s="2">
         <v>4</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I71" s="2">
         <v>3</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K71" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3860,28 +3933,28 @@
         <v>13</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F72" s="2">
         <v>4</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I72" s="2">
         <v>4</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3892,25 +3965,25 @@
         <v>14</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F73" s="2">
         <v>2</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3921,28 +3994,28 @@
         <v>13</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F74" s="4">
         <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I74" s="4">
         <v>5</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="N74" s="3"/>
     </row>
@@ -3954,28 +4027,28 @@
         <v>14</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F75" s="2">
         <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I75" s="2">
         <v>5</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K75" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3986,25 +4059,25 @@
         <v>14</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2">
         <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4015,25 +4088,25 @@
         <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2">
         <v>2</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K77" s="9" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4044,25 +4117,25 @@
         <v>13</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F78" s="2">
         <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,25 +4146,25 @@
         <v>12</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F79" s="2">
         <v>3</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4099,29 +4172,29 @@
         <v>1000036</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F80" s="4">
         <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="N80" s="3"/>
     </row>
@@ -4130,31 +4203,31 @@
         <v>1000050</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F81" s="4">
         <v>3</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I81" s="4">
         <v>2</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="N81" s="3"/>
     </row>
@@ -4166,28 +4239,28 @@
         <v>14</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2">
         <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I82" s="2">
         <v>3</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4198,25 +4271,25 @@
         <v>13</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F83" s="2">
         <v>3</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4227,28 +4300,28 @@
         <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F84" s="2">
         <v>3</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I84" s="2">
         <v>4</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,28 +4332,28 @@
         <v>14</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F85" s="2">
         <v>3</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I85" s="2">
         <v>3</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,25 +4364,25 @@
         <v>14</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2">
         <v>3</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4320,25 +4393,25 @@
         <v>13</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F87" s="2">
         <v>3</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4349,25 +4422,25 @@
         <v>12</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F88" s="2">
         <v>4</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,28 +4451,28 @@
         <v>13</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F89" s="4">
         <v>4</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I89" s="4">
         <v>4</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="N89" s="3"/>
     </row>
@@ -4408,31 +4481,31 @@
         <v>1000084</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F90" s="2">
         <v>4</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I90" s="2">
         <v>4</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4443,25 +4516,25 @@
         <v>14</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F91" s="2">
         <v>4</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4472,25 +4545,25 @@
         <v>14</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F92" s="2">
         <v>4</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4501,26 +4574,26 @@
         <v>13</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F93" s="4">
         <v>1</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="N93" s="3"/>
     </row>
@@ -4529,31 +4602,31 @@
         <v>1000094</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F94" s="2">
         <v>4</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I94" s="2">
         <v>3</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4564,31 +4637,31 @@
         <v>13</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F95" s="4">
         <v>5</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="I95" s="4">
         <v>5</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N95" s="3"/>
     </row>
@@ -4600,28 +4673,28 @@
         <v>13</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F96" s="2">
         <v>1</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I96" s="2">
         <v>1</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="K96" s="2" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,28 +4705,28 @@
         <v>14</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2">
         <v>1</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I97" s="2">
         <v>1</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4664,28 +4737,28 @@
         <v>13</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F98" s="2">
         <v>1</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I98" s="2">
         <v>1</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4696,25 +4769,25 @@
         <v>13</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F99" s="2">
         <v>1</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K99" s="2" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4725,25 +4798,25 @@
         <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F100" s="2">
         <v>1</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K100" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,25 +4827,25 @@
         <v>13</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F101" s="2">
         <v>1</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K101" s="2" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4783,25 +4856,25 @@
         <v>13</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F102" s="2">
         <v>1</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4812,26 +4885,26 @@
         <v>13</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F103" s="4">
         <v>2</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="N103" s="3"/>
     </row>
@@ -4843,25 +4916,25 @@
         <v>13</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F104" s="2">
         <v>2</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I104" s="2">
         <v>2</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="K104" s="2"/>
     </row>
@@ -4873,28 +4946,28 @@
         <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2">
         <v>2</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I105" s="2">
         <v>1</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4905,28 +4978,28 @@
         <v>14</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2">
         <v>2</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I106" s="2">
         <v>1</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,28 +5010,28 @@
         <v>14</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F107" s="2">
         <v>2</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I107" s="2">
         <v>2</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4969,25 +5042,25 @@
         <v>13</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F108" s="2">
         <v>2</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4998,25 +5071,25 @@
         <v>13</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2">
         <v>2</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5027,25 +5100,25 @@
         <v>13</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F110" s="2">
         <v>2</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5056,28 +5129,28 @@
         <v>13</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F111" s="2">
         <v>3</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I111" s="2">
         <v>2</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -5088,28 +5161,28 @@
         <v>12</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F112" s="2">
         <v>3</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10">
         <v>1000112</v>
       </c>
@@ -5117,31 +5190,31 @@
         <v>14</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F113" s="2">
         <v>3</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I113" s="2">
         <v>3</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10">
         <v>1000113</v>
       </c>
@@ -5149,31 +5222,31 @@
         <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F114" s="2">
         <v>3</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I114" s="2">
         <v>2</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K114" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10">
         <v>1000114</v>
       </c>
@@ -5181,31 +5254,31 @@
         <v>13</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F115" s="2">
         <v>3</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I115" s="2">
         <v>2</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10">
         <v>1000115</v>
       </c>
@@ -5213,28 +5286,28 @@
         <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F116" s="2">
         <v>3</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="K116" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10">
         <v>1000116</v>
       </c>
@@ -5242,28 +5315,28 @@
         <v>12</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F117" s="2">
         <v>3</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K117" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10">
         <v>1000117</v>
       </c>
@@ -5271,4436 +5344,4571 @@
         <v>14</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F118" s="2">
         <v>3</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I118" s="2">
         <v>3</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10">
-        <v>1000118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000027</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F119" s="4">
+        <v>5</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I119" s="4">
+        <v>5</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K119" s="4"/>
+      <c r="N119" s="3"/>
+    </row>
+    <row r="120" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10">
-        <v>1000119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1000019</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120" s="4">
+        <v>6</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="4">
+        <v>4</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="N120" s="3"/>
+    </row>
+    <row r="121" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10">
         <v>1000120</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121" s="2">
+        <v>6</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I121" s="2">
+        <v>6</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="K121" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>1000121</v>
       </c>
-    </row>
-    <row r="123" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122" s="2">
+        <v>7</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I122" s="2">
+        <v>7</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="K122" s="9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10">
         <v>1000122</v>
       </c>
-    </row>
-    <row r="124" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F123" s="2">
+        <v>8</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I123" s="2">
+        <v>6</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K123" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10">
         <v>1000123</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10">
         <v>1000124</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10">
         <v>1000125</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>1000126</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10">
         <v>1000127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10">
         <v>1000128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>1000129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>1000130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>1000131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>1000132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>1000133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>1000134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>1000135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10">
         <v>1000136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10">
         <v>1000137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>1000138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>1000139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>1000140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>1000141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>1000142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10">
         <v>1000143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10">
         <v>1000144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10">
         <v>1000145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10">
         <v>1000146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
         <v>1000147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10">
         <v>1000148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10">
         <v>1000149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10">
         <v>1000150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10">
         <v>1000151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10">
         <v>1000152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10">
         <v>1000153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10">
         <v>1000154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10">
         <v>1000155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10">
         <v>1000156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10">
         <v>1000157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10">
         <v>1000158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10">
         <v>1000159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10">
         <v>1000160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10">
         <v>1000161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10">
         <v>1000162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10">
         <v>1000163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10">
         <v>1000164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10">
         <v>1000165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10">
         <v>1000166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10">
         <v>1000167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10">
         <v>1000168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10">
         <v>1000169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10">
         <v>1000170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10">
         <v>1000171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10">
         <v>1000172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10">
         <v>1000173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10">
         <v>1000174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10">
         <v>1000175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10">
         <v>1000176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10">
         <v>1000177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10">
         <v>1000178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10">
         <v>1000179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10">
         <v>1000180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10">
         <v>1000181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10">
         <v>1000182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10">
         <v>1000183</v>
       </c>
     </row>
-    <row r="185" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10">
         <v>1000184</v>
       </c>
     </row>
-    <row r="186" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10">
         <v>1000185</v>
       </c>
     </row>
-    <row r="187" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10">
         <v>1000186</v>
       </c>
     </row>
-    <row r="188" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10">
         <v>1000187</v>
       </c>
     </row>
-    <row r="189" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10">
         <v>1000188</v>
       </c>
     </row>
-    <row r="190" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10">
         <v>1000189</v>
       </c>
     </row>
-    <row r="191" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10">
         <v>1000190</v>
       </c>
     </row>
-    <row r="192" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10">
         <v>1000191</v>
       </c>
     </row>
-    <row r="193" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10">
         <v>1000192</v>
       </c>
     </row>
-    <row r="194" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10">
         <v>1000193</v>
       </c>
     </row>
-    <row r="195" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10">
         <v>1000194</v>
       </c>
     </row>
-    <row r="196" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10">
         <v>1000195</v>
       </c>
     </row>
-    <row r="197" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10">
         <v>1000196</v>
       </c>
     </row>
-    <row r="198" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10">
         <v>1000197</v>
       </c>
     </row>
-    <row r="199" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10">
         <v>1000198</v>
       </c>
     </row>
-    <row r="200" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10">
         <v>1000199</v>
       </c>
     </row>
-    <row r="201" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10">
         <v>1000200</v>
       </c>
     </row>
-    <row r="202" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10">
         <v>1000201</v>
       </c>
     </row>
-    <row r="203" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10">
         <v>1000202</v>
       </c>
     </row>
-    <row r="204" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10">
         <v>1000203</v>
       </c>
     </row>
-    <row r="205" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10">
         <v>1000204</v>
       </c>
     </row>
-    <row r="206" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10">
         <v>1000205</v>
       </c>
     </row>
-    <row r="207" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10">
         <v>1000206</v>
       </c>
     </row>
-    <row r="208" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10">
         <v>1000207</v>
       </c>
     </row>
-    <row r="209" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10">
         <v>1000208</v>
       </c>
     </row>
-    <row r="210" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10">
         <v>1000209</v>
       </c>
     </row>
-    <row r="211" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10">
         <v>1000210</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10">
         <v>1000211</v>
       </c>
     </row>
-    <row r="213" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10">
         <v>1000212</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10">
         <v>1000213</v>
       </c>
     </row>
-    <row r="215" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10">
         <v>1000214</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10">
         <v>1000215</v>
       </c>
     </row>
-    <row r="217" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10">
         <v>1000216</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10">
         <v>1000217</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10">
         <v>1000218</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10">
         <v>1000219</v>
       </c>
     </row>
-    <row r="221" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10">
         <v>1000220</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10">
         <v>1000221</v>
       </c>
     </row>
-    <row r="223" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10">
         <v>1000222</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10">
         <v>1000223</v>
       </c>
     </row>
-    <row r="225" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10">
         <v>1000224</v>
       </c>
     </row>
-    <row r="226" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10">
         <v>1000225</v>
       </c>
     </row>
-    <row r="227" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10">
         <v>1000226</v>
       </c>
     </row>
-    <row r="228" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10">
         <v>1000227</v>
       </c>
     </row>
-    <row r="229" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10">
         <v>1000228</v>
       </c>
     </row>
-    <row r="230" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10">
         <v>1000229</v>
       </c>
     </row>
-    <row r="231" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10">
         <v>1000230</v>
       </c>
     </row>
-    <row r="232" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10">
         <v>1000231</v>
       </c>
     </row>
-    <row r="233" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10">
         <v>1000232</v>
       </c>
     </row>
-    <row r="234" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10">
         <v>1000233</v>
       </c>
     </row>
-    <row r="235" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10">
         <v>1000234</v>
       </c>
     </row>
-    <row r="236" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10">
         <v>1000235</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10">
         <v>1000236</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10">
         <v>1000237</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10">
         <v>1000238</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10">
         <v>1000239</v>
       </c>
     </row>
-    <row r="241" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10">
         <v>1000240</v>
       </c>
     </row>
-    <row r="242" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10">
         <v>1000241</v>
       </c>
     </row>
-    <row r="243" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10">
         <v>1000242</v>
       </c>
     </row>
-    <row r="244" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10">
         <v>1000243</v>
       </c>
     </row>
-    <row r="245" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10">
         <v>1000244</v>
       </c>
     </row>
-    <row r="246" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10">
         <v>1000245</v>
       </c>
     </row>
-    <row r="247" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10">
         <v>1000246</v>
       </c>
     </row>
-    <row r="248" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10">
         <v>1000247</v>
       </c>
     </row>
-    <row r="249" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10">
         <v>1000248</v>
       </c>
     </row>
-    <row r="250" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10">
         <v>1000249</v>
       </c>
     </row>
-    <row r="251" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10">
         <v>1000250</v>
       </c>
     </row>
-    <row r="252" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10">
         <v>1000251</v>
       </c>
     </row>
-    <row r="253" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10">
         <v>1000252</v>
       </c>
     </row>
-    <row r="254" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10">
         <v>1000253</v>
       </c>
     </row>
-    <row r="255" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10">
         <v>1000254</v>
       </c>
     </row>
-    <row r="256" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10">
         <v>1000255</v>
       </c>
     </row>
-    <row r="257" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10">
         <v>1000256</v>
       </c>
     </row>
-    <row r="258" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10">
         <v>1000257</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10">
         <v>1000258</v>
       </c>
     </row>
-    <row r="260" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10">
         <v>1000259</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10">
         <v>1000260</v>
       </c>
     </row>
-    <row r="262" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10">
         <v>1000261</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10">
         <v>1000262</v>
       </c>
     </row>
-    <row r="264" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10">
         <v>1000263</v>
       </c>
     </row>
-    <row r="265" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10">
         <v>1000264</v>
       </c>
     </row>
-    <row r="266" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10">
         <v>1000265</v>
       </c>
     </row>
-    <row r="267" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10">
         <v>1000266</v>
       </c>
     </row>
-    <row r="268" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10">
         <v>1000267</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10">
         <v>1000268</v>
       </c>
     </row>
-    <row r="270" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10">
         <v>1000269</v>
       </c>
     </row>
-    <row r="271" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10">
         <v>1000270</v>
       </c>
     </row>
-    <row r="272" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10">
         <v>1000271</v>
       </c>
     </row>
-    <row r="273" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10">
         <v>1000272</v>
       </c>
     </row>
-    <row r="274" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10">
         <v>1000273</v>
       </c>
     </row>
-    <row r="275" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10">
         <v>1000274</v>
       </c>
     </row>
-    <row r="276" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10">
         <v>1000275</v>
       </c>
     </row>
-    <row r="277" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10">
         <v>1000276</v>
       </c>
     </row>
-    <row r="278" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10">
         <v>1000277</v>
       </c>
     </row>
-    <row r="279" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10">
         <v>1000278</v>
       </c>
     </row>
-    <row r="280" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10">
         <v>1000279</v>
       </c>
     </row>
-    <row r="281" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10">
         <v>1000280</v>
       </c>
     </row>
-    <row r="282" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10">
         <v>1000281</v>
       </c>
     </row>
-    <row r="283" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10">
         <v>1000282</v>
       </c>
     </row>
-    <row r="284" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10">
         <v>1000283</v>
       </c>
     </row>
-    <row r="285" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10">
         <v>1000284</v>
       </c>
     </row>
-    <row r="286" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10">
         <v>1000285</v>
       </c>
     </row>
-    <row r="287" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10">
         <v>1000286</v>
       </c>
     </row>
-    <row r="288" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10">
         <v>1000287</v>
       </c>
     </row>
-    <row r="289" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10">
         <v>1000288</v>
       </c>
     </row>
-    <row r="290" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10">
         <v>1000289</v>
       </c>
     </row>
-    <row r="291" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10">
         <v>1000290</v>
       </c>
     </row>
-    <row r="292" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10">
         <v>1000291</v>
       </c>
     </row>
-    <row r="293" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10">
         <v>1000292</v>
       </c>
     </row>
-    <row r="294" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10">
         <v>1000293</v>
       </c>
     </row>
-    <row r="295" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10">
         <v>1000294</v>
       </c>
     </row>
-    <row r="296" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10">
         <v>1000295</v>
       </c>
     </row>
-    <row r="297" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10">
         <v>1000296</v>
       </c>
     </row>
-    <row r="298" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10">
         <v>1000297</v>
       </c>
     </row>
-    <row r="299" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10">
         <v>1000298</v>
       </c>
     </row>
-    <row r="300" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10">
         <v>1000299</v>
       </c>
     </row>
-    <row r="301" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10">
         <v>1000300</v>
       </c>
     </row>
-    <row r="302" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10">
         <v>1000301</v>
       </c>
     </row>
-    <row r="303" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10">
         <v>1000302</v>
       </c>
     </row>
-    <row r="304" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10">
         <v>1000303</v>
       </c>
     </row>
-    <row r="305" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10">
         <v>1000304</v>
       </c>
     </row>
-    <row r="306" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10">
         <v>1000305</v>
       </c>
     </row>
-    <row r="307" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10">
         <v>1000306</v>
       </c>
     </row>
-    <row r="308" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10">
         <v>1000307</v>
       </c>
     </row>
-    <row r="309" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10">
         <v>1000308</v>
       </c>
     </row>
-    <row r="310" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10">
         <v>1000309</v>
       </c>
     </row>
-    <row r="311" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10">
         <v>1000310</v>
       </c>
     </row>
-    <row r="312" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10">
         <v>1000311</v>
       </c>
     </row>
-    <row r="313" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10">
         <v>1000312</v>
       </c>
     </row>
-    <row r="314" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10">
         <v>1000313</v>
       </c>
     </row>
-    <row r="315" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10">
         <v>1000314</v>
       </c>
     </row>
-    <row r="316" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10">
         <v>1000315</v>
       </c>
     </row>
-    <row r="317" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10">
         <v>1000316</v>
       </c>
     </row>
-    <row r="318" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10">
         <v>1000317</v>
       </c>
     </row>
-    <row r="319" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10">
         <v>1000318</v>
       </c>
     </row>
-    <row r="320" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10">
         <v>1000319</v>
       </c>
     </row>
-    <row r="321" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10">
         <v>1000320</v>
       </c>
     </row>
-    <row r="322" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10">
         <v>1000321</v>
       </c>
     </row>
-    <row r="323" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10">
         <v>1000322</v>
       </c>
     </row>
-    <row r="324" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10">
         <v>1000323</v>
       </c>
     </row>
-    <row r="325" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10">
         <v>1000324</v>
       </c>
     </row>
-    <row r="326" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10">
         <v>1000325</v>
       </c>
     </row>
-    <row r="327" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10">
         <v>1000326</v>
       </c>
     </row>
-    <row r="328" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10">
         <v>1000327</v>
       </c>
     </row>
-    <row r="329" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10">
         <v>1000328</v>
       </c>
     </row>
-    <row r="330" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10">
         <v>1000329</v>
       </c>
     </row>
-    <row r="331" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10">
         <v>1000330</v>
       </c>
     </row>
-    <row r="332" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10">
         <v>1000331</v>
       </c>
     </row>
-    <row r="333" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10">
         <v>1000332</v>
       </c>
     </row>
-    <row r="334" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10">
         <v>1000333</v>
       </c>
     </row>
-    <row r="335" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10">
         <v>1000334</v>
       </c>
     </row>
-    <row r="336" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10">
         <v>1000335</v>
       </c>
     </row>
-    <row r="337" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10">
         <v>1000336</v>
       </c>
     </row>
-    <row r="338" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10">
         <v>1000337</v>
       </c>
     </row>
-    <row r="339" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10">
         <v>1000338</v>
       </c>
     </row>
-    <row r="340" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10">
         <v>1000339</v>
       </c>
     </row>
-    <row r="341" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10">
         <v>1000340</v>
       </c>
     </row>
-    <row r="342" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10">
         <v>1000341</v>
       </c>
     </row>
-    <row r="343" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10">
         <v>1000342</v>
       </c>
     </row>
-    <row r="344" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10">
         <v>1000343</v>
       </c>
     </row>
-    <row r="345" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10">
         <v>1000344</v>
       </c>
     </row>
-    <row r="346" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10">
         <v>1000345</v>
       </c>
     </row>
-    <row r="347" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10">
         <v>1000346</v>
       </c>
     </row>
-    <row r="348" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10">
         <v>1000347</v>
       </c>
     </row>
-    <row r="349" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10">
         <v>1000348</v>
       </c>
     </row>
-    <row r="350" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10">
         <v>1000349</v>
       </c>
     </row>
-    <row r="351" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10">
         <v>1000350</v>
       </c>
     </row>
-    <row r="352" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10">
         <v>1000351</v>
       </c>
     </row>
-    <row r="353" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10">
         <v>1000352</v>
       </c>
     </row>
-    <row r="354" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10">
         <v>1000353</v>
       </c>
     </row>
-    <row r="355" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10">
         <v>1000354</v>
       </c>
     </row>
-    <row r="356" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10">
         <v>1000355</v>
       </c>
     </row>
-    <row r="357" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10">
         <v>1000356</v>
       </c>
     </row>
-    <row r="358" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10">
         <v>1000357</v>
       </c>
     </row>
-    <row r="359" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="10">
         <v>1000358</v>
       </c>
     </row>
-    <row r="360" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10">
         <v>1000359</v>
       </c>
     </row>
-    <row r="361" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10">
         <v>1000360</v>
       </c>
     </row>
-    <row r="362" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10">
         <v>1000361</v>
       </c>
     </row>
-    <row r="363" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10">
         <v>1000362</v>
       </c>
     </row>
-    <row r="364" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10">
         <v>1000363</v>
       </c>
     </row>
-    <row r="365" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10">
         <v>1000364</v>
       </c>
     </row>
-    <row r="366" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10">
         <v>1000365</v>
       </c>
     </row>
-    <row r="367" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10">
         <v>1000366</v>
       </c>
     </row>
-    <row r="368" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10">
         <v>1000367</v>
       </c>
     </row>
-    <row r="369" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10">
         <v>1000368</v>
       </c>
     </row>
-    <row r="370" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10">
         <v>1000369</v>
       </c>
     </row>
-    <row r="371" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="10">
         <v>1000370</v>
       </c>
     </row>
-    <row r="372" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10">
         <v>1000371</v>
       </c>
     </row>
-    <row r="373" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10">
         <v>1000372</v>
       </c>
     </row>
-    <row r="374" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="10">
         <v>1000373</v>
       </c>
     </row>
-    <row r="375" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10">
         <v>1000374</v>
       </c>
     </row>
-    <row r="376" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="10">
         <v>1000375</v>
       </c>
     </row>
-    <row r="377" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10">
         <v>1000376</v>
       </c>
     </row>
-    <row r="378" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="10">
         <v>1000377</v>
       </c>
     </row>
-    <row r="379" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10">
         <v>1000378</v>
       </c>
     </row>
-    <row r="380" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="10">
         <v>1000379</v>
       </c>
     </row>
-    <row r="381" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10">
         <v>1000380</v>
       </c>
     </row>
-    <row r="382" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="10">
         <v>1000381</v>
       </c>
     </row>
-    <row r="383" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="10">
         <v>1000382</v>
       </c>
     </row>
-    <row r="384" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="10">
         <v>1000383</v>
       </c>
     </row>
-    <row r="385" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="10">
         <v>1000384</v>
       </c>
     </row>
-    <row r="386" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="10">
         <v>1000385</v>
       </c>
     </row>
-    <row r="387" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="10">
         <v>1000386</v>
       </c>
     </row>
-    <row r="388" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="10">
         <v>1000387</v>
       </c>
     </row>
-    <row r="389" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="10">
         <v>1000388</v>
       </c>
     </row>
-    <row r="390" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="10">
         <v>1000389</v>
       </c>
     </row>
-    <row r="391" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="10">
         <v>1000390</v>
       </c>
     </row>
-    <row r="392" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="10">
         <v>1000391</v>
       </c>
     </row>
-    <row r="393" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="10">
         <v>1000392</v>
       </c>
     </row>
-    <row r="394" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="10">
         <v>1000393</v>
       </c>
     </row>
-    <row r="395" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="10">
         <v>1000394</v>
       </c>
     </row>
-    <row r="396" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="10">
         <v>1000395</v>
       </c>
     </row>
-    <row r="397" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="10">
         <v>1000396</v>
       </c>
     </row>
-    <row r="398" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="10">
         <v>1000397</v>
       </c>
     </row>
-    <row r="399" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="10">
         <v>1000398</v>
       </c>
     </row>
-    <row r="400" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="10">
         <v>1000399</v>
       </c>
     </row>
-    <row r="401" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="10">
         <v>1000400</v>
       </c>
     </row>
-    <row r="402" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="10">
         <v>1000401</v>
       </c>
     </row>
-    <row r="403" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="10">
         <v>1000402</v>
       </c>
     </row>
-    <row r="404" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="10">
         <v>1000403</v>
       </c>
     </row>
-    <row r="405" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="10">
         <v>1000404</v>
       </c>
     </row>
-    <row r="406" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="10">
         <v>1000405</v>
       </c>
     </row>
-    <row r="407" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="10">
         <v>1000406</v>
       </c>
     </row>
-    <row r="408" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="10">
         <v>1000407</v>
       </c>
     </row>
-    <row r="409" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="10">
         <v>1000408</v>
       </c>
     </row>
-    <row r="410" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="10">
         <v>1000409</v>
       </c>
     </row>
-    <row r="411" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="10">
         <v>1000410</v>
       </c>
     </row>
-    <row r="412" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="10">
         <v>1000411</v>
       </c>
     </row>
-    <row r="413" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="10">
         <v>1000412</v>
       </c>
     </row>
-    <row r="414" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="10">
         <v>1000413</v>
       </c>
     </row>
-    <row r="415" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="10">
         <v>1000414</v>
       </c>
     </row>
-    <row r="416" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="10">
         <v>1000415</v>
       </c>
     </row>
-    <row r="417" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="10">
         <v>1000416</v>
       </c>
     </row>
-    <row r="418" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="10">
         <v>1000417</v>
       </c>
     </row>
-    <row r="419" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="10">
         <v>1000418</v>
       </c>
     </row>
-    <row r="420" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="10">
         <v>1000419</v>
       </c>
     </row>
-    <row r="421" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="10">
         <v>1000420</v>
       </c>
     </row>
-    <row r="422" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="10">
         <v>1000421</v>
       </c>
     </row>
-    <row r="423" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="10">
         <v>1000422</v>
       </c>
     </row>
-    <row r="424" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="10">
         <v>1000423</v>
       </c>
     </row>
-    <row r="425" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="10">
         <v>1000424</v>
       </c>
     </row>
-    <row r="426" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="10">
         <v>1000425</v>
       </c>
     </row>
-    <row r="427" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="10">
         <v>1000426</v>
       </c>
     </row>
-    <row r="428" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="10">
         <v>1000427</v>
       </c>
     </row>
-    <row r="429" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="10">
         <v>1000428</v>
       </c>
     </row>
-    <row r="430" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="10">
         <v>1000429</v>
       </c>
     </row>
-    <row r="431" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="10">
         <v>1000430</v>
       </c>
     </row>
-    <row r="432" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="10">
         <v>1000431</v>
       </c>
     </row>
-    <row r="433" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="10">
         <v>1000432</v>
       </c>
     </row>
-    <row r="434" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="10">
         <v>1000433</v>
       </c>
     </row>
-    <row r="435" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="10">
         <v>1000434</v>
       </c>
     </row>
-    <row r="436" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="10">
         <v>1000435</v>
       </c>
     </row>
-    <row r="437" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="10">
         <v>1000436</v>
       </c>
     </row>
-    <row r="438" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="10">
         <v>1000437</v>
       </c>
     </row>
-    <row r="439" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="10">
         <v>1000438</v>
       </c>
     </row>
-    <row r="440" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="10">
         <v>1000439</v>
       </c>
     </row>
-    <row r="441" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="10">
         <v>1000440</v>
       </c>
     </row>
-    <row r="442" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="10">
         <v>1000441</v>
       </c>
     </row>
-    <row r="443" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="10">
         <v>1000442</v>
       </c>
     </row>
-    <row r="444" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="10">
         <v>1000443</v>
       </c>
     </row>
-    <row r="445" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="10">
         <v>1000444</v>
       </c>
     </row>
-    <row r="446" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="10">
         <v>1000445</v>
       </c>
     </row>
-    <row r="447" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="10">
         <v>1000446</v>
       </c>
     </row>
-    <row r="448" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="10">
         <v>1000447</v>
       </c>
     </row>
-    <row r="449" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="10">
         <v>1000448</v>
       </c>
     </row>
-    <row r="450" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="10">
         <v>1000449</v>
       </c>
     </row>
-    <row r="451" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="10">
         <v>1000450</v>
       </c>
     </row>
-    <row r="452" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="10">
         <v>1000451</v>
       </c>
     </row>
-    <row r="453" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="10">
         <v>1000452</v>
       </c>
     </row>
-    <row r="454" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="10">
         <v>1000453</v>
       </c>
     </row>
-    <row r="455" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="10">
         <v>1000454</v>
       </c>
     </row>
-    <row r="456" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="10">
         <v>1000455</v>
       </c>
     </row>
-    <row r="457" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="10">
         <v>1000456</v>
       </c>
     </row>
-    <row r="458" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="10">
         <v>1000457</v>
       </c>
     </row>
-    <row r="459" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="10">
         <v>1000458</v>
       </c>
     </row>
-    <row r="460" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="10">
         <v>1000459</v>
       </c>
     </row>
-    <row r="461" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="10">
         <v>1000460</v>
       </c>
     </row>
-    <row r="462" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="10">
         <v>1000461</v>
       </c>
     </row>
-    <row r="463" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="10">
         <v>1000462</v>
       </c>
     </row>
-    <row r="464" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="10">
         <v>1000463</v>
       </c>
     </row>
-    <row r="465" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="10">
         <v>1000464</v>
       </c>
     </row>
-    <row r="466" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="10">
         <v>1000465</v>
       </c>
     </row>
-    <row r="467" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="10">
         <v>1000466</v>
       </c>
     </row>
-    <row r="468" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="10">
         <v>1000467</v>
       </c>
     </row>
-    <row r="469" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="10">
         <v>1000468</v>
       </c>
     </row>
-    <row r="470" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="10">
         <v>1000469</v>
       </c>
     </row>
-    <row r="471" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="10">
         <v>1000470</v>
       </c>
     </row>
-    <row r="472" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="10">
         <v>1000471</v>
       </c>
     </row>
-    <row r="473" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="10">
         <v>1000472</v>
       </c>
     </row>
-    <row r="474" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="10">
         <v>1000473</v>
       </c>
     </row>
-    <row r="475" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="10">
         <v>1000474</v>
       </c>
     </row>
-    <row r="476" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="10">
         <v>1000475</v>
       </c>
     </row>
-    <row r="477" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="10">
         <v>1000476</v>
       </c>
     </row>
-    <row r="478" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="10">
         <v>1000477</v>
       </c>
     </row>
-    <row r="479" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="10">
         <v>1000478</v>
       </c>
     </row>
-    <row r="480" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="10">
         <v>1000479</v>
       </c>
     </row>
-    <row r="481" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="10">
         <v>1000480</v>
       </c>
     </row>
-    <row r="482" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="10">
         <v>1000481</v>
       </c>
     </row>
-    <row r="483" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="10">
         <v>1000482</v>
       </c>
     </row>
-    <row r="484" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="10">
         <v>1000483</v>
       </c>
     </row>
-    <row r="485" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="10">
         <v>1000484</v>
       </c>
     </row>
-    <row r="486" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="10">
         <v>1000485</v>
       </c>
     </row>
-    <row r="487" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="10">
         <v>1000486</v>
       </c>
     </row>
-    <row r="488" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="10">
         <v>1000487</v>
       </c>
     </row>
-    <row r="489" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="10">
         <v>1000488</v>
       </c>
     </row>
-    <row r="490" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="10">
         <v>1000489</v>
       </c>
     </row>
-    <row r="491" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="10">
         <v>1000490</v>
       </c>
     </row>
-    <row r="492" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="10">
         <v>1000491</v>
       </c>
     </row>
-    <row r="493" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="10">
         <v>1000492</v>
       </c>
     </row>
-    <row r="494" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="10">
         <v>1000493</v>
       </c>
     </row>
-    <row r="495" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="10">
         <v>1000494</v>
       </c>
     </row>
-    <row r="496" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="10">
         <v>1000495</v>
       </c>
     </row>
-    <row r="497" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="10">
         <v>1000496</v>
       </c>
     </row>
-    <row r="498" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="10">
         <v>1000497</v>
       </c>
     </row>
-    <row r="499" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="10">
         <v>1000498</v>
       </c>
     </row>
-    <row r="500" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="10">
         <v>1000499</v>
       </c>
     </row>
-    <row r="501" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="10">
         <v>1000500</v>
       </c>
     </row>
-    <row r="502" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="10">
         <v>1000501</v>
       </c>
     </row>
-    <row r="503" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="10">
         <v>1000502</v>
       </c>
     </row>
-    <row r="504" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="10">
         <v>1000503</v>
       </c>
     </row>
-    <row r="505" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="10">
         <v>1000504</v>
       </c>
     </row>
-    <row r="506" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="10">
         <v>1000505</v>
       </c>
     </row>
-    <row r="507" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="10">
         <v>1000506</v>
       </c>
     </row>
-    <row r="508" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="10">
         <v>1000507</v>
       </c>
     </row>
-    <row r="509" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="10">
         <v>1000508</v>
       </c>
     </row>
-    <row r="510" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="10">
         <v>1000509</v>
       </c>
     </row>
-    <row r="511" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="10">
         <v>1000510</v>
       </c>
     </row>
-    <row r="512" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="10">
         <v>1000511</v>
       </c>
     </row>
-    <row r="513" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="10">
         <v>1000512</v>
       </c>
     </row>
-    <row r="514" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="10">
         <v>1000513</v>
       </c>
     </row>
-    <row r="515" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="10">
         <v>1000514</v>
       </c>
     </row>
-    <row r="516" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="10">
         <v>1000515</v>
       </c>
     </row>
-    <row r="517" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="10">
         <v>1000516</v>
       </c>
     </row>
-    <row r="518" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="10">
         <v>1000517</v>
       </c>
     </row>
-    <row r="519" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="10">
         <v>1000518</v>
       </c>
     </row>
-    <row r="520" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="10">
         <v>1000519</v>
       </c>
     </row>
-    <row r="521" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="10">
         <v>1000520</v>
       </c>
     </row>
-    <row r="522" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="10">
         <v>1000521</v>
       </c>
     </row>
-    <row r="523" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="10">
         <v>1000522</v>
       </c>
     </row>
-    <row r="524" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="10">
         <v>1000523</v>
       </c>
     </row>
-    <row r="525" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="10">
         <v>1000524</v>
       </c>
     </row>
-    <row r="526" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="10">
         <v>1000525</v>
       </c>
     </row>
-    <row r="527" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="10">
         <v>1000526</v>
       </c>
     </row>
-    <row r="528" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="10">
         <v>1000527</v>
       </c>
     </row>
-    <row r="529" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="10">
         <v>1000528</v>
       </c>
     </row>
-    <row r="530" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="10">
         <v>1000529</v>
       </c>
     </row>
-    <row r="531" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="10">
         <v>1000530</v>
       </c>
     </row>
-    <row r="532" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="10">
         <v>1000531</v>
       </c>
     </row>
-    <row r="533" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="10">
         <v>1000532</v>
       </c>
     </row>
-    <row r="534" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="10">
         <v>1000533</v>
       </c>
     </row>
-    <row r="535" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="10">
         <v>1000534</v>
       </c>
     </row>
-    <row r="536" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="10">
         <v>1000535</v>
       </c>
     </row>
-    <row r="537" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="10">
         <v>1000536</v>
       </c>
     </row>
-    <row r="538" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="10">
         <v>1000537</v>
       </c>
     </row>
-    <row r="539" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="10">
         <v>1000538</v>
       </c>
     </row>
-    <row r="540" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="10">
         <v>1000539</v>
       </c>
     </row>
-    <row r="541" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="10">
         <v>1000540</v>
       </c>
     </row>
-    <row r="542" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="10">
         <v>1000541</v>
       </c>
     </row>
-    <row r="543" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="10">
         <v>1000542</v>
       </c>
     </row>
-    <row r="544" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="10">
         <v>1000543</v>
       </c>
     </row>
-    <row r="545" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="10">
         <v>1000544</v>
       </c>
     </row>
-    <row r="546" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="10">
         <v>1000545</v>
       </c>
     </row>
-    <row r="547" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="10">
         <v>1000546</v>
       </c>
     </row>
-    <row r="548" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="10">
         <v>1000547</v>
       </c>
     </row>
-    <row r="549" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="10">
         <v>1000548</v>
       </c>
     </row>
-    <row r="550" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="10">
         <v>1000549</v>
       </c>
     </row>
-    <row r="551" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="10">
         <v>1000550</v>
       </c>
     </row>
-    <row r="552" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="10">
         <v>1000551</v>
       </c>
     </row>
-    <row r="553" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="10">
         <v>1000552</v>
       </c>
     </row>
-    <row r="554" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="10">
         <v>1000553</v>
       </c>
     </row>
-    <row r="555" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="10">
         <v>1000554</v>
       </c>
     </row>
-    <row r="556" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="10">
         <v>1000555</v>
       </c>
     </row>
-    <row r="557" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="10">
         <v>1000556</v>
       </c>
     </row>
-    <row r="558" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="10">
         <v>1000557</v>
       </c>
     </row>
-    <row r="559" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="10">
         <v>1000558</v>
       </c>
     </row>
-    <row r="560" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="10">
         <v>1000559</v>
       </c>
     </row>
-    <row r="561" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="10">
         <v>1000560</v>
       </c>
     </row>
-    <row r="562" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="10">
         <v>1000561</v>
       </c>
     </row>
-    <row r="563" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="10">
         <v>1000562</v>
       </c>
     </row>
-    <row r="564" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="10">
         <v>1000563</v>
       </c>
     </row>
-    <row r="565" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="10">
         <v>1000564</v>
       </c>
     </row>
-    <row r="566" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="10">
         <v>1000565</v>
       </c>
     </row>
-    <row r="567" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="10">
         <v>1000566</v>
       </c>
     </row>
-    <row r="568" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="10">
         <v>1000567</v>
       </c>
     </row>
-    <row r="569" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="10">
         <v>1000568</v>
       </c>
     </row>
-    <row r="570" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="10">
         <v>1000569</v>
       </c>
     </row>
-    <row r="571" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="10">
         <v>1000570</v>
       </c>
     </row>
-    <row r="572" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="10">
         <v>1000571</v>
       </c>
     </row>
-    <row r="573" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="10">
         <v>1000572</v>
       </c>
     </row>
-    <row r="574" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="10">
         <v>1000573</v>
       </c>
     </row>
-    <row r="575" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="10">
         <v>1000574</v>
       </c>
     </row>
-    <row r="576" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="10">
         <v>1000575</v>
       </c>
     </row>
-    <row r="577" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="10">
         <v>1000576</v>
       </c>
     </row>
-    <row r="578" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="10">
         <v>1000577</v>
       </c>
     </row>
-    <row r="579" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="10">
         <v>1000578</v>
       </c>
     </row>
-    <row r="580" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="10">
         <v>1000579</v>
       </c>
     </row>
-    <row r="581" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="10">
         <v>1000580</v>
       </c>
     </row>
-    <row r="582" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="10">
         <v>1000581</v>
       </c>
     </row>
-    <row r="583" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="10">
         <v>1000582</v>
       </c>
     </row>
-    <row r="584" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="10">
         <v>1000583</v>
       </c>
     </row>
-    <row r="585" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="10">
         <v>1000584</v>
       </c>
     </row>
-    <row r="586" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="10">
         <v>1000585</v>
       </c>
     </row>
-    <row r="587" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="10">
         <v>1000586</v>
       </c>
     </row>
-    <row r="588" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="10">
         <v>1000587</v>
       </c>
     </row>
-    <row r="589" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="10">
         <v>1000588</v>
       </c>
     </row>
-    <row r="590" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="10">
         <v>1000589</v>
       </c>
     </row>
-    <row r="591" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="10">
         <v>1000590</v>
       </c>
     </row>
-    <row r="592" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="10">
         <v>1000591</v>
       </c>
     </row>
-    <row r="593" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="10">
         <v>1000592</v>
       </c>
     </row>
-    <row r="594" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="10">
         <v>1000593</v>
       </c>
     </row>
-    <row r="595" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="10">
         <v>1000594</v>
       </c>
     </row>
-    <row r="596" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="10">
         <v>1000595</v>
       </c>
     </row>
-    <row r="597" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="10">
         <v>1000596</v>
       </c>
     </row>
-    <row r="598" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="10">
         <v>1000597</v>
       </c>
     </row>
-    <row r="599" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="10">
         <v>1000598</v>
       </c>
     </row>
-    <row r="600" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="10">
         <v>1000599</v>
       </c>
     </row>
-    <row r="601" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="10">
         <v>1000600</v>
       </c>
     </row>
-    <row r="602" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="10">
         <v>1000601</v>
       </c>
     </row>
-    <row r="603" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="10">
         <v>1000602</v>
       </c>
     </row>
-    <row r="604" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="10">
         <v>1000603</v>
       </c>
     </row>
-    <row r="605" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="10">
         <v>1000604</v>
       </c>
     </row>
-    <row r="606" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="10">
         <v>1000605</v>
       </c>
     </row>
-    <row r="607" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="10">
         <v>1000606</v>
       </c>
     </row>
-    <row r="608" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="10">
         <v>1000607</v>
       </c>
     </row>
-    <row r="609" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="10">
         <v>1000608</v>
       </c>
     </row>
-    <row r="610" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="10">
         <v>1000609</v>
       </c>
     </row>
-    <row r="611" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="10">
         <v>1000610</v>
       </c>
     </row>
-    <row r="612" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="10">
         <v>1000611</v>
       </c>
     </row>
-    <row r="613" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="10">
         <v>1000612</v>
       </c>
     </row>
-    <row r="614" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="10">
         <v>1000613</v>
       </c>
     </row>
-    <row r="615" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="10">
         <v>1000614</v>
       </c>
     </row>
-    <row r="616" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="10">
         <v>1000615</v>
       </c>
     </row>
-    <row r="617" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="10">
         <v>1000616</v>
       </c>
     </row>
-    <row r="618" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="10">
         <v>1000617</v>
       </c>
     </row>
-    <row r="619" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="10">
         <v>1000618</v>
       </c>
     </row>
-    <row r="620" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="10">
         <v>1000619</v>
       </c>
     </row>
-    <row r="621" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="10">
         <v>1000620</v>
       </c>
     </row>
-    <row r="622" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="10">
         <v>1000621</v>
       </c>
     </row>
-    <row r="623" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="10">
         <v>1000622</v>
       </c>
     </row>
-    <row r="624" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="10">
         <v>1000623</v>
       </c>
     </row>
-    <row r="625" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="10">
         <v>1000624</v>
       </c>
     </row>
-    <row r="626" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="10">
         <v>1000625</v>
       </c>
     </row>
-    <row r="627" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="10">
         <v>1000626</v>
       </c>
     </row>
-    <row r="628" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="10">
         <v>1000627</v>
       </c>
     </row>
-    <row r="629" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="10">
         <v>1000628</v>
       </c>
     </row>
-    <row r="630" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="10">
         <v>1000629</v>
       </c>
     </row>
-    <row r="631" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="10">
         <v>1000630</v>
       </c>
     </row>
-    <row r="632" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="10">
         <v>1000631</v>
       </c>
     </row>
-    <row r="633" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="10">
         <v>1000632</v>
       </c>
     </row>
-    <row r="634" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="10">
         <v>1000633</v>
       </c>
     </row>
-    <row r="635" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="10">
         <v>1000634</v>
       </c>
     </row>
-    <row r="636" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="10">
         <v>1000635</v>
       </c>
     </row>
-    <row r="637" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="10">
         <v>1000636</v>
       </c>
     </row>
-    <row r="638" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="10">
         <v>1000637</v>
       </c>
     </row>
-    <row r="639" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="10">
         <v>1000638</v>
       </c>
     </row>
-    <row r="640" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="10">
         <v>1000639</v>
       </c>
     </row>
-    <row r="641" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="10">
         <v>1000640</v>
       </c>
     </row>
-    <row r="642" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="10">
         <v>1000641</v>
       </c>
     </row>
-    <row r="643" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="10">
         <v>1000642</v>
       </c>
     </row>
-    <row r="644" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="10">
         <v>1000643</v>
       </c>
     </row>
-    <row r="645" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="10">
         <v>1000644</v>
       </c>
     </row>
-    <row r="646" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="10">
         <v>1000645</v>
       </c>
     </row>
-    <row r="647" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="10">
         <v>1000646</v>
       </c>
     </row>
-    <row r="648" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="10">
         <v>1000647</v>
       </c>
     </row>
-    <row r="649" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="10">
         <v>1000648</v>
       </c>
     </row>
-    <row r="650" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="10">
         <v>1000649</v>
       </c>
     </row>
-    <row r="651" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="10">
         <v>1000650</v>
       </c>
     </row>
-    <row r="652" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="10">
         <v>1000651</v>
       </c>
     </row>
-    <row r="653" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="10">
         <v>1000652</v>
       </c>
     </row>
-    <row r="654" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="10">
         <v>1000653</v>
       </c>
     </row>
-    <row r="655" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="10">
         <v>1000654</v>
       </c>
     </row>
-    <row r="656" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="10">
         <v>1000655</v>
       </c>
     </row>
-    <row r="657" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="10">
         <v>1000656</v>
       </c>
     </row>
-    <row r="658" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="10">
         <v>1000657</v>
       </c>
     </row>
-    <row r="659" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="10">
         <v>1000658</v>
       </c>
     </row>
-    <row r="660" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="10">
         <v>1000659</v>
       </c>
     </row>
-    <row r="661" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="10">
         <v>1000660</v>
       </c>
     </row>
-    <row r="662" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="10">
         <v>1000661</v>
       </c>
     </row>
-    <row r="663" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="10">
         <v>1000662</v>
       </c>
     </row>
-    <row r="664" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="10">
         <v>1000663</v>
       </c>
     </row>
-    <row r="665" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="10">
         <v>1000664</v>
       </c>
     </row>
-    <row r="666" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="10">
         <v>1000665</v>
       </c>
     </row>
-    <row r="667" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="10">
         <v>1000666</v>
       </c>
     </row>
-    <row r="668" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="10">
         <v>1000667</v>
       </c>
     </row>
-    <row r="669" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="10">
         <v>1000668</v>
       </c>
     </row>
-    <row r="670" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="10">
         <v>1000669</v>
       </c>
     </row>
-    <row r="671" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="10">
         <v>1000670</v>
       </c>
     </row>
-    <row r="672" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="10">
         <v>1000671</v>
       </c>
     </row>
-    <row r="673" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="10">
         <v>1000672</v>
       </c>
     </row>
-    <row r="674" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="10">
         <v>1000673</v>
       </c>
     </row>
-    <row r="675" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="10">
         <v>1000674</v>
       </c>
     </row>
-    <row r="676" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="10">
         <v>1000675</v>
       </c>
     </row>
-    <row r="677" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="10">
         <v>1000676</v>
       </c>
     </row>
-    <row r="678" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="10">
         <v>1000677</v>
       </c>
     </row>
-    <row r="679" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="10">
         <v>1000678</v>
       </c>
     </row>
-    <row r="680" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="10">
         <v>1000679</v>
       </c>
     </row>
-    <row r="681" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="10">
         <v>1000680</v>
       </c>
     </row>
-    <row r="682" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="10">
         <v>1000681</v>
       </c>
     </row>
-    <row r="683" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="10">
         <v>1000682</v>
       </c>
     </row>
-    <row r="684" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="10">
         <v>1000683</v>
       </c>
     </row>
-    <row r="685" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="10">
         <v>1000684</v>
       </c>
     </row>
-    <row r="686" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="10">
         <v>1000685</v>
       </c>
     </row>
-    <row r="687" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="10">
         <v>1000686</v>
       </c>
     </row>
-    <row r="688" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="10">
         <v>1000687</v>
       </c>
     </row>
-    <row r="689" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="10">
         <v>1000688</v>
       </c>
     </row>
-    <row r="690" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="10">
         <v>1000689</v>
       </c>
     </row>
-    <row r="691" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="10">
         <v>1000690</v>
       </c>
     </row>
-    <row r="692" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="10">
         <v>1000691</v>
       </c>
     </row>
-    <row r="693" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="10">
         <v>1000692</v>
       </c>
     </row>
-    <row r="694" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="10">
         <v>1000693</v>
       </c>
     </row>
-    <row r="695" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="10">
         <v>1000694</v>
       </c>
     </row>
-    <row r="696" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="10">
         <v>1000695</v>
       </c>
     </row>
-    <row r="697" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="10">
         <v>1000696</v>
       </c>
     </row>
-    <row r="698" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="10">
         <v>1000697</v>
       </c>
     </row>
-    <row r="699" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="10">
         <v>1000698</v>
       </c>
     </row>
-    <row r="700" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="10">
         <v>1000699</v>
       </c>
     </row>
-    <row r="701" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="10">
         <v>1000700</v>
       </c>
     </row>
-    <row r="702" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="10">
         <v>1000701</v>
       </c>
     </row>
-    <row r="703" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="10">
         <v>1000702</v>
       </c>
     </row>
-    <row r="704" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="10">
         <v>1000703</v>
       </c>
     </row>
-    <row r="705" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="10">
         <v>1000704</v>
       </c>
     </row>
-    <row r="706" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="10">
         <v>1000705</v>
       </c>
     </row>
-    <row r="707" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="10">
         <v>1000706</v>
       </c>
     </row>
-    <row r="708" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="10">
         <v>1000707</v>
       </c>
     </row>
-    <row r="709" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="10">
         <v>1000708</v>
       </c>
     </row>
-    <row r="710" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="10">
         <v>1000709</v>
       </c>
     </row>
-    <row r="711" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="10">
         <v>1000710</v>
       </c>
     </row>
-    <row r="712" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="10">
         <v>1000711</v>
       </c>
     </row>
-    <row r="713" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="10">
         <v>1000712</v>
       </c>
     </row>
-    <row r="714" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="10">
         <v>1000713</v>
       </c>
     </row>
-    <row r="715" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="10">
         <v>1000714</v>
       </c>
     </row>
-    <row r="716" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="10">
         <v>1000715</v>
       </c>
     </row>
-    <row r="717" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="10">
         <v>1000716</v>
       </c>
     </row>
-    <row r="718" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="10">
         <v>1000717</v>
       </c>
     </row>
-    <row r="719" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="10">
         <v>1000718</v>
       </c>
     </row>
-    <row r="720" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="10">
         <v>1000719</v>
       </c>
     </row>
-    <row r="721" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="10">
         <v>1000720</v>
       </c>
     </row>
-    <row r="722" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="10">
         <v>1000721</v>
       </c>
     </row>
-    <row r="723" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="10">
         <v>1000722</v>
       </c>
     </row>
-    <row r="724" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="10">
         <v>1000723</v>
       </c>
     </row>
-    <row r="725" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="10">
         <v>1000724</v>
       </c>
     </row>
-    <row r="726" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="10">
         <v>1000725</v>
       </c>
     </row>
-    <row r="727" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="10">
         <v>1000726</v>
       </c>
     </row>
-    <row r="728" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="10">
         <v>1000727</v>
       </c>
     </row>
-    <row r="729" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="10">
         <v>1000728</v>
       </c>
     </row>
-    <row r="730" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="10">
         <v>1000729</v>
       </c>
     </row>
-    <row r="731" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="10">
         <v>1000730</v>
       </c>
     </row>
-    <row r="732" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="10">
         <v>1000731</v>
       </c>
     </row>
-    <row r="733" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="10">
         <v>1000732</v>
       </c>
     </row>
-    <row r="734" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="10">
         <v>1000733</v>
       </c>
     </row>
-    <row r="735" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="10">
         <v>1000734</v>
       </c>
     </row>
-    <row r="736" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="10">
         <v>1000735</v>
       </c>
     </row>
-    <row r="737" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="10">
         <v>1000736</v>
       </c>
     </row>
-    <row r="738" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="10">
         <v>1000737</v>
       </c>
     </row>
-    <row r="739" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="10">
         <v>1000738</v>
       </c>
     </row>
-    <row r="740" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="10">
         <v>1000739</v>
       </c>
     </row>
-    <row r="741" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="10">
         <v>1000740</v>
       </c>
     </row>
-    <row r="742" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="10">
         <v>1000741</v>
       </c>
     </row>
-    <row r="743" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="10">
         <v>1000742</v>
       </c>
     </row>
-    <row r="744" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="10">
         <v>1000743</v>
       </c>
     </row>
-    <row r="745" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="10">
         <v>1000744</v>
       </c>
     </row>
-    <row r="746" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="10">
         <v>1000745</v>
       </c>
     </row>
-    <row r="747" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="10">
         <v>1000746</v>
       </c>
     </row>
-    <row r="748" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="10">
         <v>1000747</v>
       </c>
     </row>
-    <row r="749" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="10">
         <v>1000748</v>
       </c>
     </row>
-    <row r="750" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="10">
         <v>1000749</v>
       </c>
     </row>
-    <row r="751" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="10">
         <v>1000750</v>
       </c>
     </row>
-    <row r="752" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="10">
         <v>1000751</v>
       </c>
     </row>
-    <row r="753" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="10">
         <v>1000752</v>
       </c>
     </row>
-    <row r="754" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="10">
         <v>1000753</v>
       </c>
     </row>
-    <row r="755" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="10">
         <v>1000754</v>
       </c>
     </row>
-    <row r="756" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="10">
         <v>1000755</v>
       </c>
     </row>
-    <row r="757" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="10">
         <v>1000756</v>
       </c>
     </row>
-    <row r="758" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="10">
         <v>1000757</v>
       </c>
     </row>
-    <row r="759" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="10">
         <v>1000758</v>
       </c>
     </row>
-    <row r="760" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="10">
         <v>1000759</v>
       </c>
     </row>
-    <row r="761" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="10">
         <v>1000760</v>
       </c>
     </row>
-    <row r="762" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="10">
         <v>1000761</v>
       </c>
     </row>
-    <row r="763" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="10">
         <v>1000762</v>
       </c>
     </row>
-    <row r="764" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="10">
         <v>1000763</v>
       </c>
     </row>
-    <row r="765" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="10">
         <v>1000764</v>
       </c>
     </row>
-    <row r="766" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="10">
         <v>1000765</v>
       </c>
     </row>
-    <row r="767" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="10">
         <v>1000766</v>
       </c>
     </row>
-    <row r="768" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="10">
         <v>1000767</v>
       </c>
     </row>
-    <row r="769" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="10">
         <v>1000768</v>
       </c>
     </row>
-    <row r="770" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="10">
         <v>1000769</v>
       </c>
     </row>
-    <row r="771" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="10">
         <v>1000770</v>
       </c>
     </row>
-    <row r="772" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="10">
         <v>1000771</v>
       </c>
     </row>
-    <row r="773" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="10">
         <v>1000772</v>
       </c>
     </row>
-    <row r="774" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="10">
         <v>1000773</v>
       </c>
     </row>
-    <row r="775" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="10">
         <v>1000774</v>
       </c>
     </row>
-    <row r="776" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="10">
         <v>1000775</v>
       </c>
     </row>
-    <row r="777" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="10">
         <v>1000776</v>
       </c>
     </row>
-    <row r="778" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="10">
         <v>1000777</v>
       </c>
     </row>
-    <row r="779" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="10">
         <v>1000778</v>
       </c>
     </row>
-    <row r="780" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="10">
         <v>1000779</v>
       </c>
     </row>
-    <row r="781" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="10">
         <v>1000780</v>
       </c>
     </row>
-    <row r="782" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="10">
         <v>1000781</v>
       </c>
     </row>
-    <row r="783" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="10">
         <v>1000782</v>
       </c>
     </row>
-    <row r="784" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="10">
         <v>1000783</v>
       </c>
     </row>
-    <row r="785" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="10">
         <v>1000784</v>
       </c>
     </row>
-    <row r="786" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="10">
         <v>1000785</v>
       </c>
     </row>
-    <row r="787" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="10">
         <v>1000786</v>
       </c>
     </row>
-    <row r="788" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="10">
         <v>1000787</v>
       </c>
     </row>
-    <row r="789" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="10">
         <v>1000788</v>
       </c>
     </row>
-    <row r="790" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="10">
         <v>1000789</v>
       </c>
     </row>
-    <row r="791" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="10">
         <v>1000790</v>
       </c>
     </row>
-    <row r="792" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="10">
         <v>1000791</v>
       </c>
     </row>
-    <row r="793" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="10">
         <v>1000792</v>
       </c>
     </row>
-    <row r="794" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="10">
         <v>1000793</v>
       </c>
     </row>
-    <row r="795" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="10">
         <v>1000794</v>
       </c>
     </row>
-    <row r="796" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="10">
         <v>1000795</v>
       </c>
     </row>
-    <row r="797" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="10">
         <v>1000796</v>
       </c>
     </row>
-    <row r="798" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="10">
         <v>1000797</v>
       </c>
     </row>
-    <row r="799" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="10">
         <v>1000798</v>
       </c>
     </row>
-    <row r="800" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="10">
         <v>1000799</v>
       </c>
     </row>
-    <row r="801" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="10">
         <v>1000800</v>
       </c>
     </row>
-    <row r="802" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="10">
         <v>1000801</v>
       </c>
     </row>
-    <row r="803" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="10">
         <v>1000802</v>
       </c>
     </row>
-    <row r="804" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="10">
         <v>1000803</v>
       </c>
     </row>
-    <row r="805" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="10">
         <v>1000804</v>
       </c>
     </row>
-    <row r="806" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="10">
         <v>1000805</v>
       </c>
     </row>
-    <row r="807" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="10">
         <v>1000806</v>
       </c>
     </row>
-    <row r="808" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="10">
         <v>1000807</v>
       </c>
     </row>
-    <row r="809" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="10">
         <v>1000808</v>
       </c>
     </row>
-    <row r="810" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="10">
         <v>1000809</v>
       </c>
     </row>
-    <row r="811" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="10">
         <v>1000810</v>
       </c>
     </row>
-    <row r="812" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="10">
         <v>1000811</v>
       </c>
     </row>
-    <row r="813" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="10">
         <v>1000812</v>
       </c>
     </row>
-    <row r="814" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="10">
         <v>1000813</v>
       </c>
     </row>
-    <row r="815" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="10">
         <v>1000814</v>
       </c>
     </row>
-    <row r="816" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="10">
         <v>1000815</v>
       </c>
     </row>
-    <row r="817" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="10">
         <v>1000816</v>
       </c>
     </row>
-    <row r="818" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="10">
         <v>1000817</v>
       </c>
     </row>
-    <row r="819" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="10">
         <v>1000818</v>
       </c>
     </row>
-    <row r="820" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="10">
         <v>1000819</v>
       </c>
     </row>
-    <row r="821" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="10">
         <v>1000820</v>
       </c>
     </row>
-    <row r="822" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="10">
         <v>1000821</v>
       </c>
     </row>
-    <row r="823" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="10">
         <v>1000822</v>
       </c>
     </row>
-    <row r="824" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="10">
         <v>1000823</v>
       </c>
     </row>
-    <row r="825" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="10">
         <v>1000824</v>
       </c>
     </row>
-    <row r="826" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="10">
         <v>1000825</v>
       </c>
     </row>
-    <row r="827" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="10">
         <v>1000826</v>
       </c>
     </row>
-    <row r="828" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="10">
         <v>1000827</v>
       </c>
     </row>
-    <row r="829" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="10">
         <v>1000828</v>
       </c>
     </row>
-    <row r="830" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="10">
         <v>1000829</v>
       </c>
     </row>
-    <row r="831" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="10">
         <v>1000830</v>
       </c>
     </row>
-    <row r="832" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="10">
         <v>1000831</v>
       </c>
     </row>
-    <row r="833" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="10">
         <v>1000832</v>
       </c>
     </row>
-    <row r="834" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="10">
         <v>1000833</v>
       </c>
     </row>
-    <row r="835" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="10">
         <v>1000834</v>
       </c>
     </row>
-    <row r="836" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="10">
         <v>1000835</v>
       </c>
     </row>
-    <row r="837" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="10">
         <v>1000836</v>
       </c>
     </row>
-    <row r="838" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="10">
         <v>1000837</v>
       </c>
     </row>
-    <row r="839" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="10">
         <v>1000838</v>
       </c>
     </row>
-    <row r="840" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="10">
         <v>1000839</v>
       </c>
     </row>
-    <row r="841" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="10">
         <v>1000840</v>
       </c>
     </row>
-    <row r="842" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="10">
         <v>1000841</v>
       </c>
     </row>
-    <row r="843" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="10">
         <v>1000842</v>
       </c>
     </row>
-    <row r="844" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="10">
         <v>1000843</v>
       </c>
     </row>
-    <row r="845" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="10">
         <v>1000844</v>
       </c>
     </row>
-    <row r="846" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="10">
         <v>1000845</v>
       </c>
     </row>
-    <row r="847" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="10">
         <v>1000846</v>
       </c>
     </row>
-    <row r="848" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="10">
         <v>1000847</v>
       </c>
     </row>
-    <row r="849" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="10">
         <v>1000848</v>
       </c>
     </row>
-    <row r="850" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="10">
         <v>1000849</v>
       </c>
     </row>
-    <row r="851" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="10">
         <v>1000850</v>
       </c>
     </row>
-    <row r="852" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="10">
         <v>1000851</v>
       </c>
     </row>
-    <row r="853" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="10">
         <v>1000852</v>
       </c>
     </row>
-    <row r="854" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="10">
         <v>1000853</v>
       </c>
     </row>
-    <row r="855" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="10">
         <v>1000854</v>
       </c>
     </row>
-    <row r="856" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="10">
         <v>1000855</v>
       </c>
     </row>
-    <row r="857" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="10">
         <v>1000856</v>
       </c>
     </row>
-    <row r="858" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="10">
         <v>1000857</v>
       </c>
     </row>
-    <row r="859" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="10">
         <v>1000858</v>
       </c>
     </row>
-    <row r="860" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="10">
         <v>1000859</v>
       </c>
     </row>
-    <row r="861" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="10">
         <v>1000860</v>
       </c>
     </row>
-    <row r="862" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="10">
         <v>1000861</v>
       </c>
     </row>
-    <row r="863" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="10">
         <v>1000862</v>
       </c>
     </row>
-    <row r="864" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="10">
         <v>1000863</v>
       </c>
     </row>
-    <row r="865" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="10">
         <v>1000864</v>
       </c>
     </row>
-    <row r="866" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="10">
         <v>1000865</v>
       </c>
     </row>
-    <row r="867" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="10">
         <v>1000866</v>
       </c>
     </row>
-    <row r="868" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="10">
         <v>1000867</v>
       </c>
     </row>
-    <row r="869" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="10">
         <v>1000868</v>
       </c>
     </row>
-    <row r="870" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="10">
         <v>1000869</v>
       </c>
     </row>
-    <row r="871" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="10">
         <v>1000870</v>
       </c>
     </row>
-    <row r="872" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="10">
         <v>1000871</v>
       </c>
     </row>
-    <row r="873" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="10">
         <v>1000872</v>
       </c>
     </row>
-    <row r="874" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="10">
         <v>1000873</v>
       </c>
     </row>
-    <row r="875" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="10">
         <v>1000874</v>
       </c>
     </row>
-    <row r="876" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="10">
         <v>1000875</v>
       </c>
     </row>
-    <row r="877" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="10">
         <v>1000876</v>
       </c>
     </row>
-    <row r="878" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="10">
         <v>1000877</v>
       </c>
     </row>
-    <row r="879" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="10">
         <v>1000878</v>
       </c>
     </row>
-    <row r="880" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="10">
         <v>1000879</v>
       </c>
     </row>
-    <row r="881" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="10">
         <v>1000880</v>
       </c>
     </row>
-    <row r="882" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="10">
         <v>1000881</v>
       </c>
     </row>
-    <row r="883" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="10">
         <v>1000882</v>
       </c>
     </row>
-    <row r="884" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="10">
         <v>1000883</v>
       </c>
     </row>
-    <row r="885" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="10">
         <v>1000884</v>
       </c>
     </row>
-    <row r="886" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="10">
         <v>1000885</v>
       </c>
     </row>
-    <row r="887" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="10">
         <v>1000886</v>
       </c>
     </row>
-    <row r="888" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="10">
         <v>1000887</v>
       </c>
     </row>
-    <row r="889" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="10">
         <v>1000888</v>
       </c>
     </row>
-    <row r="890" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="10">
         <v>1000889</v>
       </c>
     </row>
-    <row r="891" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="10">
         <v>1000890</v>
       </c>
     </row>
-    <row r="892" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="10">
         <v>1000891</v>
       </c>
     </row>
-    <row r="893" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="10">
         <v>1000892</v>
       </c>
     </row>
-    <row r="894" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="10">
         <v>1000893</v>
       </c>
     </row>
-    <row r="895" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="10">
         <v>1000894</v>
       </c>
     </row>
-    <row r="896" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="10">
         <v>1000895</v>
       </c>
     </row>
-    <row r="897" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="10">
         <v>1000896</v>
       </c>
     </row>
-    <row r="898" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="10">
         <v>1000897</v>
       </c>
     </row>
-    <row r="899" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="10">
         <v>1000898</v>
       </c>
     </row>
-    <row r="900" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="10">
         <v>1000899</v>
       </c>
     </row>
-    <row r="901" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="10">
         <v>1000900</v>
       </c>
     </row>
-    <row r="902" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="10">
         <v>1000901</v>
       </c>
     </row>
-    <row r="903" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="10">
         <v>1000902</v>
       </c>
     </row>
-    <row r="904" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="10">
         <v>1000903</v>
       </c>
     </row>
-    <row r="905" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="10">
         <v>1000904</v>
       </c>
     </row>
-    <row r="906" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="10">
         <v>1000905</v>
       </c>
     </row>
-    <row r="907" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="10">
         <v>1000906</v>
       </c>
     </row>
-    <row r="908" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="10">
         <v>1000907</v>
       </c>
     </row>
-    <row r="909" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="10">
         <v>1000908</v>
       </c>
     </row>
-    <row r="910" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="10">
         <v>1000909</v>
       </c>
     </row>
-    <row r="911" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="10">
         <v>1000910</v>
       </c>
     </row>
-    <row r="912" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="10">
         <v>1000911</v>
       </c>
     </row>
-    <row r="913" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="10">
         <v>1000912</v>
       </c>
     </row>
-    <row r="914" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="10">
         <v>1000913</v>
       </c>
     </row>
-    <row r="915" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="10">
         <v>1000914</v>
       </c>
     </row>
-    <row r="916" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="10">
         <v>1000915</v>
       </c>
     </row>
-    <row r="917" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="10">
         <v>1000916</v>
       </c>
     </row>
-    <row r="918" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="10">
         <v>1000917</v>
       </c>
     </row>
-    <row r="919" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="10">
         <v>1000918</v>
       </c>
     </row>
-    <row r="920" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="10">
         <v>1000919</v>
       </c>
     </row>
-    <row r="921" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="10">
         <v>1000920</v>
       </c>
     </row>
-    <row r="922" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="10">
         <v>1000921</v>
       </c>
     </row>
-    <row r="923" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="10">
         <v>1000922</v>
       </c>
     </row>
-    <row r="924" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="10">
         <v>1000923</v>
       </c>
     </row>
-    <row r="925" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="10">
         <v>1000924</v>
       </c>
     </row>
-    <row r="926" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="10">
         <v>1000925</v>
       </c>
     </row>
-    <row r="927" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="10">
         <v>1000926</v>
       </c>
     </row>
-    <row r="928" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="10">
         <v>1000927</v>
       </c>
     </row>
-    <row r="929" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="10">
         <v>1000928</v>
       </c>
     </row>
-    <row r="930" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="10">
         <v>1000929</v>
       </c>
     </row>
-    <row r="931" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="10">
         <v>1000930</v>
       </c>
     </row>
-    <row r="932" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="10">
         <v>1000931</v>
       </c>
     </row>
-    <row r="933" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="10">
         <v>1000932</v>
       </c>
     </row>
-    <row r="934" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="10">
         <v>1000933</v>
       </c>
     </row>
-    <row r="935" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="10">
         <v>1000934</v>
       </c>
     </row>
-    <row r="936" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="10">
         <v>1000935</v>
       </c>
     </row>
-    <row r="937" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="10">
         <v>1000936</v>
       </c>
     </row>
-    <row r="938" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="10">
         <v>1000937</v>
       </c>
     </row>
-    <row r="939" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="10">
         <v>1000938</v>
       </c>
     </row>
-    <row r="940" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="10">
         <v>1000939</v>
       </c>
     </row>
-    <row r="941" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="10">
         <v>1000940</v>
       </c>
     </row>
-    <row r="942" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="10">
         <v>1000941</v>
       </c>
     </row>
-    <row r="943" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="10">
         <v>1000942</v>
       </c>
     </row>
-    <row r="944" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="10">
         <v>1000943</v>
       </c>
     </row>
-    <row r="945" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="10">
         <v>1000944</v>
       </c>
     </row>
-    <row r="946" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="10">
         <v>1000945</v>
       </c>
     </row>
-    <row r="947" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="10">
         <v>1000946</v>
       </c>
     </row>
-    <row r="948" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="10">
         <v>1000947</v>
       </c>
     </row>
-    <row r="949" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="10">
         <v>1000948</v>
       </c>
     </row>
-    <row r="950" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="10">
         <v>1000949</v>
       </c>
     </row>
-    <row r="951" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="10">
         <v>1000950</v>
       </c>
     </row>
-    <row r="952" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="10">
         <v>1000951</v>
       </c>
     </row>
-    <row r="953" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="10">
         <v>1000952</v>
       </c>
     </row>
-    <row r="954" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="10">
         <v>1000953</v>
       </c>
     </row>
-    <row r="955" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="10">
         <v>1000954</v>
       </c>
     </row>
-    <row r="956" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="10">
         <v>1000955</v>
       </c>
     </row>
-    <row r="957" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="10">
         <v>1000956</v>
       </c>
     </row>
-    <row r="958" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="10">
         <v>1000957</v>
       </c>
     </row>
-    <row r="959" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="10">
         <v>1000958</v>
       </c>
     </row>
-    <row r="960" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="10">
         <v>1000959</v>
       </c>
     </row>
-    <row r="961" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="10">
         <v>1000960</v>
       </c>
     </row>
-    <row r="962" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="10">
         <v>1000961</v>
       </c>
     </row>
-    <row r="963" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="10">
         <v>1000962</v>
       </c>
     </row>
-    <row r="964" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="10">
         <v>1000963</v>
       </c>
     </row>
-    <row r="965" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="10">
         <v>1000964</v>
       </c>
     </row>
-    <row r="966" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="10">
         <v>1000965</v>
       </c>
     </row>
-    <row r="967" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="10">
         <v>1000966</v>
       </c>
     </row>
-    <row r="968" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="10">
         <v>1000967</v>
       </c>
     </row>
-    <row r="969" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="10">
         <v>1000968</v>
       </c>
     </row>
-    <row r="970" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="10">
         <v>1000969</v>
       </c>
     </row>
-    <row r="971" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="10">
         <v>1000970</v>
       </c>
     </row>
-    <row r="972" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="10">
         <v>1000971</v>
       </c>
     </row>
-    <row r="973" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="10">
         <v>1000972</v>
       </c>
     </row>
-    <row r="974" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="10">
         <v>1000973</v>
       </c>
     </row>
-    <row r="975" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="10">
         <v>1000974</v>
       </c>
     </row>
-    <row r="976" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="10">
         <v>1000975</v>
       </c>
     </row>
-    <row r="977" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="10">
         <v>1000976</v>
       </c>
     </row>
-    <row r="978" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="10">
         <v>1000977</v>
       </c>
     </row>
-    <row r="979" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="10">
         <v>1000978</v>
       </c>
     </row>
-    <row r="980" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="10">
         <v>1000979</v>
       </c>
     </row>
-    <row r="981" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="10">
         <v>1000980</v>
       </c>
     </row>
-    <row r="982" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="10">
         <v>1000981</v>
       </c>
     </row>
-    <row r="983" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="10">
         <v>1000982</v>
       </c>
     </row>
-    <row r="984" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="10">
         <v>1000983</v>
       </c>
     </row>
-    <row r="985" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="10">
         <v>1000984</v>
       </c>
     </row>
-    <row r="986" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="10">
         <v>1000985</v>
       </c>
     </row>
-    <row r="987" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="10">
         <v>1000986</v>
       </c>
     </row>
-    <row r="988" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="10">
         <v>1000987</v>
       </c>
     </row>
-    <row r="989" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="10">
         <v>1000988</v>
       </c>
     </row>
-    <row r="990" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="10">
         <v>1000989</v>
       </c>
     </row>
-    <row r="991" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="10">
         <v>1000990</v>
       </c>
     </row>
-    <row r="992" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="10">
         <v>1000991</v>
       </c>
     </row>
-    <row r="993" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="10">
         <v>1000992</v>
       </c>
     </row>
-    <row r="994" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="10">
         <v>1000993</v>
       </c>
     </row>
-    <row r="995" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="10">
         <v>1000994</v>
       </c>
     </row>
-    <row r="996" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="10">
         <v>1000995</v>
       </c>
     </row>
-    <row r="997" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="10">
         <v>1000996</v>
       </c>
     </row>
-    <row r="998" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="10">
         <v>1000997</v>
       </c>
     </row>
-    <row r="999" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A999" s="10">
         <v>1000998</v>
       </c>
     </row>
-    <row r="1000" spans="1:1" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1000" s="10">
         <v>1000999</v>
       </c>
@@ -9708,16 +9916,19 @@
   </sheetData>
   <autoFilter ref="E1:J1000">
     <filterColumn colId="0">
-      <filters>
+      <filters blank="1">
         <filter val="Blue"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
-      <filters>
+      <filters blank="1">
         <filter val="Creature"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <sortState ref="A6:N1000">
+    <sortCondition ref="F1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Battle Eles.xlsx
+++ b/Battle Eles.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Cards" sheetId="1" r:id="rId1"/>
-    <sheet name="DeckBuilding" sheetId="2" r:id="rId2"/>
-    <sheet name="Numeric" sheetId="3" r:id="rId3"/>
+    <sheet name="Card" sheetId="1" r:id="rId1"/>
+    <sheet name="CardSlot" sheetId="4" r:id="rId2"/>
+    <sheet name="DeckBuilding" sheetId="2" r:id="rId3"/>
+    <sheet name="Numeric" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cards!$E$1:$K$1000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Card!$E$1:$K$1000</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="449">
   <si>
     <t>Cost</t>
   </si>
@@ -1341,6 +1342,36 @@
   </si>
   <si>
     <t>flavorText_en</t>
+  </si>
+  <si>
+    <t>Conflux</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>战斗时，敌对生物力量-1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>每回合开始阶段防御+1</t>
+  </si>
+  <si>
+    <t>生物入场时，力量+1</t>
+  </si>
+  <si>
+    <t>生物入场时，获得【迅捷】</t>
   </si>
 </sst>
 </file>
@@ -1795,11 +1826,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10738,6 +10769,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" t="s">
+        <v>448</v>
+      </c>
+      <c r="F2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -10751,7 +10855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F10"/>
@@ -10787,19 +10891,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A2,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;B$1)</f>
         <v>8</v>
       </c>
       <c r="C2" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A2,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;C$1)</f>
         <v>8</v>
       </c>
       <c r="D2" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A2,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;D$1)</f>
         <v>7</v>
       </c>
       <c r="E2" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A2,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A2,Card!$E:$E,"="&amp;E$1)</f>
         <v>8</v>
       </c>
       <c r="F2" s="5">
@@ -10811,19 +10915,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A3,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;B$1)</f>
         <v>7</v>
       </c>
       <c r="C3" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A3,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;C$1)</f>
         <v>6</v>
       </c>
       <c r="D3" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A3,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;D$1)</f>
         <v>9</v>
       </c>
       <c r="E3" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A3,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A3,Card!$E:$E,"="&amp;E$1)</f>
         <v>7</v>
       </c>
       <c r="F3" s="5">
@@ -10835,19 +10939,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A4,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;B$1)</f>
         <v>6</v>
       </c>
       <c r="C4" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A4,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;C$1)</f>
         <v>7</v>
       </c>
       <c r="D4" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A4,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;D$1)</f>
         <v>7</v>
       </c>
       <c r="E4" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A4,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A4,Card!$E:$E,"="&amp;E$1)</f>
         <v>3</v>
       </c>
       <c r="F4" s="5">
@@ -10859,19 +10963,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A5,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;B$1)</f>
         <v>6</v>
       </c>
       <c r="C5" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A5,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;C$1)</f>
         <v>6</v>
       </c>
       <c r="D5" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A5,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;D$1)</f>
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A5,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A5,Card!$E:$E,"="&amp;E$1)</f>
         <v>2</v>
       </c>
       <c r="F5" s="5">
@@ -10883,19 +10987,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A6,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;B$1)</f>
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A6,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;C$1)</f>
         <v>4</v>
       </c>
       <c r="D6" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A6,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;D$1)</f>
         <v>3</v>
       </c>
       <c r="E6" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A6,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A6,Card!$E:$E,"="&amp;E$1)</f>
         <v>2</v>
       </c>
       <c r="F6" s="5">
@@ -10907,19 +11011,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A7,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;B$1)</f>
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A7,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;C$1)</f>
         <v>2</v>
       </c>
       <c r="D7" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A7,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;D$1)</f>
         <v>2</v>
       </c>
       <c r="E7" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A7,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A7,Card!$E:$E,"="&amp;E$1)</f>
         <v>2</v>
       </c>
       <c r="F7" s="5">
@@ -10931,19 +11035,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A8,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;B$1)</f>
         <v>2</v>
       </c>
       <c r="C8" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A8,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;C$1)</f>
         <v>2</v>
       </c>
       <c r="D8" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A8,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;D$1)</f>
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A8,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A8,Card!$E:$E,"="&amp;E$1)</f>
         <v>1</v>
       </c>
       <c r="F8" s="5">
@@ -10955,19 +11059,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A9,Cards!$E:$E,"="&amp;B$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;B$1)</f>
         <v>1</v>
       </c>
       <c r="C9" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A9,Cards!$E:$E,"="&amp;C$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;C$1)</f>
         <v>1</v>
       </c>
       <c r="D9" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A9,Cards!$E:$E,"="&amp;D$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;D$1)</f>
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <f>COUNTIFS(Cards!$G:$G,"="&amp;$A9,Cards!$E:$E,"="&amp;E$1)</f>
+        <f>COUNTIFS(Card!$G:$G,"="&amp;$A9,Card!$E:$E,"="&amp;E$1)</f>
         <v>1</v>
       </c>
       <c r="F9" s="5">
